--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1703E-6374-4540-A5F4-62280EB80C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7E4F5-4314-4CD0-A7DE-3FFD2A5F9F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="810" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
-  <si>
-    <t>M4_weekly</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>Algorithm</t>
   </si>
@@ -52,9 +48,6 @@
     <t>MSIS</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -131,6 +124,18 @@
   </si>
   <si>
     <t>prediction</t>
+  </si>
+  <si>
+    <t>training loss constant after 36 epochs</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>stopped after it did not improve between epochs 20-100</t>
+  </si>
+  <si>
+    <t>m4_quarterly</t>
   </si>
 </sst>
 </file>
@@ -172,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,11 +185,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,6 +217,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,87 +503,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.08984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="50.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
@@ -595,149 +613,157 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>168</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.8305033360985501</v>
+      </c>
+      <c r="L3">
+        <v>7.5700859184286706E-2</v>
+      </c>
+      <c r="M3">
+        <v>21.598772288563801</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K4" s="1">
-        <v>2.8305033360985501</v>
+        <v>5.0389744272223203</v>
       </c>
       <c r="L4">
-        <v>7.5700859184286706E-2</v>
+        <v>0.14075244167457199</v>
       </c>
       <c r="M4">
-        <v>21.598772288563801</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>16</v>
+        <v>40.1333233555251</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>1E-3</v>
-      </c>
       <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1">
-        <v>168</v>
-      </c>
       <c r="K5" s="1">
-        <v>10.6470938985173</v>
+        <v>2.6969850000000002</v>
       </c>
       <c r="L5">
-        <v>0.16259793191504299</v>
+        <v>8.5638000000000006E-2</v>
       </c>
       <c r="M5">
-        <v>393.64675336399199</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>25.057198</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>1E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>168</v>
       </c>
       <c r="K6" s="1">
-        <v>3.91654659977242</v>
+        <v>2.93188017466235</v>
       </c>
       <c r="L6">
-        <v>8.2863294567558601E-2</v>
+        <v>7.3123317249618694E-2</v>
       </c>
       <c r="M6">
-        <v>40.8570696912887</v>
+        <v>28.1897450150365</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>168</v>
       </c>
       <c r="K7" s="1">
-        <v>3.4064209145483701</v>
+        <v>4.7845313238501799</v>
       </c>
       <c r="L7">
-        <v>7.8396222427316295E-2</v>
+        <v>8.2049655548137396E-2</v>
       </c>
       <c r="M7">
-        <v>41.742642977790702</v>
+        <v>46.912122813676</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
@@ -748,74 +774,74 @@
       <c r="H8" s="1">
         <v>168</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K8" s="1">
-        <v>16.4086691296114</v>
+        <v>3.4256568489382202</v>
       </c>
       <c r="L8">
-        <v>0.33242257333183201</v>
+        <v>7.8023623476367404E-2</v>
       </c>
       <c r="M8">
-        <v>617.55311544437495</v>
+        <v>46.294449891251404</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K9" s="1">
-        <v>5.0389744272223203</v>
+        <v>2.4681948541118799</v>
       </c>
       <c r="L9">
-        <v>0.14075244167457199</v>
+        <v>8.1296332416355102E-2</v>
       </c>
       <c r="M9">
-        <v>40.1333233555251</v>
+        <v>22.1231668801551</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
       <c r="G10" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1">
-        <v>2.6969850000000002</v>
+        <v>2.8797172708705698</v>
       </c>
       <c r="L10">
-        <v>8.5638000000000006E-2</v>
+        <v>8.9693784459130094E-2</v>
       </c>
       <c r="M10">
-        <v>25.057198</v>
+        <v>28.1387214506003</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -833,76 +859,38 @@
         <v>30.951245</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>1E-3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>168</v>
-      </c>
-      <c r="K12" s="1">
-        <v>17.9047409798229</v>
-      </c>
-      <c r="L12">
-        <v>0.33365163476690102</v>
-      </c>
-      <c r="M12">
-        <v>655.79579474316597</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1">
-        <v>168</v>
-      </c>
       <c r="K13" s="1">
-        <v>2.93188017466235</v>
+        <v>3.4064209145483701</v>
       </c>
       <c r="L13">
-        <v>7.3123317249618694E-2</v>
+        <v>7.8396222427316295E-2</v>
       </c>
       <c r="M13">
-        <v>28.1897450150365</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
+        <v>41.742642977790702</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -911,59 +899,53 @@
         <v>1E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>168</v>
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="1">
-        <v>4.7845313238501799</v>
+        <v>3.91654659977242</v>
       </c>
       <c r="L14">
-        <v>8.2049655548137396E-2</v>
+        <v>8.2863294567558601E-2</v>
       </c>
       <c r="M14">
-        <v>46.912122813676</v>
+        <v>40.8570696912887</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>1E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>200</v>
-      </c>
-      <c r="H15" s="1">
-        <v>168</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.4256568489382202</v>
-      </c>
-      <c r="L15">
-        <v>7.8023623476367404E-2</v>
-      </c>
-      <c r="M15">
-        <v>46.294449891251404</v>
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>1E-3</v>
@@ -971,206 +953,284 @@
       <c r="G16" s="1">
         <v>50</v>
       </c>
+      <c r="J16" s="1">
+        <v>42</v>
+      </c>
       <c r="K16" s="1">
-        <v>2.4681948541118799</v>
-      </c>
-      <c r="L16">
-        <v>8.1296332416355102E-2</v>
+        <v>3.7509825021879699</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8.1154445008600307E-2</v>
       </c>
       <c r="M16">
-        <v>22.1231668801551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>1E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.8797172708705698</v>
-      </c>
-      <c r="L17">
-        <v>8.9693784459130094E-2</v>
-      </c>
-      <c r="M17">
-        <v>28.1387214506003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+        <v>40.824016535194801</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6.2927699250784799E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4.0659376813543702E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>200</v>
+      </c>
+      <c r="H18" s="1">
+        <v>168</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16.4086691296114</v>
+      </c>
+      <c r="L18">
+        <v>0.33242257333183201</v>
+      </c>
+      <c r="M18">
+        <v>617.55311544437495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10.6470938985173</v>
+      </c>
+      <c r="L19">
+        <v>0.16259793191504299</v>
+      </c>
+      <c r="M19">
+        <v>393.64675336399199</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>168</v>
+      </c>
+      <c r="K20" s="1">
+        <v>17.9047409798229</v>
+      </c>
+      <c r="L20">
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="M20">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8">
+        <v>100</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="9">
+        <v>50</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>42</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10.7292571932171</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.17132259999999999</v>
+      </c>
+      <c r="M21" s="8">
+        <v>399.04035499999998</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.14003603048261601</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.19883275249999999</v>
+      </c>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <v>42</v>
+      </c>
+      <c r="K22" s="9">
+        <v>6.3575092800000004</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.13704017330000001</v>
+      </c>
+      <c r="M22" s="9">
+        <v>211.23675800000001</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.1029408</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.11381707000000001</v>
+      </c>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>200</v>
+      </c>
+      <c r="J23" s="1">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6.1139901967252896</v>
+      </c>
+      <c r="L23">
+        <v>0.13471676502000299</v>
+      </c>
+      <c r="M23">
+        <v>180.338513490298</v>
+      </c>
+      <c r="N23">
+        <v>0.10136832890986699</v>
+      </c>
+      <c r="O23">
+        <v>0.103828328604855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10">
+        <v>100</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="G24" s="11">
+        <v>250</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <v>42</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8">
-        <v>100</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="9">
-        <v>50</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9">
-        <v>42</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10.7292571932171</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0.17132259999999999</v>
-      </c>
-      <c r="M19" s="8">
-        <v>399.04035499999998</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0.14003603048261601</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0.19883275249999999</v>
-      </c>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="L24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8">
-        <v>100</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="G20" s="9">
-        <v>100</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9">
-        <v>42</v>
-      </c>
-      <c r="K20" s="9">
-        <v>6.3575092800000004</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0.13704017330000001</v>
-      </c>
-      <c r="M20" s="9">
-        <v>211.23675800000001</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0.1029408</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0.11381707000000001</v>
-      </c>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="M24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>1E-3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>200</v>
-      </c>
-      <c r="J21" s="1">
-        <v>42</v>
-      </c>
-      <c r="K21" s="1">
-        <v>6.1139901967252896</v>
-      </c>
-      <c r="L21">
-        <v>0.13471676502000299</v>
-      </c>
-      <c r="M21">
-        <v>180.338513490298</v>
-      </c>
-      <c r="N21">
-        <v>0.10136832890986699</v>
-      </c>
-      <c r="O21">
-        <v>0.103828328604855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="N24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>1E-3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>250</v>
-      </c>
-      <c r="J22" s="1">
-        <v>42</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>414</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1193,13 +1253,13 @@
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>414</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2">
@@ -1229,13 +1289,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>414</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -1258,13 +1318,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>414</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -1287,13 +1347,13 @@
     </row>
     <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="6">
         <v>414</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="6">
@@ -1318,7 +1378,7 @@
         <v>44.230100888809901</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1333,13 +1393,13 @@
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="8">
         <v>414</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8">
@@ -1375,13 +1435,13 @@
     </row>
     <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4">
         <v>414</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="4">
@@ -1417,13 +1477,13 @@
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4">
         <v>414</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="4">
@@ -1441,33 +1501,33 @@
         <v>42</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
         <v>4227</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2">
@@ -1497,13 +1557,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>4227</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1526,13 +1586,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>4227</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -1555,13 +1615,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>4227</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1584,13 +1644,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>4227</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -1613,13 +1673,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>4227</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -1648,13 +1708,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>4227</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -1686,13 +1746,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>4227</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -1721,13 +1781,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>4227</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -1742,22 +1802,22 @@
         <v>42</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -1765,15 +1825,25 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
+    <row r="47" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>48000</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1">
         <v>13463</v>
@@ -1803,15 +1873,15 @@
         <v>0.13301715525572499</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>48000</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>13463</v>
@@ -1844,15 +1914,15 @@
         <v>8.7821689185904397E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>48000</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1">
         <v>13463</v>
@@ -1885,15 +1955,15 @@
         <v>9.2526590339239004E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>48000</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1">
         <v>13463</v>
@@ -1926,15 +1996,15 @@
         <v>8.4780461418146394E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>48000</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1">
         <v>13463</v>
@@ -1967,15 +2037,15 @@
         <v>8.7829006351591493E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>48000</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1">
         <v>13463</v>
@@ -2008,15 +2078,15 @@
         <v>9.2456969482916096E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>48000</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1">
         <v>13463</v>
@@ -2030,60 +2100,78 @@
       <c r="G54" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56">
+      <c r="J54" s="1">
+        <v>42</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1.0142830748179701</v>
+      </c>
+      <c r="L54">
+        <v>0.136906633769529</v>
+      </c>
+      <c r="M54">
+        <v>16.218035257216101</v>
+      </c>
+      <c r="N54">
+        <v>0.122288426862787</v>
+      </c>
+      <c r="O54">
+        <v>8.1100927705568704E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
         <v>48000</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="1">
-        <v>491056</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56">
-        <v>1E-3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>50</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="1">
-        <v>42</v>
-      </c>
-      <c r="K56" s="1">
-        <v>119.488322681421</v>
-      </c>
-      <c r="L56" s="1">
-        <v>1.4252456851917701</v>
-      </c>
-      <c r="M56">
-        <v>4772.3886078023397</v>
-      </c>
-      <c r="N56">
-        <v>11.2135887871412</v>
-      </c>
-      <c r="O56" s="1">
-        <v>3.0093397413643199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13463</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>1E-3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>400</v>
+      </c>
+      <c r="J55" s="1">
+        <v>42</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>48000</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1">
         <v>491056</v>
@@ -2095,7 +2183,121 @@
         <v>1E-3</v>
       </c>
       <c r="G57" s="1">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="1">
+        <v>42</v>
+      </c>
+      <c r="K57" s="1">
+        <v>119.488322681421</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.4252456851917701</v>
+      </c>
+      <c r="M57">
+        <v>4772.3886078023397</v>
+      </c>
+      <c r="N57">
+        <v>11.2135887871412</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.0093397413643199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>48000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>491056</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>100</v>
+      </c>
+      <c r="J58" s="1">
+        <v>42</v>
+      </c>
+      <c r="K58" s="1">
+        <v>106.22708353048699</v>
+      </c>
+      <c r="L58">
+        <v>1.47356738153907</v>
+      </c>
+      <c r="M58">
+        <v>4241.8667773541902</v>
+      </c>
+      <c r="N58">
+        <v>9.4582211159614697</v>
+      </c>
+      <c r="O58">
+        <v>2.7352949638966999</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>48000</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>491056</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>1E-3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>23000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>13463</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>1E-3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>50</v>
+      </c>
+      <c r="J62" s="1">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7E4F5-4314-4CD0-A7DE-3FFD2A5F9F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA4C15-D909-486E-955B-56463A92ABAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="810" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10090" yWindow="1560" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>Algorithm</t>
   </si>
@@ -503,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,35 +885,38 @@
         <v>41.742642977790702</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6">
         <v>25</v>
       </c>
-      <c r="F14">
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <v>3.91654659977242</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>8.2863294567558601E-2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>40.8570696912887</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1519,6 +1522,16 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
     <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>20</v>
@@ -1714,13 +1727,10 @@
         <v>4227</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <v>1E-3</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1">
         <v>50</v>
@@ -1729,19 +1739,19 @@
         <v>42</v>
       </c>
       <c r="K43" s="1">
-        <v>39.8111117321926</v>
-      </c>
-      <c r="L43">
-        <v>0.295085285407581</v>
+        <v>3.7265029427634002</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3.43615135073616E-2</v>
       </c>
       <c r="M43">
-        <v>1532.6129417120101</v>
-      </c>
-      <c r="N43">
-        <v>0.305712224216657</v>
-      </c>
-      <c r="O43">
-        <v>0.28655775903000102</v>
+        <v>45.614512805679603</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3.1547316617100397E-2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.5534556490396E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -1752,101 +1762,97 @@
         <v>4227</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>4227</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44">
-        <v>100</v>
-      </c>
-      <c r="F44">
-        <v>1E-3</v>
-      </c>
-      <c r="G44" s="1">
-        <v>100</v>
-      </c>
-      <c r="J44" s="1">
-        <v>42</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>1E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1">
+        <v>42</v>
+      </c>
+      <c r="K46" s="1">
+        <v>39.8111117321926</v>
+      </c>
+      <c r="L46">
+        <v>0.295085285407581</v>
+      </c>
+      <c r="M46">
+        <v>1532.6129417120101</v>
+      </c>
+      <c r="N46">
+        <v>0.305712224216657</v>
+      </c>
+      <c r="O46">
+        <v>0.28655775903000102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>4227</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>1E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1">
+        <v>42</v>
+      </c>
+      <c r="K47" s="1">
         <v>24.7464336651162</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L47" s="1">
         <v>0.19131980000000001</v>
       </c>
-      <c r="M44">
+      <c r="M47">
         <v>881.43752107056503</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N47" s="1">
         <v>0.19190260000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>4227</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="F45">
-        <v>1E-3</v>
-      </c>
-      <c r="G45" s="1">
-        <v>200</v>
-      </c>
-      <c r="J45" s="1">
-        <v>42</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="L46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="P47" s="11"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1">
-        <v>13463</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -1855,105 +1861,44 @@
         <v>1E-3</v>
       </c>
       <c r="G48" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J48" s="1">
         <v>42</v>
       </c>
-      <c r="K48" s="1">
-        <v>1.2680859933141799</v>
-      </c>
-      <c r="L48">
-        <v>0.14616421362543899</v>
-      </c>
-      <c r="M48">
-        <v>28.511903687299199</v>
-      </c>
-      <c r="N48">
-        <v>0.13301715525572499</v>
+      <c r="K48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49">
-        <v>48000</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1">
-        <v>13463</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="F49">
-        <v>1E-3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>100</v>
-      </c>
-      <c r="J49" s="1">
-        <v>42</v>
-      </c>
-      <c r="K49" s="1">
-        <v>1.12318553010888</v>
-      </c>
-      <c r="L49">
-        <v>0.14024808260219801</v>
-      </c>
-      <c r="M49">
-        <v>21.9494725945708</v>
-      </c>
-      <c r="N49">
-        <v>0.12659003502329899</v>
-      </c>
-      <c r="O49">
-        <v>8.7821689185904397E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50">
-        <v>48000</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1">
-        <v>13463</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50">
-        <v>1E-3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>200</v>
-      </c>
-      <c r="J50" s="1">
-        <v>42</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.99719524449035302</v>
-      </c>
-      <c r="L50">
-        <v>0.135560354927377</v>
-      </c>
-      <c r="M50">
-        <v>20.7128063902958</v>
-      </c>
-      <c r="N50">
-        <v>0.121544301356057</v>
-      </c>
-      <c r="O50">
-        <v>9.2526590339239004E-2</v>
-      </c>
+      <c r="L49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -1975,25 +1920,22 @@
         <v>1E-3</v>
       </c>
       <c r="G51" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1">
         <v>42</v>
       </c>
       <c r="K51" s="1">
-        <v>1.0867464112812699</v>
+        <v>1.2680859933141799</v>
       </c>
       <c r="L51">
-        <v>0.13983351264476401</v>
+        <v>0.14616421362543899</v>
       </c>
       <c r="M51">
-        <v>18.979743834511499</v>
+        <v>28.511903687299199</v>
       </c>
       <c r="N51">
-        <v>0.124734426884066</v>
-      </c>
-      <c r="O51">
-        <v>8.4780461418146394E-2</v>
+        <v>0.13301715525572499</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -2010,31 +1952,31 @@
         <v>13463</v>
       </c>
       <c r="E52">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>1E-3</v>
       </c>
       <c r="G52" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J52" s="1">
         <v>42</v>
       </c>
       <c r="K52" s="1">
-        <v>1.05958695110418</v>
+        <v>1.12318553010888</v>
       </c>
       <c r="L52">
-        <v>0.137825652728641</v>
+        <v>0.14024808260219801</v>
       </c>
       <c r="M52">
-        <v>20.122850769566899</v>
+        <v>21.9494725945708</v>
       </c>
       <c r="N52">
-        <v>0.123928959665505</v>
+        <v>0.12659003502329899</v>
       </c>
       <c r="O52">
-        <v>8.7829006351591493E-2</v>
+        <v>8.7821689185904397E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -2051,31 +1993,31 @@
         <v>13463</v>
       </c>
       <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>1E-3</v>
+      </c>
+      <c r="G53" s="1">
         <v>200</v>
       </c>
-      <c r="F53">
-        <v>1E-3</v>
-      </c>
-      <c r="G53" s="1">
-        <v>100</v>
-      </c>
       <c r="J53" s="1">
         <v>42</v>
       </c>
       <c r="K53" s="1">
-        <v>1.02581849327672</v>
+        <v>0.99719524449035302</v>
       </c>
       <c r="L53">
-        <v>0.13621914771003299</v>
+        <v>0.135560354927377</v>
       </c>
       <c r="M53">
-        <v>20.7500287533347</v>
+        <v>20.7128063902958</v>
       </c>
       <c r="N53">
-        <v>0.12232933356511901</v>
+        <v>0.121544301356057</v>
       </c>
       <c r="O53">
-        <v>9.2456969482916096E-2</v>
+        <v>9.2526590339239004E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -2092,31 +2034,31 @@
         <v>13463</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54">
         <v>1E-3</v>
       </c>
       <c r="G54" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J54" s="1">
         <v>42</v>
       </c>
       <c r="K54" s="1">
-        <v>1.0142830748179701</v>
+        <v>1.0867464112812699</v>
       </c>
       <c r="L54">
-        <v>0.136906633769529</v>
+        <v>0.13983351264476401</v>
       </c>
       <c r="M54">
-        <v>16.218035257216101</v>
+        <v>18.979743834511499</v>
       </c>
       <c r="N54">
-        <v>0.122288426862787</v>
+        <v>0.124734426884066</v>
       </c>
       <c r="O54">
-        <v>8.1100927705568704E-2</v>
+        <v>8.4780461418146394E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -2139,28 +2081,66 @@
         <v>1E-3</v>
       </c>
       <c r="G55" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="J55" s="1">
         <v>42</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" t="s">
-        <v>28</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>35</v>
+      <c r="K55" s="1">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="L55">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="M55">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="N55">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="O55">
+        <v>8.7829006351591493E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>48000</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>13463</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>1E-3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>100</v>
+      </c>
+      <c r="J56" s="1">
+        <v>42</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1.02581849327672</v>
+      </c>
+      <c r="L56">
+        <v>0.13621914771003299</v>
+      </c>
+      <c r="M56">
+        <v>20.7500287533347</v>
+      </c>
+      <c r="N56">
+        <v>0.12232933356511901</v>
+      </c>
+      <c r="O56">
+        <v>9.2456969482916096E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -2171,40 +2151,37 @@
         <v>48000</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1">
-        <v>491056</v>
+        <v>13463</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57">
         <v>1E-3</v>
       </c>
       <c r="G57" s="1">
-        <v>50</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="J57" s="1">
         <v>42</v>
       </c>
       <c r="K57" s="1">
-        <v>119.488322681421</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1.4252456851917701</v>
+        <v>1.0142830748179701</v>
+      </c>
+      <c r="L57">
+        <v>0.136906633769529</v>
       </c>
       <c r="M57">
-        <v>4772.3886078023397</v>
+        <v>16.218035257216101</v>
       </c>
       <c r="N57">
-        <v>11.2135887871412</v>
-      </c>
-      <c r="O57" s="1">
-        <v>3.0093397413643199</v>
+        <v>0.122288426862787</v>
+      </c>
+      <c r="O57">
+        <v>8.1100927705568704E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -2215,88 +2192,176 @@
         <v>48000</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>13463</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" s="1">
+        <v>400</v>
+      </c>
+      <c r="J58" s="1">
+        <v>42</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>48000</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D60" s="1">
         <v>491056</v>
       </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="F58">
-        <v>1E-3</v>
-      </c>
-      <c r="G58" s="1">
-        <v>100</v>
-      </c>
-      <c r="J58" s="1">
-        <v>42</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>1E-3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>50</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="1">
+        <v>42</v>
+      </c>
+      <c r="K60" s="1">
+        <v>119.488322681421</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1.4252456851917701</v>
+      </c>
+      <c r="M60">
+        <v>4772.3886078023397</v>
+      </c>
+      <c r="N60">
+        <v>11.2135887871412</v>
+      </c>
+      <c r="O60" s="1">
+        <v>3.0093397413643199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>48000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>491056</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>1E-3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>100</v>
+      </c>
+      <c r="J61" s="1">
+        <v>42</v>
+      </c>
+      <c r="K61" s="1">
         <v>106.22708353048699</v>
       </c>
-      <c r="L58">
+      <c r="L61">
         <v>1.47356738153907</v>
       </c>
-      <c r="M58">
+      <c r="M61">
         <v>4241.8667773541902</v>
       </c>
-      <c r="N58">
+      <c r="N61">
         <v>9.4582211159614697</v>
       </c>
-      <c r="O58">
+      <c r="O61">
         <v>2.7352949638966999</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59">
-        <v>48000</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1">
-        <v>491056</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <v>1E-3</v>
-      </c>
-      <c r="G59" s="1">
-        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>48000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>491056</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>1E-3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B62">
+      <c r="B65">
         <v>23000</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1">
         <v>13463</v>
       </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <v>1E-3</v>
-      </c>
-      <c r="G62" s="1">
-        <v>50</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>1E-3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>50</v>
+      </c>
+      <c r="J65" s="1">
         <v>42</v>
       </c>
     </row>

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D5A5E5-57DA-4D5D-BCE9-32B20ABBEEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C236D-1840-4C64-A717-A77E57359868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1900" windowWidth="19200" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1900" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="62">
   <si>
     <t>Algorithm</t>
   </si>
@@ -197,6 +197,21 @@
   </si>
   <si>
     <t>14min; seems as if the model is overfitting</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>final loss</t>
+  </si>
+  <si>
+    <t>Loss</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -255,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -263,20 +278,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,10 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,30 +311,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -613,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,14 +663,15 @@
     <col min="6" max="7" width="12.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="50.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -666,58 +700,62 @@
         <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12">
-        <v>100</v>
-      </c>
-      <c r="F2" s="13">
-        <v>50</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10">
+        <v>100</v>
+      </c>
+      <c r="F2" s="11">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
         <v>42</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="11"/>
+      <c r="K2" s="16">
         <v>2.6494847743327998</v>
       </c>
-      <c r="K2" s="19">
+      <c r="L2" s="17">
         <v>9.4839308698262903E-2</v>
       </c>
-      <c r="L2" s="19">
+      <c r="M2" s="17">
         <v>26.551910370764102</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -736,22 +774,23 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="20">
+      <c r="J3" s="3"/>
+      <c r="K3" s="18">
         <v>2.8305033360985501</v>
       </c>
-      <c r="K3" s="21">
+      <c r="L3" s="19">
         <v>7.5700859184286706E-2</v>
       </c>
-      <c r="L3" s="21">
+      <c r="M3" s="19">
         <v>21.598772288563801</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -768,20 +807,21 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="20">
+      <c r="J4" s="3"/>
+      <c r="K4" s="18">
         <v>5.0389744272223203</v>
       </c>
-      <c r="K4" s="21">
+      <c r="L4" s="19">
         <v>0.14075244167457199</v>
       </c>
-      <c r="L4" s="21">
+      <c r="M4" s="19">
         <v>40.1333233555251</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -801,20 +841,21 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="20">
+      <c r="J5" s="3"/>
+      <c r="K5" s="18">
         <v>2.6969850000000002</v>
       </c>
-      <c r="K5" s="21">
+      <c r="L5" s="19">
         <v>8.5638000000000006E-2</v>
       </c>
-      <c r="L5" s="21">
+      <c r="M5" s="19">
         <v>25.057198</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -836,22 +877,23 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="20">
+      <c r="J6" s="3"/>
+      <c r="K6" s="18">
         <v>2.93188017466235</v>
       </c>
-      <c r="K6" s="21">
+      <c r="L6" s="19">
         <v>7.3123317249618694E-2</v>
       </c>
-      <c r="L6" s="21">
+      <c r="M6" s="19">
         <v>28.1897450150365</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -873,20 +915,21 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="20">
+      <c r="J7" s="3"/>
+      <c r="K7" s="18">
         <v>4.7845313238501799</v>
       </c>
-      <c r="K7" s="21">
+      <c r="L7" s="19">
         <v>8.2049655548137396E-2</v>
       </c>
-      <c r="L7" s="21">
+      <c r="M7" s="19">
         <v>46.912122813676</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -908,20 +951,21 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="20">
+      <c r="J8" s="3"/>
+      <c r="K8" s="18">
         <v>3.4256568489382202</v>
       </c>
-      <c r="K8" s="21">
+      <c r="L8" s="19">
         <v>7.8023623476367404E-2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="M8" s="19">
         <v>46.294449891251404</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -941,20 +985,21 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="20">
+      <c r="J9" s="3"/>
+      <c r="K9" s="18">
         <v>2.4681948541118799</v>
       </c>
-      <c r="K9" s="21">
+      <c r="L9" s="19">
         <v>8.1296332416355102E-2</v>
       </c>
-      <c r="L9" s="21">
+      <c r="M9" s="19">
         <v>22.1231668801551</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -974,20 +1019,21 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="20">
+      <c r="J10" s="3"/>
+      <c r="K10" s="18">
         <v>2.8797172708705698</v>
       </c>
-      <c r="K10" s="21">
+      <c r="L10" s="19">
         <v>8.9693784459130094E-2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="M10" s="19">
         <v>28.1387214506003</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1013,24 +1059,25 @@
       <c r="I11" s="3">
         <v>42</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="3"/>
+      <c r="K11" s="18">
         <v>2.6304692301581398</v>
       </c>
-      <c r="K11" s="21">
+      <c r="L11" s="19">
         <v>9.5237163592344506E-2</v>
       </c>
-      <c r="L11" s="21">
+      <c r="M11" s="19">
         <v>25.399000777691601</v>
       </c>
-      <c r="M11" s="21">
+      <c r="N11" s="19">
         <v>6.6834473706314595E-2</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="19">
         <v>3.1033780551203899E-2</v>
       </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1056,24 +1103,25 @@
       <c r="I12" s="3">
         <v>43</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="3"/>
+      <c r="K12" s="18">
         <v>2.57307024566451</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="19">
         <v>8.9079988231562601E-2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="M12" s="19">
         <v>26.296752463540301</v>
       </c>
-      <c r="M12" s="20">
+      <c r="N12" s="18">
         <v>6.4319145588598498E-2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="O12" s="18">
         <v>2.8232938278205E-2</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1099,54 +1147,56 @@
       <c r="I13" s="3">
         <v>44</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="3"/>
+      <c r="K13" s="18">
         <v>2.5439506552498101</v>
       </c>
-      <c r="K13" s="21">
+      <c r="L13" s="19">
         <v>8.94737436635588E-2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="M13" s="19">
         <v>25.791707013299</v>
       </c>
-      <c r="M13" s="20">
+      <c r="N13" s="18">
         <v>6.3396904019689698E-2</v>
       </c>
-      <c r="N13" s="20">
+      <c r="O13" s="18">
         <v>2.98783065273443E-2</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
-      <c r="F14" s="11">
-        <v>50</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="22">
+      <c r="D14" s="9"/>
+      <c r="E14" s="8">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="20">
         <v>2.9156070000000001</v>
       </c>
-      <c r="K14" s="23">
+      <c r="L14" s="21">
         <v>7.6269000000000003E-2</v>
       </c>
-      <c r="L14" s="23">
+      <c r="M14" s="21">
         <v>30.951245</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1163,20 +1213,21 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="24">
+      <c r="J15" s="5"/>
+      <c r="K15" s="22">
         <v>3.4064209145483701</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="23">
         <v>7.8396222427316295E-2</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M15" s="23">
         <v>41.742642977790702</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1193,22 +1244,23 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="24">
+      <c r="J16" s="5"/>
+      <c r="K16" s="22">
         <v>3.91654659977242</v>
       </c>
-      <c r="K16" s="25">
+      <c r="L16" s="23">
         <v>8.2863294567558601E-2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="M16" s="23">
         <v>40.8570696912887</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1220,21 +1272,24 @@
         <v>25</v>
       </c>
       <c r="F17" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="5">
         <v>42</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="5"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1243,100 +1298,77 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <v>42</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="5"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="22">
         <v>3.7509825021879699</v>
       </c>
-      <c r="K18" s="24">
+      <c r="L19" s="22">
         <v>8.1154445008600307E-2</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M19" s="23">
         <v>40.824016535194801</v>
       </c>
-      <c r="M18" s="24">
+      <c r="N19" s="22">
         <v>6.2927699250784799E-2</v>
       </c>
-      <c r="N18" s="24">
+      <c r="O19" s="22">
         <v>4.0659376813543702E-2</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7">
-        <v>168</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="26">
-        <v>16.4086691296114</v>
-      </c>
-      <c r="K19" s="27">
-        <v>0.33242257333183201</v>
-      </c>
-      <c r="L19" s="27">
-        <v>617.55311544437495</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7">
-        <v>168</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="26">
-        <v>10.6470938985173</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0.16259793191504299</v>
-      </c>
-      <c r="L20" s="27">
-        <v>393.64675336399199</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1345,32 +1377,31 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7">
         <v>168</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="26">
-        <v>17.9047409798229</v>
-      </c>
-      <c r="K21" s="27">
-        <v>0.33365163476690102</v>
-      </c>
-      <c r="L21" s="27">
-        <v>655.79579474316597</v>
-      </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+      <c r="K21" s="24">
+        <v>16.4086691296114</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0.33242257333183201</v>
+      </c>
+      <c r="M21" s="25">
+        <v>617.55311544437495</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1384,29 +1415,28 @@
       <c r="F22" s="7">
         <v>50</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>168</v>
+      </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7">
-        <v>42</v>
-      </c>
-      <c r="J22" s="26">
-        <v>10.7292571932171</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0.17132259999999999</v>
-      </c>
-      <c r="L22" s="27">
-        <v>399.04035499999998</v>
-      </c>
-      <c r="M22" s="27">
-        <v>0.14003603048261601</v>
-      </c>
-      <c r="N22" s="27">
-        <v>0.19883275249999999</v>
-      </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="24">
+        <v>10.6470938985173</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0.16259793191504299</v>
+      </c>
+      <c r="M22" s="25">
+        <v>393.64675336399199</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1418,31 +1448,24 @@
         <v>100</v>
       </c>
       <c r="F23" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="I23" s="7">
         <v>42</v>
       </c>
-      <c r="J23" s="26">
-        <v>6.3575092800000004</v>
-      </c>
-      <c r="K23" s="27">
-        <v>0.13704017330000001</v>
-      </c>
-      <c r="L23" s="26">
-        <v>211.23675800000001</v>
-      </c>
-      <c r="M23" s="27">
-        <v>0.1029408</v>
-      </c>
-      <c r="N23" s="27">
-        <v>0.11381707000000001</v>
-      </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1454,287 +1477,240 @@
         <v>100</v>
       </c>
       <c r="F24" s="7">
+        <v>100</v>
+      </c>
+      <c r="G24" s="7">
+        <v>168</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="24">
+        <v>17.9047409798229</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="M24" s="25">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>42</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="24">
+        <v>10.7292571932171</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0.17132259999999999</v>
+      </c>
+      <c r="M25" s="25">
+        <v>399.04035499999998</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0.14003603048261601</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0.19883275249999999</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>42</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="24">
+        <v>6.3575092800000004</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0.13704017330000001</v>
+      </c>
+      <c r="M26" s="24">
+        <v>211.23675800000001</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0.1029408</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0.11381707000000001</v>
+      </c>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
         <v>200</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
         <v>42</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J27" s="7"/>
+      <c r="K27" s="24">
         <v>6.1139901967252896</v>
       </c>
-      <c r="K24" s="27">
+      <c r="L27" s="25">
         <v>0.13471676502000299</v>
       </c>
-      <c r="L24" s="27">
+      <c r="M27" s="25">
         <v>180.338513490298</v>
       </c>
-      <c r="M24" s="27">
+      <c r="N27" s="25">
         <v>0.10136832890986699</v>
       </c>
-      <c r="N24" s="27">
+      <c r="O27" s="25">
         <v>0.103828328604855</v>
       </c>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8">
-        <v>100</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="D28" s="30"/>
+      <c r="E28" s="29">
+        <v>100</v>
+      </c>
+      <c r="F28" s="30">
         <v>250</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30">
         <v>42</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J28" s="30"/>
+      <c r="K28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="N28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="O28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="P28" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B31" s="37">
         <v>414</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>50</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="20">
+      <c r="C31" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="37">
+        <v>100</v>
+      </c>
+      <c r="F31" s="38">
+        <v>50</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39">
         <v>1.44666660175531</v>
       </c>
-      <c r="K26" s="21">
+      <c r="L31" s="40">
         <v>0.1298174584541</v>
       </c>
-      <c r="L26" s="21">
+      <c r="M31" s="40">
         <v>16.642986874988399</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2">
-        <v>414</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>50</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>42</v>
-      </c>
-      <c r="J27" s="20">
-        <v>1.7621786881972099</v>
-      </c>
-      <c r="K27" s="21">
-        <v>0.136582885212886</v>
-      </c>
-      <c r="L27" s="21">
-        <v>24.567364629029498</v>
-      </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2">
-        <v>414</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3">
-        <v>100</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="20">
-        <v>2.1688713732443401</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0.13595743149248801</v>
-      </c>
-      <c r="L28" s="21">
-        <v>30.985507904866601</v>
-      </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2">
-        <v>414</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2">
-        <v>50</v>
-      </c>
-      <c r="F29" s="3">
-        <v>50</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="20">
-        <v>2.2608650663714398</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0.14185608409783801</v>
-      </c>
-      <c r="L29" s="21">
-        <v>28.196347731740801</v>
-      </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2">
-        <v>414</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <v>21723</v>
-      </c>
-      <c r="E30" s="2">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3">
-        <v>50</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="20">
-        <v>1.3722961783182199</v>
-      </c>
-      <c r="K30" s="21">
-        <v>0.114591133679717</v>
-      </c>
-      <c r="L30" s="21">
-        <v>24.437912268592498</v>
-      </c>
-      <c r="M30" s="21">
-        <v>6.6035595238716396E-2</v>
-      </c>
-      <c r="N30" s="21">
-        <v>2.7685366126353701E-2</v>
-      </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2">
-        <v>414</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
-        <v>21723</v>
-      </c>
-      <c r="E31" s="2">
-        <v>100</v>
-      </c>
-      <c r="F31" s="3">
-        <v>50</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="3">
-        <v>42</v>
-      </c>
-      <c r="J31" s="20">
-        <v>1.33949444468741</v>
-      </c>
-      <c r="K31" s="21">
-        <v>0.113995292100149</v>
-      </c>
-      <c r="L31" s="21">
-        <v>21.7360339597105</v>
-      </c>
-      <c r="M31" s="21">
-        <v>4.8259866736034197E-2</v>
-      </c>
-      <c r="N31" s="21">
-        <v>3.1924357692853303E-2</v>
-      </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1744,9 +1720,7 @@
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="3">
-        <v>21723</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="2">
         <v>100</v>
       </c>
@@ -1754,30 +1728,25 @@
         <v>50</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <v>43</v>
-      </c>
-      <c r="J32" s="20">
-        <v>1.4937566658690999</v>
-      </c>
-      <c r="K32" s="21">
-        <v>0.12576014591313101</v>
-      </c>
-      <c r="L32" s="21">
-        <v>27.8690670554127</v>
-      </c>
-      <c r="M32" s="20">
-        <v>6.4116617488500201E-3</v>
-      </c>
-      <c r="N32" s="20">
-        <v>2.4003126083275102E-2</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="18">
+        <v>1.7621786881972099</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0.136582885212886</v>
+      </c>
+      <c r="M32" s="19">
+        <v>24.567364629029498</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -1787,1039 +1756,1792 @@
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="2">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="18">
+        <v>2.1688713732443401</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0.13595743149248801</v>
+      </c>
+      <c r="M33" s="19">
+        <v>30.985507904866601</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2">
+        <v>414</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2">
+        <v>50</v>
+      </c>
+      <c r="F34" s="3">
+        <v>50</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="18">
+        <v>2.2608650663714398</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0.14185608409783801</v>
+      </c>
+      <c r="M34" s="19">
+        <v>28.196347731740801</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2">
+        <v>414</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
         <v>21723</v>
       </c>
-      <c r="E33" s="2">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>50</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
+      <c r="E35" s="2">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>50</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="18">
+        <v>1.3722961783182199</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0.114591133679717</v>
+      </c>
+      <c r="M35" s="19">
+        <v>24.437912268592498</v>
+      </c>
+      <c r="N35" s="19">
+        <v>6.6035595238716396E-2</v>
+      </c>
+      <c r="O35" s="19">
+        <v>2.7685366126353701E-2</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>414</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>21723</v>
+      </c>
+      <c r="E36" s="2">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>50</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="3">
+        <v>42</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="18">
+        <v>1.33949444468741</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0.113995292100149</v>
+      </c>
+      <c r="M36" s="19">
+        <v>21.7360339597105</v>
+      </c>
+      <c r="N36" s="19">
+        <v>4.8259866736034197E-2</v>
+      </c>
+      <c r="O36" s="19">
+        <v>3.1924357692853303E-2</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>414</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>21723</v>
+      </c>
+      <c r="E37" s="2">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="3">
+        <v>43</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="18">
+        <v>1.4937566658690999</v>
+      </c>
+      <c r="L37" s="19">
+        <v>0.12576014591313101</v>
+      </c>
+      <c r="M37" s="19">
+        <v>27.8690670554127</v>
+      </c>
+      <c r="N37" s="18">
+        <v>6.4116617488500201E-3</v>
+      </c>
+      <c r="O37" s="18">
+        <v>2.4003126083275102E-2</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>414</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>21723</v>
+      </c>
+      <c r="E38" s="2">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3">
+        <v>50</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3">
         <v>44</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J38" s="3"/>
+      <c r="K38" s="18">
         <v>2.1626611472158301</v>
       </c>
-      <c r="K33" s="21">
+      <c r="L38" s="19">
         <v>0.142073465022688</v>
       </c>
-      <c r="L33" s="21">
+      <c r="M38" s="19">
         <v>47.482280539307197</v>
       </c>
-      <c r="M33" s="21">
+      <c r="N38" s="19">
         <v>0.13483371537754801</v>
       </c>
-      <c r="N33" s="21">
+      <c r="O38" s="19">
         <v>0.18224809686688601</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B39" s="4">
         <v>414</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4">
+      <c r="D39" s="5"/>
+      <c r="E39" s="4">
         <v>25</v>
       </c>
-      <c r="F34" s="5">
-        <v>50</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="24">
+      <c r="F39" s="5">
+        <v>50</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="22">
         <v>2.6633550241579802</v>
       </c>
-      <c r="K34" s="25">
+      <c r="L39" s="23">
         <v>0.181608907022653</v>
       </c>
-      <c r="L34" s="25">
+      <c r="M39" s="23">
         <v>44.230100888809901</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="5" t="s">
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B40" s="4">
         <v>414</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4">
+        <v>25</v>
+      </c>
+      <c r="F40" s="5">
+        <v>50</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="5">
+        <v>42</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="34"/>
+    </row>
+    <row r="42" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
+        <v>414</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6">
-        <v>100</v>
-      </c>
-      <c r="F35" s="7">
-        <v>50</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6">
+        <v>100</v>
+      </c>
+      <c r="F42" s="7">
+        <v>50</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7">
         <v>42</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J42" s="7"/>
+      <c r="K42" s="24">
         <v>13.752988999999999</v>
       </c>
-      <c r="K35" s="27">
+      <c r="L42" s="25">
         <v>0.34606221715618302</v>
       </c>
-      <c r="L35" s="27">
+      <c r="M42" s="25">
         <v>260.71834811000002</v>
       </c>
-      <c r="M35" s="27">
+      <c r="N42" s="25">
         <v>0.100243507241533</v>
       </c>
-      <c r="N35" s="27">
+      <c r="O42" s="25">
         <v>0.118486994896638</v>
       </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B43" s="6">
         <v>414</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6">
-        <v>100</v>
-      </c>
-      <c r="F36" s="7">
-        <v>100</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7">
+      <c r="D43" s="7"/>
+      <c r="E43" s="6">
+        <v>100</v>
+      </c>
+      <c r="F43" s="7">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="7">
         <v>42</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J43" s="7"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="6">
+        <v>414</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6">
+        <v>100</v>
+      </c>
+      <c r="F44" s="7">
+        <v>100</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
+        <v>42</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="24">
         <v>23.533678978716601</v>
       </c>
-      <c r="K36" s="27">
+      <c r="L44" s="25">
         <v>0.42155993227215</v>
       </c>
-      <c r="L36" s="27">
+      <c r="M44" s="25">
         <v>545.75731609802597</v>
       </c>
-      <c r="M36" s="27">
+      <c r="N44" s="25">
         <v>0.33439627305276798</v>
       </c>
-      <c r="N36" s="27">
+      <c r="O44" s="25">
         <v>8.1370935121077501E-2</v>
       </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B45" s="29">
         <v>414</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C45" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8">
-        <v>100</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="D45" s="30"/>
+      <c r="E45" s="29">
+        <v>100</v>
+      </c>
+      <c r="F45" s="30">
         <v>200</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30">
         <v>42</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J45" s="30"/>
+      <c r="K45" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="L45" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="M45" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N45" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="O45" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="P45" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B47" s="2">
         <v>4227</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2">
-        <v>100</v>
-      </c>
-      <c r="F38" s="3">
-        <v>50</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>50</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
         <v>42</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J47" s="3"/>
+      <c r="K47" s="18">
         <v>3.53453446581329</v>
       </c>
-      <c r="K38" s="21">
+      <c r="L47" s="19">
         <v>3.3774608183609799E-2</v>
       </c>
-      <c r="L38" s="21">
+      <c r="M47" s="19">
         <v>39.950803257038203</v>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B48" s="2">
         <v>4227</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2">
-        <v>100</v>
-      </c>
-      <c r="F39" s="3">
-        <v>50</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="20">
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>50</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="18">
         <v>4.3992172136277903</v>
       </c>
-      <c r="K39" s="21">
+      <c r="L48" s="19">
         <v>3.96223073497197E-2</v>
       </c>
-      <c r="L39" s="21">
+      <c r="M48" s="19">
         <v>59.648501471104701</v>
       </c>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B49" s="2">
         <v>4227</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2">
-        <v>50</v>
-      </c>
-      <c r="F40" s="3">
-        <v>100</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="20">
-        <v>4.1829039523568197</v>
-      </c>
-      <c r="K40" s="21">
-        <v>3.7512549576846597E-2</v>
-      </c>
-      <c r="L40" s="21">
-        <v>45.512803344470299</v>
-      </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2">
-        <v>50</v>
-      </c>
-      <c r="F41" s="3">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="20">
-        <v>5.3913402057172197</v>
-      </c>
-      <c r="K41" s="21">
-        <v>4.5453329399599597E-2</v>
-      </c>
-      <c r="L41" s="21">
-        <v>95.558690835703899</v>
-      </c>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="20">
-        <v>3.4822369638914501</v>
-      </c>
-      <c r="K42" s="21">
-        <v>3.3039162166202E-2</v>
-      </c>
-      <c r="L42" s="21">
-        <v>38.929181310867698</v>
-      </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>150</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="20">
-        <v>3.4948489288649101</v>
-      </c>
-      <c r="K43" s="21">
-        <v>3.3644492587488403E-2</v>
-      </c>
-      <c r="L43" s="21">
-        <v>39.458377616161002</v>
-      </c>
-      <c r="M43" s="21">
-        <v>3.00505847160191E-2</v>
-      </c>
-      <c r="N43" s="21">
-        <v>1.43563269479154E-2</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="4">
-        <v>4227</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4">
-        <v>25</v>
-      </c>
-      <c r="F44" s="5">
-        <v>50</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
-        <v>42</v>
-      </c>
-      <c r="J44" s="24">
-        <v>3.7265029427634002</v>
-      </c>
-      <c r="K44" s="24">
-        <v>3.43615135073616E-2</v>
-      </c>
-      <c r="L44" s="25">
-        <v>45.614512805679603</v>
-      </c>
-      <c r="M44" s="24">
-        <v>3.1547316617100397E-2</v>
-      </c>
-      <c r="N44" s="24">
-        <v>1.5534556490396E-2</v>
-      </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="4">
-        <v>4227</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4">
-        <v>25</v>
-      </c>
-      <c r="F45" s="5">
-        <v>100</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="6">
-        <v>4227</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="6">
-        <v>100</v>
-      </c>
-      <c r="F46" s="7">
-        <v>50</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7">
-        <v>42</v>
-      </c>
-      <c r="J46" s="26">
-        <v>39.8111117321926</v>
-      </c>
-      <c r="K46" s="27">
-        <v>0.295085285407581</v>
-      </c>
-      <c r="L46" s="27">
-        <v>1532.6129417120101</v>
-      </c>
-      <c r="M46" s="27">
-        <v>0.305712224216657</v>
-      </c>
-      <c r="N46" s="27">
-        <v>0.28655775903000102</v>
-      </c>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="6">
-        <v>4227</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="6">
-        <v>100</v>
-      </c>
-      <c r="F47" s="7">
-        <v>100</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7">
-        <v>42</v>
-      </c>
-      <c r="J47" s="26">
-        <v>24.7464336651162</v>
-      </c>
-      <c r="K47" s="26">
-        <v>0.19131980000000001</v>
-      </c>
-      <c r="L47" s="27">
-        <v>881.43752107056503</v>
-      </c>
-      <c r="M47" s="26">
-        <v>0.19190260000000001</v>
-      </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="8">
-        <v>4227</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8">
-        <v>100</v>
-      </c>
-      <c r="F48" s="9">
-        <v>200</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9">
-        <v>42</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="2">
-        <v>48000</v>
-      </c>
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="2">
         <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>50</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G49" s="3">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I49" s="3">
         <v>42</v>
       </c>
-      <c r="J49" s="20">
-        <v>1.2680859933141799</v>
-      </c>
-      <c r="K49" s="21">
-        <v>0.14616421362543899</v>
-      </c>
-      <c r="L49" s="21">
-        <v>28.511903687299199</v>
-      </c>
-      <c r="M49" s="21">
-        <v>0.13301715525572499</v>
-      </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J49" s="3"/>
+      <c r="K49" s="18">
+        <v>4.9019094580076903</v>
+      </c>
+      <c r="L49" s="19">
+        <v>4.4429586679793499E-2</v>
+      </c>
+      <c r="M49" s="19">
+        <v>69.704341403514405</v>
+      </c>
+      <c r="N49" s="19">
+        <v>4.0116878914842703E-2</v>
+      </c>
+      <c r="O49" s="19">
+        <v>2.2393254599391101E-2</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="2">
         <v>100</v>
       </c>
       <c r="F50" s="3">
-        <v>100</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G50" s="3">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I50" s="3">
-        <v>42</v>
-      </c>
-      <c r="J50" s="20">
-        <v>1.12318553010888</v>
-      </c>
-      <c r="K50" s="21">
-        <v>0.14024808260219801</v>
-      </c>
-      <c r="L50" s="21">
-        <v>21.9494725945708</v>
-      </c>
-      <c r="M50" s="21">
-        <v>0.12659003502329899</v>
-      </c>
-      <c r="N50" s="21">
-        <v>8.7821689185904397E-2</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="18">
+        <v>4.0038073852598499</v>
+      </c>
+      <c r="L50" s="19">
+        <v>3.6688789757854501E-2</v>
+      </c>
+      <c r="M50" s="19">
+        <v>53.093623329446302</v>
+      </c>
+      <c r="N50" s="19">
+        <v>3.0750500964385599E-2</v>
+      </c>
+      <c r="O50" s="19">
+        <v>1.4080862918083499E-2</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="2">
         <v>100</v>
       </c>
       <c r="F51" s="3">
-        <v>200</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G51" s="3">
+        <v>14</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I51" s="3">
-        <v>42</v>
-      </c>
-      <c r="J51" s="20">
-        <v>0.99719524449035302</v>
-      </c>
-      <c r="K51" s="21">
-        <v>0.135560354927377</v>
-      </c>
-      <c r="L51" s="21">
-        <v>20.7128063902958</v>
-      </c>
-      <c r="M51" s="21">
-        <v>0.121544301356057</v>
-      </c>
-      <c r="N51" s="21">
-        <v>9.2526590339239004E-2</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="18">
+        <v>3.5157139455596198</v>
+      </c>
+      <c r="L51" s="19">
+        <v>3.34109955349556E-2</v>
+      </c>
+      <c r="M51" s="19">
+        <v>49.999309540454</v>
+      </c>
+      <c r="N51" s="19">
+        <v>2.99456884654348E-2</v>
+      </c>
+      <c r="O51" s="19">
+        <v>1.5938158334067899E-2</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="2">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>14</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I52" s="3">
         <v>42</v>
       </c>
-      <c r="J52" s="20">
-        <v>1.0867464112812699</v>
-      </c>
-      <c r="K52" s="21">
-        <v>0.13983351264476401</v>
-      </c>
-      <c r="L52" s="21">
-        <v>18.979743834511499</v>
-      </c>
-      <c r="M52" s="21">
-        <v>0.124734426884066</v>
-      </c>
-      <c r="N52" s="21">
-        <v>8.4780461418146394E-2</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J52" s="3">
+        <v>5.3731</v>
+      </c>
+      <c r="K52" s="18">
+        <v>4.6888277983732802</v>
+      </c>
+      <c r="L52" s="19">
+        <v>4.2354736963695502E-2</v>
+      </c>
+      <c r="M52" s="19">
+        <v>58.546133147207897</v>
+      </c>
+      <c r="N52" s="19">
+        <v>3.81307362333883E-2</v>
+      </c>
+      <c r="O52" s="19">
+        <v>1.94263506138064E-2</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B53" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F53" s="3">
-        <v>50</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G53" s="3">
+        <v>14</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I53" s="3">
-        <v>42</v>
-      </c>
-      <c r="J53" s="20">
-        <v>1.05958695110418</v>
-      </c>
-      <c r="K53" s="21">
-        <v>0.137825652728641</v>
-      </c>
-      <c r="L53" s="21">
-        <v>20.122850769566899</v>
-      </c>
-      <c r="M53" s="21">
-        <v>0.123928959665505</v>
-      </c>
-      <c r="N53" s="21">
-        <v>8.7829006351591493E-2</v>
-      </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="J53" s="3">
+        <v>5.3796999999999997</v>
+      </c>
+      <c r="K53" s="18">
+        <v>3.76198040986064</v>
+      </c>
+      <c r="L53" s="19">
+        <v>3.5131886546129497E-2</v>
+      </c>
+      <c r="M53" s="19">
+        <v>42.1346287254948</v>
+      </c>
+      <c r="N53" s="19">
+        <v>3.1839711844375E-2</v>
+      </c>
+      <c r="O53" s="19">
+        <v>1.50434441822506E-2</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B54" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="3">
+        <v>14</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I54" s="3">
-        <v>42</v>
-      </c>
-      <c r="J54" s="20">
-        <v>1.02581849327672</v>
-      </c>
-      <c r="K54" s="21">
-        <v>0.13621914771003299</v>
-      </c>
-      <c r="L54" s="21">
-        <v>20.7500287533347</v>
-      </c>
-      <c r="M54" s="21">
-        <v>0.12232933356511901</v>
-      </c>
-      <c r="N54" s="21">
-        <v>9.2456969482916096E-2</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5.3815999999999997</v>
+      </c>
+      <c r="K54" s="18">
+        <v>3.7490946166483901</v>
+      </c>
+      <c r="L54" s="19">
+        <v>3.4733060718235398E-2</v>
+      </c>
+      <c r="M54" s="19">
+        <v>44.046071467776798</v>
+      </c>
+      <c r="N54" s="19">
+        <v>3.1557588852523799E-2</v>
+      </c>
+      <c r="O54" s="19">
+        <v>1.4121308543102401E-2</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B55" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="3">
-        <v>13463</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3">
         <v>200</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="G55" s="3">
+        <v>14</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I55" s="3">
         <v>42</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="3">
+        <v>5.3231000000000002</v>
+      </c>
+      <c r="K55" s="18">
+        <v>5.40633569574379</v>
+      </c>
+      <c r="L55" s="19">
+        <v>4.7543834963823403E-2</v>
+      </c>
+      <c r="M55" s="19">
+        <v>77.864039181710595</v>
+      </c>
+      <c r="N55" s="19">
+        <v>4.598874E-2</v>
+      </c>
+      <c r="O55" s="19">
+        <v>2.6339886999999999E-2</v>
+      </c>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2">
+        <v>100</v>
+      </c>
+      <c r="F56" s="3">
+        <v>200</v>
+      </c>
+      <c r="G56" s="3">
+        <v>14</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="3">
+        <v>43</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5.3291000000000004</v>
+      </c>
+      <c r="K56" s="18">
+        <v>4.3779429482645398</v>
+      </c>
+      <c r="L56" s="19">
+        <v>3.9220900000000003E-2</v>
+      </c>
+      <c r="M56" s="19">
+        <v>53.407499999999999</v>
+      </c>
+      <c r="N56" s="19">
+        <v>3.7683399999999999E-2</v>
+      </c>
+      <c r="O56" s="19">
+        <v>1.7714669999999998E-2</v>
+      </c>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="3">
+        <v>44</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5.3293999999999997</v>
+      </c>
+      <c r="K57" s="18">
+        <v>3.6071879999999998</v>
+      </c>
+      <c r="L57" s="19">
+        <v>3.3841510612267103E-2</v>
+      </c>
+      <c r="M57" s="19">
+        <v>43.212336000000001</v>
+      </c>
+      <c r="N57" s="19">
+        <v>3.0669129E-2</v>
+      </c>
+      <c r="O57" s="19">
+        <v>1.4138269E-2</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2">
+        <v>50</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="18">
+        <v>4.1829039523568197</v>
+      </c>
+      <c r="L58" s="19">
+        <v>3.7512549576846597E-2</v>
+      </c>
+      <c r="M58" s="19">
+        <v>45.512803344470299</v>
+      </c>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3">
+        <v>50</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="18">
+        <v>5.3913402057172197</v>
+      </c>
+      <c r="L59" s="19">
+        <v>4.5453329399599597E-2</v>
+      </c>
+      <c r="M59" s="19">
+        <v>95.558690835703899</v>
+      </c>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="18">
+        <v>3.4822369638914501</v>
+      </c>
+      <c r="L60" s="19">
+        <v>3.3039162166202E-2</v>
+      </c>
+      <c r="M60" s="19">
+        <v>38.929181310867698</v>
+      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>150</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="18">
+        <v>3.4948489288649101</v>
+      </c>
+      <c r="L61" s="19">
+        <v>3.3644492587488403E-2</v>
+      </c>
+      <c r="M61" s="19">
+        <v>39.458377616161002</v>
+      </c>
+      <c r="N61" s="19">
+        <v>3.00505847160191E-2</v>
+      </c>
+      <c r="O61" s="19">
+        <v>1.43563269479154E-2</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4227</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4">
+        <v>25</v>
+      </c>
+      <c r="F62" s="5">
+        <v>50</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5">
+        <v>42</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="22">
+        <v>3.7265029427634002</v>
+      </c>
+      <c r="L62" s="22">
+        <v>3.43615135073616E-2</v>
+      </c>
+      <c r="M62" s="23">
+        <v>45.614512805679603</v>
+      </c>
+      <c r="N62" s="22">
+        <v>3.1547316617100397E-2</v>
+      </c>
+      <c r="O62" s="22">
+        <v>1.5534556490396E-2</v>
+      </c>
+      <c r="P62" s="5"/>
+    </row>
+    <row r="63" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="4">
+        <v>4227</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4">
+        <v>25</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="5"/>
+    </row>
+    <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="6">
+        <v>4227</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6">
+        <v>100</v>
+      </c>
+      <c r="F64" s="7">
+        <v>50</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7">
+        <v>42</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="24">
+        <v>39.8111117321926</v>
+      </c>
+      <c r="L64" s="25">
+        <v>0.295085285407581</v>
+      </c>
+      <c r="M64" s="25">
+        <v>1532.6129417120101</v>
+      </c>
+      <c r="N64" s="25">
+        <v>0.305712224216657</v>
+      </c>
+      <c r="O64" s="25">
+        <v>0.28655775903000102</v>
+      </c>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="6">
+        <v>4227</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6">
+        <v>100</v>
+      </c>
+      <c r="F65" s="7">
+        <v>100</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
+        <v>42</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="24">
+        <v>24.7464336651162</v>
+      </c>
+      <c r="L65" s="24">
+        <v>0.19131980000000001</v>
+      </c>
+      <c r="M65" s="25">
+        <v>881.43752107056503</v>
+      </c>
+      <c r="N65" s="24">
+        <v>0.19190260000000001</v>
+      </c>
+      <c r="O65" s="25"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="29">
+        <v>4227</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="29">
+        <v>100</v>
+      </c>
+      <c r="F66" s="30">
+        <v>200</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30">
+        <v>42</v>
+      </c>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+    </row>
+    <row r="68" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+    </row>
+    <row r="69" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E69" s="2">
+        <v>100</v>
+      </c>
+      <c r="F69" s="3">
+        <v>50</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
+        <v>42</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="18">
+        <v>1.2680859933141799</v>
+      </c>
+      <c r="L69" s="19">
+        <v>0.14616421362543899</v>
+      </c>
+      <c r="M69" s="19">
+        <v>28.511903687299199</v>
+      </c>
+      <c r="N69" s="19">
+        <v>0.13301715525572499</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E70" s="2">
+        <v>100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>100</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3">
+        <v>42</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="18">
+        <v>1.12318553010888</v>
+      </c>
+      <c r="L70" s="19">
+        <v>0.14024808260219801</v>
+      </c>
+      <c r="M70" s="19">
+        <v>21.9494725945708</v>
+      </c>
+      <c r="N70" s="19">
+        <v>0.12659003502329899</v>
+      </c>
+      <c r="O70" s="19">
+        <v>8.7821689185904397E-2</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E71" s="2">
+        <v>100</v>
+      </c>
+      <c r="F71" s="3">
+        <v>200</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
+        <v>42</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="18">
+        <v>0.99719524449035302</v>
+      </c>
+      <c r="L71" s="19">
+        <v>0.135560354927377</v>
+      </c>
+      <c r="M71" s="19">
+        <v>20.7128063902958</v>
+      </c>
+      <c r="N71" s="19">
+        <v>0.121544301356057</v>
+      </c>
+      <c r="O71" s="19">
+        <v>9.2526590339239004E-2</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E72" s="2">
+        <v>100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>400</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>42</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="18">
+        <v>1.0867464112812699</v>
+      </c>
+      <c r="L72" s="19">
+        <v>0.13983351264476401</v>
+      </c>
+      <c r="M72" s="19">
+        <v>18.979743834511499</v>
+      </c>
+      <c r="N72" s="19">
+        <v>0.124734426884066</v>
+      </c>
+      <c r="O72" s="19">
+        <v>8.4780461418146394E-2</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E73" s="2">
+        <v>200</v>
+      </c>
+      <c r="F73" s="3">
+        <v>50</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3">
+        <v>42</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="18">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="L73" s="19">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="M73" s="19">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="N73" s="19">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="O73" s="19">
+        <v>8.7829006351591493E-2</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E74" s="2">
+        <v>200</v>
+      </c>
+      <c r="F74" s="3">
+        <v>100</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3">
+        <v>42</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="18">
+        <v>1.02581849327672</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0.13621914771003299</v>
+      </c>
+      <c r="M74" s="19">
+        <v>20.7500287533347</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0.12232933356511901</v>
+      </c>
+      <c r="O74" s="19">
+        <v>9.2456969482916096E-2</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E75" s="2">
+        <v>200</v>
+      </c>
+      <c r="F75" s="3">
+        <v>200</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3">
+        <v>42</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="18">
         <v>1.0142830748179701</v>
       </c>
-      <c r="K55" s="21">
+      <c r="L75" s="19">
         <v>0.136906633769529</v>
       </c>
-      <c r="L55" s="21">
+      <c r="M75" s="19">
         <v>16.218035257216101</v>
       </c>
-      <c r="M55" s="21">
+      <c r="N75" s="19">
         <v>0.122288426862787</v>
       </c>
-      <c r="N55" s="21">
+      <c r="O75" s="19">
         <v>8.1100927705568704E-2</v>
       </c>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B76" s="2">
         <v>48000</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3">
         <v>13463</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E76" s="2">
         <v>200</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3">
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3">
         <v>42</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="P76" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="77" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B77" s="6">
         <v>48000</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D77" s="7">
         <v>491056</v>
       </c>
-      <c r="E57" s="6">
-        <v>100</v>
-      </c>
-      <c r="F57" s="7">
-        <v>50</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="E77" s="6">
+        <v>100</v>
+      </c>
+      <c r="F77" s="7">
+        <v>50</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7">
+      <c r="H77" s="7"/>
+      <c r="I77" s="7">
         <v>42</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J77" s="7"/>
+      <c r="K77" s="24">
         <v>119.488322681421</v>
       </c>
-      <c r="K57" s="26">
+      <c r="L77" s="24">
         <v>1.4252456851917701</v>
       </c>
-      <c r="L57" s="27">
+      <c r="M77" s="25">
         <v>4772.3886078023397</v>
       </c>
-      <c r="M57" s="27">
+      <c r="N77" s="25">
         <v>11.2135887871412</v>
       </c>
-      <c r="N57" s="26">
+      <c r="O77" s="24">
         <v>3.0093397413643199</v>
       </c>
-      <c r="O57" s="7"/>
-    </row>
-    <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B78" s="6">
         <v>48000</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D78" s="7">
         <v>491056</v>
       </c>
-      <c r="E58" s="6">
-        <v>100</v>
-      </c>
-      <c r="F58" s="7">
-        <v>100</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7">
+      <c r="E78" s="6">
+        <v>100</v>
+      </c>
+      <c r="F78" s="7">
+        <v>100</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7">
         <v>42</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J78" s="7"/>
+      <c r="K78" s="24">
         <v>106.22708353048699</v>
       </c>
-      <c r="K58" s="27">
+      <c r="L78" s="25">
         <v>1.47356738153907</v>
       </c>
-      <c r="L58" s="27">
+      <c r="M78" s="25">
         <v>4241.8667773541902</v>
       </c>
-      <c r="M58" s="27">
+      <c r="N78" s="25">
         <v>9.4582211159614697</v>
       </c>
-      <c r="N58" s="27">
+      <c r="O78" s="25">
         <v>2.7352949638966999</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="P78" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+    <row r="79" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B79" s="6">
         <v>48000</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D79" s="7">
         <v>491056</v>
       </c>
-      <c r="E59" s="6">
-        <v>100</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="E79" s="6">
+        <v>100</v>
+      </c>
+      <c r="F79" s="7">
         <v>150</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="O59" s="7"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>32</v>
       </c>
-      <c r="B62">
+      <c r="B82">
         <v>23000</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
         <v>13463</v>
       </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62" s="1">
-        <v>50</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82" s="1">
+        <v>50</v>
+      </c>
+      <c r="I82" s="1">
         <v>42</v>
       </c>
     </row>
@@ -2831,11 +3553,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2850,90 +3572,238 @@
     <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>862</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>30683</v>
+      </c>
+      <c r="E2" s="26">
+        <v>42</v>
+      </c>
+      <c r="F2" s="26">
+        <v>100</v>
+      </c>
+      <c r="G2" s="27">
+        <v>50</v>
+      </c>
+      <c r="H2" s="27">
+        <v>14</v>
+      </c>
+      <c r="I2" s="27">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28">
+        <v>0.88936537788412395</v>
+      </c>
+      <c r="N2" s="28">
+        <v>1.1915171103155701E-3</v>
+      </c>
+      <c r="O2" s="28">
+        <v>12.056193496287101</v>
+      </c>
+      <c r="P2" s="28">
+        <v>0.14220320148680099</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>0.17131659113794201</v>
+      </c>
+      <c r="R2" s="28">
+        <v>0.112617250917697</v>
+      </c>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>862</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>30683</v>
+      </c>
+      <c r="E3" s="26">
+        <v>43</v>
+      </c>
+      <c r="F3" s="26">
+        <v>100</v>
+      </c>
+      <c r="G3" s="27">
+        <v>50</v>
+      </c>
+      <c r="H3" s="27">
+        <v>14</v>
+      </c>
+      <c r="I3" s="27">
+        <v>7</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28">
+        <v>0.84946299059517005</v>
+      </c>
+      <c r="N3" s="28">
+        <v>1.14340579512654E-3</v>
+      </c>
+      <c r="O3" s="28">
+        <v>10.565301611994199</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0.13616913458261001</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>0.16382832301348299</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0.10248962363684699</v>
+      </c>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>862</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>30683</v>
+      </c>
+      <c r="E4" s="26">
+        <v>44</v>
+      </c>
+      <c r="F4" s="26">
+        <v>100</v>
+      </c>
+      <c r="G4" s="27">
+        <v>50</v>
+      </c>
+      <c r="H4" s="27">
+        <v>14</v>
+      </c>
+      <c r="I4" s="27">
+        <v>7</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28">
+        <v>0.85708568487041603</v>
+      </c>
+      <c r="N4" s="28">
+        <v>1.14684422943973E-3</v>
+      </c>
+      <c r="O4" s="28">
+        <v>11.1921050644247</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0.13754877448949901</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0.16517953001998201</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0.106157875853182</v>
+      </c>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2967,29 +3837,29 @@
       <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="16">
+      <c r="M5" s="14">
         <v>0.85984988290767905</v>
       </c>
-      <c r="M5" s="16">
+      <c r="N5" s="14">
         <v>1.0618560627400899E-3</v>
       </c>
-      <c r="N5" s="16">
+      <c r="O5" s="14">
         <v>11.467363191577901</v>
       </c>
-      <c r="O5" s="16">
+      <c r="P5" s="14">
         <v>0.13708799650329101</v>
       </c>
-      <c r="P5" s="16">
+      <c r="Q5" s="14">
         <v>0.164240320870712</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="R5" s="14">
         <v>0.106211508502489</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3023,26 +3893,26 @@
       <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="16">
+      <c r="M6" s="14">
         <v>0.83043391632280406</v>
       </c>
-      <c r="M6" s="17">
+      <c r="N6" s="15">
         <v>1.05065214088194E-3</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O6" s="15">
         <v>11.234771610285099</v>
       </c>
-      <c r="O6" s="17">
+      <c r="P6" s="15">
         <v>0.13292169433456799</v>
       </c>
-      <c r="P6" s="17">
+      <c r="Q6" s="15">
         <v>0.15975893594083501</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="R6" s="15">
         <v>0.104422274001578</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3076,184 +3946,205 @@
       <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="14">
         <v>0.84857504449934995</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="15">
         <v>1.0470352314698201E-3</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="15">
         <v>11.0099023024096</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="15">
         <v>0.13595650523487801</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="15">
         <v>0.16285584334123099</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="R7" s="15">
         <v>0.10522540363196101</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>30683</v>
+      </c>
+      <c r="E8" s="26">
+        <v>42</v>
+      </c>
+      <c r="F8" s="26">
+        <v>100</v>
+      </c>
+      <c r="G8" s="27">
+        <v>50</v>
+      </c>
+      <c r="H8" s="27">
+        <v>28</v>
+      </c>
+      <c r="I8" s="27">
+        <v>7</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28">
+        <v>0.79779778652111399</v>
+      </c>
+      <c r="N8" s="28">
+        <v>9.0141148838762404E-4</v>
+      </c>
+      <c r="O8" s="28">
+        <v>10.121165065568199</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0.12880160080986</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>0.15221145828087801</v>
+      </c>
+      <c r="R8" s="28">
+        <v>9.8355971601415598E-2</v>
+      </c>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>862</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="D9">
+        <v>30683</v>
+      </c>
+      <c r="E9" s="26">
+        <v>43</v>
+      </c>
+      <c r="F9" s="26">
+        <v>100</v>
+      </c>
+      <c r="G9" s="27">
+        <v>50</v>
+      </c>
+      <c r="H9" s="27">
+        <v>28</v>
+      </c>
+      <c r="I9" s="27">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="17">
-        <v>1.0590886802985799</v>
-      </c>
-      <c r="M9" s="17">
-        <v>1814414.5071892301</v>
-      </c>
-      <c r="N9" s="17">
-        <v>10.0969587297497</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0.120414979100898</v>
-      </c>
-      <c r="P9" s="17">
-        <v>6.4194485050520694E-2</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>3.0946498315951601E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>47</v>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
+        <v>0.78304190721217704</v>
+      </c>
+      <c r="N9" s="28">
+        <v>8.91834781503537E-4</v>
+      </c>
+      <c r="O9" s="28">
+        <v>10.199148544691299</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0.12715382721795501</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0.149434735285779</v>
+      </c>
+      <c r="R9" s="28">
+        <v>9.6812827239189297E-2</v>
+      </c>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>862</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" s="1">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="D10">
+        <v>30683</v>
+      </c>
+      <c r="E10" s="26">
+        <v>44</v>
+      </c>
+      <c r="F10" s="26">
+        <v>100</v>
+      </c>
+      <c r="G10" s="27">
+        <v>50</v>
+      </c>
+      <c r="H10" s="27">
+        <v>28</v>
+      </c>
+      <c r="I10" s="27">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="17">
-        <v>0.86948210155400896</v>
-      </c>
-      <c r="M10" s="17">
-        <v>9663469.7237499598</v>
-      </c>
-      <c r="N10" s="17">
-        <v>11.163399067550399</v>
-      </c>
-      <c r="O10" s="17">
-        <v>0.110295287418847</v>
-      </c>
-      <c r="P10" s="17">
-        <v>8.96291850634863E-2</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>7.3593731918057001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" s="1">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0.86787689438003301</v>
-      </c>
-      <c r="M11" s="17">
-        <v>8363340.7832876099</v>
-      </c>
-      <c r="N11" s="17">
-        <v>9.9042727025184707</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0.109970935237075</v>
-      </c>
-      <c r="P11" s="17">
-        <v>8.7013987099651899E-2</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>5.9227821472959699E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L10" s="27"/>
+      <c r="M10" s="28">
+        <v>0.81619549648116096</v>
+      </c>
+      <c r="N10" s="28">
+        <v>9.3053650441124295E-4</v>
+      </c>
+      <c r="O10" s="28">
+        <v>9.9900870315553494</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0.131852177942516</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>0.15607441185311999</v>
+      </c>
+      <c r="R10" s="28">
+        <v>9.83588221841422E-2</v>
+      </c>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>19863</v>
-      </c>
       <c r="E12">
         <v>42</v>
       </c>
@@ -3264,7 +4155,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
@@ -3275,35 +4166,32 @@
       <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="17">
-        <v>0.83419075870286896</v>
-      </c>
-      <c r="M12" s="17">
-        <v>4846164.1244089697</v>
-      </c>
-      <c r="N12" s="17">
-        <v>10.815703975</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0.10752592026314001</v>
-      </c>
-      <c r="P12" s="17">
-        <v>7.1300177838820505E-2</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>5.2852437024343002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M12" s="15">
+        <v>1.0590886802985799</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1814414.5071892301</v>
+      </c>
+      <c r="O12" s="15">
+        <v>10.0969587297497</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0.120414979100898</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>6.4194485050520694E-2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>3.0946498315951601E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>19863</v>
-      </c>
       <c r="E13">
         <v>43</v>
       </c>
@@ -3314,7 +4202,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1">
         <v>7</v>
@@ -3325,35 +4213,32 @@
       <c r="K13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="17">
-        <v>0.84726409264259295</v>
-      </c>
-      <c r="M13" s="17">
-        <v>4347845.5348242298</v>
-      </c>
-      <c r="N13" s="17">
-        <v>10.7053474559947</v>
-      </c>
-      <c r="O13" s="17">
-        <v>0.108184258861334</v>
-      </c>
-      <c r="P13" s="17">
-        <v>6.9157370996333206E-2</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>5.1092277275688699E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M13" s="15">
+        <v>0.86948210155400896</v>
+      </c>
+      <c r="N13" s="15">
+        <v>9663469.7237499598</v>
+      </c>
+      <c r="O13" s="15">
+        <v>11.163399067550399</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.110295287418847</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>8.96291850634863E-2</v>
+      </c>
+      <c r="R13" s="15">
+        <v>7.3593731918057001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>19863</v>
-      </c>
       <c r="E14">
         <v>44</v>
       </c>
@@ -3364,7 +4249,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
@@ -3375,26 +4260,26 @@
       <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="17">
-        <v>0.79669440831159299</v>
-      </c>
-      <c r="M14" s="17">
-        <v>3694232.2760175699</v>
-      </c>
-      <c r="N14" s="17">
-        <v>9.2174688751987599</v>
-      </c>
-      <c r="O14" s="17">
-        <v>0.105572916965178</v>
-      </c>
-      <c r="P14" s="17">
-        <v>6.5199569276809505E-2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>4.2390620979312101E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M14" s="15">
+        <v>0.86787689438003301</v>
+      </c>
+      <c r="N14" s="15">
+        <v>8363340.7832876099</v>
+      </c>
+      <c r="O14" s="15">
+        <v>9.9042727025184707</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.109970935237075</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>8.7013987099651899E-2</v>
+      </c>
+      <c r="R14" s="15">
+        <v>5.9227821472959699E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3414,7 +4299,7 @@
         <v>50</v>
       </c>
       <c r="H15" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>7</v>
@@ -3425,26 +4310,26 @@
       <c r="K15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="16">
-        <v>0.80038244191712404</v>
-      </c>
-      <c r="M15" s="17">
-        <v>3454372.2208646899</v>
-      </c>
-      <c r="N15" s="17">
-        <v>10.0155090829626</v>
-      </c>
-      <c r="O15" s="17">
-        <v>0.105287008045341</v>
-      </c>
-      <c r="P15" s="17">
-        <v>6.3141385710627995E-2</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>4.2979536414488401E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M15" s="15">
+        <v>0.83419075870286896</v>
+      </c>
+      <c r="N15" s="15">
+        <v>4846164.1244089697</v>
+      </c>
+      <c r="O15" s="15">
+        <v>10.815703975</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.10752592026314001</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>7.1300177838820505E-2</v>
+      </c>
+      <c r="R15" s="15">
+        <v>5.2852437024343002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3464,7 +4349,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>7</v>
@@ -3475,26 +4360,26 @@
       <c r="K16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="17">
-        <v>0.79325627525355602</v>
-      </c>
-      <c r="M16" s="17">
-        <v>2740475.9727795599</v>
-      </c>
-      <c r="N16" s="17">
-        <v>9.7206576334251906</v>
-      </c>
-      <c r="O16" s="17">
-        <v>0.10496133224816399</v>
-      </c>
-      <c r="P16" s="17">
-        <v>5.9014914421637803E-2</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>3.7856747294974499E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M16" s="15">
+        <v>0.84726409264259295</v>
+      </c>
+      <c r="N16" s="15">
+        <v>4347845.5348242298</v>
+      </c>
+      <c r="O16" s="15">
+        <v>10.7053474559947</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0.108184258861334</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>6.9157370996333206E-2</v>
+      </c>
+      <c r="R16" s="15">
+        <v>5.1092277275688699E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3514,7 +4399,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1">
         <v>7</v>
@@ -3525,46 +4410,46 @@
       <c r="K17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="17">
-        <v>0.77547197875461105</v>
-      </c>
-      <c r="M17" s="17">
-        <v>3047465.59604799</v>
-      </c>
-      <c r="N17" s="17">
-        <v>9.1052597460046396</v>
-      </c>
-      <c r="O17" s="17">
-        <v>0.10529276768529</v>
-      </c>
-      <c r="P17" s="17">
-        <v>6.04159170370498E-2</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>3.6945452498413398E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="M17" s="15">
+        <v>0.79669440831159299</v>
+      </c>
+      <c r="N17" s="15">
+        <v>3694232.2760175699</v>
+      </c>
+      <c r="O17" s="15">
+        <v>9.2174688751987599</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.105572916965178</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>6.5199569276809505E-2</v>
+      </c>
+      <c r="R17" s="15">
+        <v>4.2390620979312101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E18">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1">
         <v>50</v>
       </c>
       <c r="H18" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>7</v>
@@ -3575,49 +4460,46 @@
       <c r="K18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="17">
-        <v>1.2391331745657099</v>
-      </c>
-      <c r="M18" s="17">
-        <v>5941670.4397198502</v>
-      </c>
-      <c r="N18" s="17">
-        <v>41.668678537912498</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0.14474497013057999</v>
-      </c>
-      <c r="P18" s="17">
-        <v>9.0956822491833803E-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0.1171239662947</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M18" s="14">
+        <v>0.80038244191712404</v>
+      </c>
+      <c r="N18" s="15">
+        <v>3454372.2208646899</v>
+      </c>
+      <c r="O18" s="15">
+        <v>10.0155090829626</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.105287008045341</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>6.3141385710627995E-2</v>
+      </c>
+      <c r="R18" s="15">
+        <v>4.2979536414488401E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E19">
         <v>43</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1">
         <v>50</v>
       </c>
       <c r="H19" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>7</v>
@@ -3628,46 +4510,46 @@
       <c r="K19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="17">
-        <v>1.2246919468774999</v>
-      </c>
-      <c r="M19" s="17">
-        <v>6759301.05423305</v>
-      </c>
-      <c r="N19" s="17">
-        <v>43.073853096103001</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0.14196743652895</v>
-      </c>
-      <c r="P19" s="17">
-        <v>9.3606632272868806E-2</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>0.12581174207687601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M19" s="15">
+        <v>0.79325627525355602</v>
+      </c>
+      <c r="N19" s="15">
+        <v>2740475.9727795599</v>
+      </c>
+      <c r="O19" s="15">
+        <v>9.7206576334251906</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.10496133224816399</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>5.9014914421637803E-2</v>
+      </c>
+      <c r="R19" s="15">
+        <v>3.7856747294974499E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E20">
         <v>44</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1">
         <v>50</v>
       </c>
       <c r="H20" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1">
         <v>7</v>
@@ -3678,26 +4560,26 @@
       <c r="K20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="17">
-        <v>1.16173745558769</v>
-      </c>
-      <c r="M20" s="17">
-        <v>4443096.5456963899</v>
-      </c>
-      <c r="N20" s="17">
-        <v>41.034461174662397</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0.137714178756523</v>
-      </c>
-      <c r="P20" s="17">
-        <v>8.0312013826844095E-2</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0.10819235412599899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M20" s="15">
+        <v>0.77547197875461105</v>
+      </c>
+      <c r="N20" s="15">
+        <v>3047465.59604799</v>
+      </c>
+      <c r="O20" s="15">
+        <v>9.1052597460046396</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.10529276768529</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>6.04159170370498E-2</v>
+      </c>
+      <c r="R20" s="15">
+        <v>3.6945452498413398E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -3711,7 +4593,7 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
@@ -3728,29 +4610,29 @@
       <c r="K21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="17">
-        <v>1.3085522501854301</v>
-      </c>
-      <c r="M21" s="17">
-        <v>12001825.646652199</v>
-      </c>
-      <c r="N21" s="17">
-        <v>47.718695448793497</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0.15102608315721699</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0.117946725215059</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>0.18360709935220401</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M21" s="15">
+        <v>1.2391331745657099</v>
+      </c>
+      <c r="N21" s="15">
+        <v>5941670.4397198502</v>
+      </c>
+      <c r="O21" s="15">
+        <v>41.668678537912498</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0.14474497013057999</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>9.0956822491833803E-2</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0.1171239662947</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +4646,7 @@
         <v>43</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1">
         <v>50</v>
@@ -3781,26 +4663,26 @@
       <c r="K22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="17">
-        <v>1.2551502602223901</v>
-      </c>
-      <c r="M22" s="17">
-        <v>7707741.0081467601</v>
-      </c>
-      <c r="N22" s="17">
-        <v>45.571063660721798</v>
-      </c>
-      <c r="O22" s="17">
-        <v>0.14377983684127099</v>
-      </c>
-      <c r="P22" s="17">
-        <v>9.7574029332455098E-2</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>0.13344068611103899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M22" s="15">
+        <v>1.2246919468774999</v>
+      </c>
+      <c r="N22" s="15">
+        <v>6759301.05423305</v>
+      </c>
+      <c r="O22" s="15">
+        <v>43.073853096103001</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.14196743652895</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>9.3606632272868806E-2</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0.12581174207687601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3814,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1">
         <v>50</v>
@@ -3831,26 +4713,26 @@
       <c r="K23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="17">
-        <v>1.1591628075831999</v>
-      </c>
-      <c r="M23" s="17">
-        <v>6087412.8583007203</v>
-      </c>
-      <c r="N23" s="17">
-        <v>42.002414810494599</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0.13609740201189199</v>
-      </c>
-      <c r="P23" s="17">
-        <v>8.7433503561880593E-2</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>0.12803950174179701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M23" s="15">
+        <v>1.16173745558769</v>
+      </c>
+      <c r="N23" s="15">
+        <v>4443096.5456963899</v>
+      </c>
+      <c r="O23" s="15">
+        <v>41.034461174662397</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.137714178756523</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>8.0312013826844095E-2</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.10819235412599899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3864,13 +4746,13 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>50</v>
       </c>
       <c r="H24" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1">
         <v>7</v>
@@ -3881,29 +4763,29 @@
       <c r="K24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="17">
-        <v>1.43294443802534</v>
-      </c>
-      <c r="M24" s="17">
-        <v>4038383.28077331</v>
-      </c>
-      <c r="N24" s="17">
-        <v>47.522759114160898</v>
-      </c>
-      <c r="O24" s="17">
-        <v>0.15617359108928799</v>
-      </c>
-      <c r="P24" s="17">
-        <v>8.8084355134814094E-2</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>8.99238508912166E-2</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M24" s="15">
+        <v>1.3085522501854301</v>
+      </c>
+      <c r="N24" s="15">
+        <v>12001825.646652199</v>
+      </c>
+      <c r="O24" s="15">
+        <v>47.718695448793497</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0.15102608315721699</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0.117946725215059</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0.18360709935220401</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3917,13 +4799,13 @@
         <v>43</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>50</v>
       </c>
       <c r="H25" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>7</v>
@@ -3934,29 +4816,26 @@
       <c r="K25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="17">
-        <v>1.37068403441141</v>
-      </c>
-      <c r="M25" s="17">
-        <v>7544336.6732820198</v>
-      </c>
-      <c r="N25" s="17">
-        <v>45.147097422076897</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0.152123549623223</v>
-      </c>
-      <c r="P25" s="17">
-        <v>0.103107159205456</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>0.12852060856410399</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M25" s="15">
+        <v>1.2551502602223901</v>
+      </c>
+      <c r="N25" s="15">
+        <v>7707741.0081467601</v>
+      </c>
+      <c r="O25" s="15">
+        <v>45.571063660721798</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.14377983684127099</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>9.7574029332455098E-2</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0.13344068611103899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3970,13 +4849,13 @@
         <v>44</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1">
         <v>50</v>
       </c>
       <c r="H26" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1">
         <v>7</v>
@@ -3987,29 +4866,26 @@
       <c r="K26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="17">
-        <v>1.8370979795408799</v>
-      </c>
-      <c r="M26" s="17">
-        <v>22614602.2125591</v>
-      </c>
-      <c r="N26" s="17">
-        <v>65.551152728490706</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0.18916757498450501</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0.159005665913556</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>0.21209374706150499</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="M26" s="15">
+        <v>1.1591628075831999</v>
+      </c>
+      <c r="N26" s="15">
+        <v>6087412.8583007203</v>
+      </c>
+      <c r="O26" s="15">
+        <v>42.002414810494599</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.13609740201189199</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>8.7433503561880593E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0.12803950174179701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4029,7 +4905,7 @@
         <v>50</v>
       </c>
       <c r="H27" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1">
         <v>7</v>
@@ -4040,29 +4916,29 @@
       <c r="K27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="17">
-        <v>1.40424513545234</v>
-      </c>
-      <c r="M27" s="17">
-        <v>5391838.2350399401</v>
-      </c>
-      <c r="N27" s="17">
-        <v>45.0325841433311</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0.15594551324453501</v>
-      </c>
-      <c r="P27" s="17">
-        <v>9.2863293125452495E-2</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>0.10541861298763899</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M27" s="15">
+        <v>1.43294443802534</v>
+      </c>
+      <c r="N27" s="15">
+        <v>4038383.28077331</v>
+      </c>
+      <c r="O27" s="15">
+        <v>47.522759114160898</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.15617359108928799</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>8.8084355134814094E-2</v>
+      </c>
+      <c r="R27" s="15">
+        <v>8.99238508912166E-2</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4073,7 +4949,7 @@
         <v>47437</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>25</v>
@@ -4082,7 +4958,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I28" s="1">
         <v>7</v>
@@ -4093,29 +4969,29 @@
       <c r="K28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="17">
-        <v>1.3968240245629</v>
-      </c>
-      <c r="M28" s="17">
-        <v>8772428.2898527198</v>
-      </c>
-      <c r="N28" s="17">
-        <v>44.343473044672201</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0.15266464800548901</v>
-      </c>
-      <c r="P28" s="17">
-        <v>0.10873459120011</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>0.14106791904426899</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M28" s="15">
+        <v>1.37068403441141</v>
+      </c>
+      <c r="N28" s="15">
+        <v>7544336.6732820198</v>
+      </c>
+      <c r="O28" s="15">
+        <v>45.147097422076897</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0.152123549623223</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0.103107159205456</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0.12852060856410399</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -4126,7 +5002,7 @@
         <v>47437</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>25</v>
@@ -4135,7 +5011,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I29" s="1">
         <v>7</v>
@@ -4146,29 +5022,29 @@
       <c r="K29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="17">
-        <v>1.53068941620192</v>
-      </c>
-      <c r="M29" s="17">
-        <v>10884091.4645351</v>
-      </c>
-      <c r="N29" s="17">
-        <v>45.653923319839699</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0.17440079334261699</v>
-      </c>
-      <c r="P29" s="17">
-        <v>0.118815261375925</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>0.148819322628121</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M29" s="15">
+        <v>1.8370979795408799</v>
+      </c>
+      <c r="N29" s="15">
+        <v>22614602.2125591</v>
+      </c>
+      <c r="O29" s="15">
+        <v>65.551152728490706</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.18916757498450501</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.159005665913556</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0.21209374706150499</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4187,8 +5063,8 @@
       <c r="G30" s="1">
         <v>50</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
+      <c r="H30" s="1">
+        <v>28</v>
       </c>
       <c r="I30" s="1">
         <v>7</v>
@@ -4199,29 +5075,29 @@
       <c r="K30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="17">
-        <v>0.96366146465587199</v>
-      </c>
-      <c r="M30" s="17">
-        <v>4559304.3229776397</v>
-      </c>
-      <c r="N30" s="17">
-        <v>11.7982207671586</v>
-      </c>
-      <c r="O30" s="17">
-        <v>0.13122598570348901</v>
-      </c>
-      <c r="P30" s="17">
-        <v>7.3568422773155506E-2</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>4.9285672437264498E-2</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M30" s="15">
+        <v>1.40424513545234</v>
+      </c>
+      <c r="N30" s="15">
+        <v>5391838.2350399401</v>
+      </c>
+      <c r="O30" s="15">
+        <v>45.0325841433311</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.15594551324453501</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>9.2863293125452495E-2</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0.10541861298763899</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -4232,7 +5108,7 @@
         <v>47437</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -4240,8 +5116,8 @@
       <c r="G31" s="1">
         <v>50</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>24</v>
+      <c r="H31" s="1">
+        <v>28</v>
       </c>
       <c r="I31" s="1">
         <v>7</v>
@@ -4252,14 +5128,29 @@
       <c r="K31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M31" s="15">
+        <v>1.3968240245629</v>
+      </c>
+      <c r="N31" s="15">
+        <v>8772428.2898527198</v>
+      </c>
+      <c r="O31" s="15">
+        <v>44.343473044672201</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0.15266464800548901</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0.10873459120011</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0.14106791904426899</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -4270,7 +5161,7 @@
         <v>47437</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -4278,8 +5169,8 @@
       <c r="G32" s="1">
         <v>50</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
+      <c r="H32" s="1">
+        <v>28</v>
       </c>
       <c r="I32" s="1">
         <v>7</v>
@@ -4290,16 +5181,470 @@
       <c r="K32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.35">
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="M32" s="15">
+        <v>1.53068941620192</v>
+      </c>
+      <c r="N32" s="15">
+        <v>10884091.4645351</v>
+      </c>
+      <c r="O32" s="15">
+        <v>45.653923319839699</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0.17440079334261699</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0.118815261375925</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0.148819322628121</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>47437</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0.96366146465587199</v>
+      </c>
+      <c r="N33" s="15">
+        <v>4559304.3229776397</v>
+      </c>
+      <c r="O33" s="15">
+        <v>11.7982207671586</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.13122598570348901</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>7.3568422773155506E-2</v>
+      </c>
+      <c r="R33" s="15">
+        <v>4.9285672437264498E-2</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>47437</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1.2010000000000001</v>
+      </c>
+      <c r="M34" s="15">
+        <v>0.93256063121999999</v>
+      </c>
+      <c r="N34" s="15">
+        <v>4727503.6513</v>
+      </c>
+      <c r="O34" s="15">
+        <v>12.4512</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.1295</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>7.0601778500000004E-2</v>
+      </c>
+      <c r="R34" s="15">
+        <v>4.9718166899999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>47437</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>21723</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1">
+        <v>48</v>
+      </c>
+      <c r="I37" s="1">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="15">
+        <v>1.33949444468741</v>
+      </c>
+      <c r="N37" s="15">
+        <v>4183684.9223651001</v>
+      </c>
+      <c r="O37" s="15">
+        <v>21.7360339597105</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0.113995292100149</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>4.8259866736034197E-2</v>
+      </c>
+      <c r="R37" s="15">
+        <v>3.1924357692853303E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>21723</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" s="15">
+        <v>1.4937566648694101</v>
+      </c>
+      <c r="N38" s="15">
+        <v>7387000.3364083497</v>
+      </c>
+      <c r="O38" s="15">
+        <v>27.8690670554127</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0.125760159131317</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>6.4116617488500199E-2</v>
+      </c>
+      <c r="R38" s="15">
+        <v>1.0240031268083201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>21723</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1">
+        <v>48</v>
+      </c>
+      <c r="I39" s="1">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="15">
+        <v>2.1626611472158301</v>
+      </c>
+      <c r="N39" s="15">
+        <v>51197135.181636602</v>
+      </c>
+      <c r="O39" s="15">
+        <v>47.482280539307197</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0.142073465022688</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>0.13483371537754801</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0.18224809686688601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="14">
+        <v>2.6304692301581398</v>
+      </c>
+      <c r="N41" s="14">
+        <v>463435.92852001399</v>
+      </c>
+      <c r="O41" s="14">
+        <v>25.399000777691601</v>
+      </c>
+      <c r="P41" s="14">
+        <v>9.5237163592344506E-2</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>6.6834473706314595E-2</v>
+      </c>
+      <c r="R41" s="14">
+        <v>3.1033780551203899E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="14">
+        <v>2.57307024566451</v>
+      </c>
+      <c r="N42" s="14">
+        <v>444685.53919288702</v>
+      </c>
+      <c r="O42" s="14">
+        <v>26.296752463540301</v>
+      </c>
+      <c r="P42" s="14">
+        <v>8.9079988231562601E-2</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>6.4319145588598498E-2</v>
+      </c>
+      <c r="R42" s="14">
+        <v>2.8232938278205E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>44</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="14">
+        <v>2.5439506552498101</v>
+      </c>
+      <c r="N43" s="14">
+        <v>430494.41801636602</v>
+      </c>
+      <c r="O43" s="14">
+        <v>25.791707013299</v>
+      </c>
+      <c r="P43" s="14">
+        <v>8.94737436635588E-2</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>6.3396904019689698E-2</v>
+      </c>
+      <c r="R43" s="14">
+        <v>2.98783065273443E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C236D-1840-4C64-A717-A77E57359868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDFADC-2E79-4C8C-8243-4CEBB936796B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1900" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16430" yWindow="2690" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="62">
   <si>
     <t>Algorithm</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>DeepFactor</t>
-  </si>
-  <si>
-    <t>context_length</t>
   </si>
   <si>
     <t>DeepAR</t>
@@ -145,12 +142,6 @@
     <t>use feat static cat / cardinality</t>
   </si>
   <si>
-    <t>True / 862</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
     <t>wQLoss50</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   <si>
     <t>Loss</t>
   </si>
+  <si>
+    <t>context / prediction len</t>
+  </si>
+  <si>
+    <t>4h56min;4h57min;4h32min</t>
+  </si>
+  <si>
+    <t>31/14</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,6 +387,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -646,27 +704,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="50.54296875" style="1" customWidth="1"/>
   </cols>
@@ -676,13 +734,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -691,16 +749,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -712,22 +770,22 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10">
@@ -757,10 +815,10 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2">
@@ -787,15 +845,15 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
@@ -823,13 +881,13 @@
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>359</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
@@ -857,13 +915,13 @@
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>359</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
@@ -890,18 +948,18 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>359</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
@@ -931,13 +989,13 @@
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>359</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -967,13 +1025,13 @@
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>359</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -1001,13 +1059,13 @@
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>359</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
@@ -1035,13 +1093,13 @@
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>359</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>20623</v>
@@ -1054,7 +1112,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3">
         <v>42</v>
@@ -1079,13 +1137,13 @@
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>359</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>20623</v>
@@ -1098,7 +1156,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3">
         <v>43</v>
@@ -1123,13 +1181,13 @@
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>359</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>20623</v>
@@ -1142,7 +1200,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13" s="3">
         <v>44</v>
@@ -1167,10 +1225,10 @@
     </row>
     <row r="14" spans="1:16" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8">
@@ -1198,7 +1256,7 @@
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -1229,7 +1287,7 @@
     </row>
     <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -1257,68 +1315,68 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4">
+      <c r="D17" s="44"/>
+      <c r="E17" s="43">
         <v>25</v>
       </c>
-      <c r="F17" s="5">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="5">
-        <v>42</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="F17" s="44">
+        <v>50</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="44">
+        <v>42</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="44"/>
+    </row>
+    <row r="18" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="D18" s="44"/>
+      <c r="E18" s="43">
         <v>25</v>
       </c>
-      <c r="F18" s="5">
-        <v>100</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
-        <v>42</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="5"/>
+      <c r="F18" s="44">
+        <v>100</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
+        <v>42</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -1370,7 +1428,7 @@
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>8</v>
@@ -1403,7 +1461,7 @@
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>8</v>
@@ -1433,113 +1491,99 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6">
-        <v>100</v>
-      </c>
-      <c r="F23" s="7">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="7">
-        <v>42</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="47">
+        <v>100</v>
+      </c>
+      <c r="F23" s="48">
+        <v>50</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="48">
+        <v>42</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6">
-        <v>100</v>
-      </c>
-      <c r="F24" s="7">
-        <v>100</v>
-      </c>
-      <c r="G24" s="7">
-        <v>168</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="24">
-        <v>17.9047409798229</v>
-      </c>
-      <c r="L24" s="25">
-        <v>0.33365163476690102</v>
-      </c>
-      <c r="M24" s="25">
-        <v>655.79579474316597</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="47">
+        <v>100</v>
+      </c>
+      <c r="F24" s="48">
+        <v>50</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="48">
+        <v>43</v>
+      </c>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7">
-        <v>50</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7">
-        <v>42</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="24">
-        <v>10.7292571932171</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0.17132259999999999</v>
-      </c>
-      <c r="M25" s="25">
-        <v>399.04035499999998</v>
-      </c>
-      <c r="N25" s="25">
-        <v>0.14003603048261601</v>
-      </c>
-      <c r="O25" s="25">
-        <v>0.19883275249999999</v>
-      </c>
-      <c r="P25" s="7"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="47">
+        <v>100</v>
+      </c>
+      <c r="F25" s="48">
+        <v>50</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="48">
+        <v>44</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>8</v>
@@ -1551,32 +1595,30 @@
       <c r="F26" s="7">
         <v>100</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>168</v>
+      </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7">
-        <v>42</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="24">
-        <v>6.3575092800000004</v>
+        <v>17.9047409798229</v>
       </c>
       <c r="L26" s="25">
-        <v>0.13704017330000001</v>
-      </c>
-      <c r="M26" s="24">
-        <v>211.23675800000001</v>
-      </c>
-      <c r="N26" s="25">
-        <v>0.1029408</v>
-      </c>
-      <c r="O26" s="25">
-        <v>0.11381707000000001</v>
-      </c>
-      <c r="P26" s="7"/>
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="M26" s="25">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>8</v>
@@ -1586,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="F27" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1595,220 +1637,226 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="24">
+        <v>10.7292571932171</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0.17132259999999999</v>
+      </c>
+      <c r="M27" s="25">
+        <v>399.04035499999998</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0.14003603048261601</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0.19883275249999999</v>
+      </c>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>42</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="24">
+        <v>6.3575092800000004</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.13704017330000001</v>
+      </c>
+      <c r="M28" s="24">
+        <v>211.23675800000001</v>
+      </c>
+      <c r="N28" s="25">
+        <v>0.1029408</v>
+      </c>
+      <c r="O28" s="25">
+        <v>0.11381707000000001</v>
+      </c>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>42</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="24">
         <v>6.1139901967252896</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L29" s="25">
         <v>0.13471676502000299</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M29" s="25">
         <v>180.338513490298</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N29" s="25">
         <v>0.10136832890986699</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O29" s="25">
         <v>0.103828328604855</v>
       </c>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29">
+        <v>100</v>
+      </c>
+      <c r="F30" s="30">
+        <v>250</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30">
+        <v>42</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29">
-        <v>100</v>
-      </c>
-      <c r="F28" s="30">
-        <v>250</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
-        <v>42</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30" t="s">
+      <c r="L30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-    </row>
-    <row r="30" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="37">
+    </row>
+    <row r="31" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="37">
         <v>414</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="37">
-        <v>100</v>
-      </c>
-      <c r="F31" s="38">
-        <v>50</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39">
+      <c r="C33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="37">
+        <v>100</v>
+      </c>
+      <c r="F33" s="38">
+        <v>50</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39">
         <v>1.44666660175531</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L33" s="40">
         <v>0.1298174584541</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M33" s="40">
         <v>16.642986874988399</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="2">
-        <v>414</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>50</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>42</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="18">
-        <v>1.7621786881972099</v>
-      </c>
-      <c r="L32" s="19">
-        <v>0.136582885212886</v>
-      </c>
-      <c r="M32" s="19">
-        <v>24.567364629029498</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2">
-        <v>414</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="18">
-        <v>2.1688713732443401</v>
-      </c>
-      <c r="L33" s="19">
-        <v>0.13595743149248801</v>
-      </c>
-      <c r="M33" s="19">
-        <v>30.985507904866601</v>
-      </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
         <v>414</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F34" s="3">
         <v>50</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>42</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="18">
-        <v>2.2608650663714398</v>
+        <v>1.7621786881972099</v>
       </c>
       <c r="L34" s="19">
-        <v>0.14185608409783801</v>
+        <v>0.136582885212886</v>
       </c>
       <c r="M34" s="19">
-        <v>28.196347731740801</v>
+        <v>24.567364629029498</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
@@ -1816,99 +1864,81 @@
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2">
         <v>414</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
-        <v>21723</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="2">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="18">
-        <v>1.3722961783182199</v>
+        <v>2.1688713732443401</v>
       </c>
       <c r="L35" s="19">
-        <v>0.114591133679717</v>
+        <v>0.13595743149248801</v>
       </c>
       <c r="M35" s="19">
-        <v>24.437912268592498</v>
-      </c>
-      <c r="N35" s="19">
-        <v>6.6035595238716396E-2</v>
-      </c>
-      <c r="O35" s="19">
-        <v>2.7685366126353701E-2</v>
-      </c>
+        <v>30.985507904866601</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2">
         <v>414</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
-        <v>21723</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3">
         <v>50</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="3">
-        <v>42</v>
-      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="18">
-        <v>1.33949444468741</v>
+        <v>2.2608650663714398</v>
       </c>
       <c r="L36" s="19">
-        <v>0.113995292100149</v>
+        <v>0.14185608409783801</v>
       </c>
       <c r="M36" s="19">
-        <v>21.7360339597105</v>
-      </c>
-      <c r="N36" s="19">
-        <v>4.8259866736034197E-2</v>
-      </c>
-      <c r="O36" s="19">
-        <v>3.1924357692853303E-2</v>
-      </c>
+        <v>28.196347731740801</v>
+      </c>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2">
         <v>414</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3">
         <v>21723</v>
@@ -1921,38 +1951,36 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="3">
         <v>43</v>
       </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="18">
-        <v>1.4937566658690999</v>
+        <v>1.3722961783182199</v>
       </c>
       <c r="L37" s="19">
-        <v>0.12576014591313101</v>
+        <v>0.114591133679717</v>
       </c>
       <c r="M37" s="19">
-        <v>27.8690670554127</v>
-      </c>
-      <c r="N37" s="18">
-        <v>6.4116617488500201E-3</v>
-      </c>
-      <c r="O37" s="18">
-        <v>2.4003126083275102E-2</v>
+        <v>24.437912268592498</v>
+      </c>
+      <c r="N37" s="19">
+        <v>6.6035595238716396E-2</v>
+      </c>
+      <c r="O37" s="19">
+        <v>2.7685366126353701E-2</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
         <v>414</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
         <v>21723</v>
@@ -1965,1585 +1993,2199 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I38" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="18">
+        <v>1.33949444468741</v>
+      </c>
+      <c r="L38" s="19">
+        <v>0.113995292100149</v>
+      </c>
+      <c r="M38" s="19">
+        <v>21.7360339597105</v>
+      </c>
+      <c r="N38" s="19">
+        <v>4.8259866736034197E-2</v>
+      </c>
+      <c r="O38" s="19">
+        <v>3.1924357692853303E-2</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>414</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3">
+        <v>21723</v>
+      </c>
+      <c r="E39" s="2">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3">
+        <v>50</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="3">
+        <v>43</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="18">
+        <v>1.4937566658690999</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0.12576014591313101</v>
+      </c>
+      <c r="M39" s="19">
+        <v>27.8690670554127</v>
+      </c>
+      <c r="N39" s="18">
+        <v>6.4116617488500201E-3</v>
+      </c>
+      <c r="O39" s="18">
+        <v>2.4003126083275102E-2</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>414</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>21723</v>
+      </c>
+      <c r="E40" s="2">
+        <v>100</v>
+      </c>
+      <c r="F40" s="3">
+        <v>50</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="3">
+        <v>44</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="18">
         <v>2.1626611472158301</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L40" s="19">
         <v>0.142073465022688</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M40" s="19">
         <v>47.482280539307197</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N40" s="19">
         <v>0.13483371537754801</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O40" s="19">
         <v>0.18224809686688601</v>
       </c>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4">
         <v>414</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4">
+      <c r="D41" s="5"/>
+      <c r="E41" s="4">
         <v>25</v>
       </c>
-      <c r="F39" s="5">
-        <v>50</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="22">
+      <c r="F41" s="5">
+        <v>50</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="22">
         <v>2.6633550241579802</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L41" s="23">
         <v>0.181608907022653</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M41" s="23">
         <v>44.230100888809901</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="4">
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="43">
         <v>414</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4">
+      <c r="D42" s="44"/>
+      <c r="E42" s="43">
         <v>25</v>
       </c>
-      <c r="F40" s="5">
-        <v>50</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="5">
-        <v>42</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="34"/>
-    </row>
-    <row r="42" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="F42" s="44">
+        <v>50</v>
+      </c>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="44">
+        <v>42</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="44"/>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="43">
         <v>414</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="43">
+        <v>25</v>
+      </c>
+      <c r="F43" s="44">
+        <v>50</v>
+      </c>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="44">
+        <v>43</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="43">
+        <v>414</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="43">
+        <v>25</v>
+      </c>
+      <c r="F44" s="44">
+        <v>50</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="44">
+        <v>44</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="34"/>
+    </row>
+    <row r="46" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="6">
+        <v>414</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6">
-        <v>100</v>
-      </c>
-      <c r="F42" s="7">
-        <v>50</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7">
-        <v>42</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="24">
+      <c r="D46" s="7"/>
+      <c r="E46" s="6">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7">
+        <v>50</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
+        <v>42</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="24">
         <v>13.752988999999999</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L46" s="25">
         <v>0.34606221715618302</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M46" s="25">
         <v>260.71834811000002</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N46" s="25">
         <v>0.100243507241533</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O46" s="25">
         <v>0.118486994896638</v>
       </c>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="47">
         <v>414</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C47" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6">
-        <v>100</v>
-      </c>
-      <c r="F43" s="7">
-        <v>50</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="7">
-        <v>42</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="D47" s="48"/>
+      <c r="E47" s="47">
+        <v>100</v>
+      </c>
+      <c r="F47" s="48">
+        <v>50</v>
+      </c>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="48">
+        <v>42</v>
+      </c>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="48"/>
+    </row>
+    <row r="48" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6">
         <v>414</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6">
-        <v>100</v>
-      </c>
-      <c r="F44" s="7">
-        <v>100</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7">
-        <v>42</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="24">
+      <c r="D48" s="7"/>
+      <c r="E48" s="6">
+        <v>100</v>
+      </c>
+      <c r="F48" s="7">
+        <v>100</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
+        <v>42</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="24">
         <v>23.533678978716601</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L48" s="25">
         <v>0.42155993227215</v>
       </c>
-      <c r="M44" s="25">
+      <c r="M48" s="25">
         <v>545.75731609802597</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N48" s="25">
         <v>0.33439627305276798</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O48" s="25">
         <v>8.1370935121077501E-2</v>
       </c>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="29">
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="29">
         <v>414</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C49" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29">
-        <v>100</v>
-      </c>
-      <c r="F45" s="30">
+      <c r="D49" s="30"/>
+      <c r="E49" s="29">
+        <v>100</v>
+      </c>
+      <c r="F49" s="30">
         <v>200</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30">
-        <v>42</v>
-      </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30" t="s">
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30">
+        <v>42</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-    </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2">
-        <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>50</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>42</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="18">
-        <v>3.53453446581329</v>
-      </c>
-      <c r="L47" s="19">
-        <v>3.3774608183609799E-2</v>
-      </c>
-      <c r="M47" s="19">
-        <v>39.950803257038203</v>
-      </c>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>50</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="18">
-        <v>4.3992172136277903</v>
-      </c>
-      <c r="L48" s="19">
-        <v>3.96223073497197E-2</v>
-      </c>
-      <c r="M48" s="19">
-        <v>59.648501471104701</v>
-      </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2">
-        <v>100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>50</v>
-      </c>
-      <c r="G49" s="3">
-        <v>14</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="3">
-        <v>42</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="18">
-        <v>4.9019094580076903</v>
-      </c>
-      <c r="L49" s="19">
-        <v>4.4429586679793499E-2</v>
-      </c>
-      <c r="M49" s="19">
-        <v>69.704341403514405</v>
-      </c>
-      <c r="N49" s="19">
-        <v>4.0116878914842703E-2</v>
-      </c>
-      <c r="O49" s="19">
-        <v>2.2393254599391101E-2</v>
-      </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2">
-        <v>100</v>
-      </c>
-      <c r="F50" s="3">
-        <v>50</v>
-      </c>
-      <c r="G50" s="3">
-        <v>14</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="3">
-        <v>43</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="18">
-        <v>4.0038073852598499</v>
-      </c>
-      <c r="L50" s="19">
-        <v>3.6688789757854501E-2</v>
-      </c>
-      <c r="M50" s="19">
-        <v>53.093623329446302</v>
-      </c>
-      <c r="N50" s="19">
-        <v>3.0750500964385599E-2</v>
-      </c>
-      <c r="O50" s="19">
-        <v>1.4080862918083499E-2</v>
-      </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2">
-        <v>100</v>
-      </c>
-      <c r="F51" s="3">
-        <v>50</v>
-      </c>
-      <c r="G51" s="3">
-        <v>14</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="3">
-        <v>44</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="18">
-        <v>3.5157139455596198</v>
-      </c>
-      <c r="L51" s="19">
-        <v>3.34109955349556E-2</v>
-      </c>
-      <c r="M51" s="19">
-        <v>49.999309540454</v>
-      </c>
-      <c r="N51" s="19">
-        <v>2.99456884654348E-2</v>
-      </c>
-      <c r="O51" s="19">
-        <v>1.5938158334067899E-2</v>
-      </c>
-      <c r="P51" s="3"/>
+    </row>
+    <row r="50" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
     </row>
     <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2">
         <v>4227</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" s="3">
-        <v>42</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5.3731</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="18">
-        <v>4.6888277983732802</v>
+        <v>5.3913402057172197</v>
       </c>
       <c r="L52" s="19">
-        <v>4.2354736963695502E-2</v>
+        <v>4.5453329399599597E-2</v>
       </c>
       <c r="M52" s="19">
-        <v>58.546133147207897</v>
-      </c>
-      <c r="N52" s="19">
-        <v>3.81307362333883E-2</v>
-      </c>
-      <c r="O52" s="19">
-        <v>1.94263506138064E-2</v>
-      </c>
+        <v>95.558690835703899</v>
+      </c>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2">
         <v>4227</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F53" s="3">
         <v>100</v>
       </c>
-      <c r="G53" s="3">
-        <v>14</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53" s="3">
-        <v>43</v>
-      </c>
-      <c r="J53" s="3">
-        <v>5.3796999999999997</v>
-      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="18">
-        <v>3.76198040986064</v>
+        <v>4.1829039523568197</v>
       </c>
       <c r="L53" s="19">
-        <v>3.5131886546129497E-2</v>
+        <v>3.7512549576846597E-2</v>
       </c>
       <c r="M53" s="19">
-        <v>42.1346287254948</v>
-      </c>
-      <c r="N53" s="19">
-        <v>3.1839711844375E-2</v>
-      </c>
-      <c r="O53" s="19">
-        <v>1.50434441822506E-2</v>
-      </c>
+        <v>45.512803344470299</v>
+      </c>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2">
         <v>4227</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>14</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3">
-        <v>44</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5.3815999999999997</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="18">
-        <v>3.7490946166483901</v>
+        <v>3.53453446581329</v>
       </c>
       <c r="L54" s="19">
-        <v>3.4733060718235398E-2</v>
+        <v>3.3774608183609799E-2</v>
       </c>
       <c r="M54" s="19">
-        <v>44.046071467776798</v>
-      </c>
-      <c r="N54" s="19">
-        <v>3.1557588852523799E-2</v>
-      </c>
-      <c r="O54" s="19">
-        <v>1.4121308543102401E-2</v>
-      </c>
+        <v>39.950803257038203</v>
+      </c>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2">
         <v>4227</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2">
         <v>100</v>
       </c>
       <c r="F55" s="3">
-        <v>200</v>
-      </c>
-      <c r="G55" s="3">
-        <v>14</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="3">
-        <v>42</v>
-      </c>
-      <c r="J55" s="3">
-        <v>5.3231000000000002</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="18">
-        <v>5.40633569574379</v>
+        <v>4.3992172136277903</v>
       </c>
       <c r="L55" s="19">
-        <v>4.7543834963823403E-2</v>
+        <v>3.96223073497197E-2</v>
       </c>
       <c r="M55" s="19">
-        <v>77.864039181710595</v>
-      </c>
-      <c r="N55" s="19">
-        <v>4.598874E-2</v>
-      </c>
-      <c r="O55" s="19">
-        <v>2.6339886999999999E-2</v>
-      </c>
+        <v>59.648501471104701</v>
+      </c>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="2">
         <v>4227</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2">
         <v>100</v>
       </c>
       <c r="F56" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G56" s="3">
         <v>14</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I56" s="3">
-        <v>43</v>
-      </c>
-      <c r="J56" s="3">
-        <v>5.3291000000000004</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="18">
-        <v>4.3779429482645398</v>
+        <v>4.9019094580076903</v>
       </c>
       <c r="L56" s="19">
-        <v>3.9220900000000003E-2</v>
+        <v>4.4429586679793499E-2</v>
       </c>
       <c r="M56" s="19">
-        <v>53.407499999999999</v>
+        <v>69.704341403514405</v>
       </c>
       <c r="N56" s="19">
-        <v>3.7683399999999999E-2</v>
+        <v>4.0116878914842703E-2</v>
       </c>
       <c r="O56" s="19">
-        <v>1.7714669999999998E-2</v>
+        <v>2.2393254599391101E-2</v>
       </c>
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2">
         <v>4227</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G57" s="3">
         <v>14</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I57" s="3">
-        <v>44</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5.3293999999999997</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J57" s="3"/>
       <c r="K57" s="18">
-        <v>3.6071879999999998</v>
+        <v>4.0038073852598499</v>
       </c>
       <c r="L57" s="19">
-        <v>3.3841510612267103E-2</v>
+        <v>3.6688789757854501E-2</v>
       </c>
       <c r="M57" s="19">
-        <v>43.212336000000001</v>
+        <v>53.093623329446302</v>
       </c>
       <c r="N57" s="19">
-        <v>3.0669129E-2</v>
+        <v>3.0750500964385599E-2</v>
       </c>
       <c r="O57" s="19">
-        <v>1.4138269E-2</v>
+        <v>1.4080862918083499E-2</v>
       </c>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2">
         <v>4227</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G58" s="3">
+        <v>14</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="3">
+        <v>44</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="18">
-        <v>4.1829039523568197</v>
+        <v>3.5157139455596198</v>
       </c>
       <c r="L58" s="19">
-        <v>3.7512549576846597E-2</v>
+        <v>3.34109955349556E-2</v>
       </c>
       <c r="M58" s="19">
-        <v>45.512803344470299</v>
-      </c>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+        <v>49.999309540454</v>
+      </c>
+      <c r="N58" s="19">
+        <v>2.99456884654348E-2</v>
+      </c>
+      <c r="O58" s="19">
+        <v>1.5938158334067899E-2</v>
+      </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="54">
         <v>4227</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="2">
-        <v>50</v>
-      </c>
-      <c r="F59" s="3">
-        <v>50</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="18">
-        <v>5.3913402057172197</v>
-      </c>
-      <c r="L59" s="19">
-        <v>4.5453329399599597E-2</v>
-      </c>
-      <c r="M59" s="19">
-        <v>95.558690835703899</v>
-      </c>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="C59" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="54">
+        <v>100</v>
+      </c>
+      <c r="F59" s="55">
+        <v>50</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="55">
+        <v>42</v>
+      </c>
+      <c r="J59" s="55">
+        <v>5.4063999999999997</v>
+      </c>
+      <c r="K59" s="56">
+        <v>4.1674490000000004</v>
+      </c>
+      <c r="L59" s="57">
+        <v>3.8940099999999998E-2</v>
+      </c>
+      <c r="M59" s="57">
+        <v>59.873821397952298</v>
+      </c>
+      <c r="N59" s="57">
+        <v>3.6601000000000002E-2</v>
+      </c>
+      <c r="O59" s="57">
+        <v>2.0503E-2</v>
+      </c>
+      <c r="P59" s="55"/>
+    </row>
+    <row r="60" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="54">
         <v>4227</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="2">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="18">
-        <v>3.4822369638914501</v>
-      </c>
-      <c r="L60" s="19">
-        <v>3.3039162166202E-2</v>
-      </c>
-      <c r="M60" s="19">
-        <v>38.929181310867698</v>
-      </c>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="C60" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="54">
+        <v>100</v>
+      </c>
+      <c r="F60" s="55">
+        <v>50</v>
+      </c>
+      <c r="G60" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="55">
+        <v>43</v>
+      </c>
+      <c r="J60" s="55">
+        <v>5.5023</v>
+      </c>
+      <c r="K60" s="56">
+        <v>3.5784159999999998</v>
+      </c>
+      <c r="L60" s="57">
+        <v>3.3480000000000003E-2</v>
+      </c>
+      <c r="M60" s="57">
+        <v>51.550781989999997</v>
+      </c>
+      <c r="N60" s="57">
+        <v>3.0080800000000001E-2</v>
+      </c>
+      <c r="O60" s="57">
+        <v>1.5723500000000001E-2</v>
+      </c>
+      <c r="P60" s="55"/>
+    </row>
+    <row r="61" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="54">
         <v>4227</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="2">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="C61" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="55"/>
+      <c r="E61" s="54">
+        <v>100</v>
+      </c>
+      <c r="F61" s="55">
+        <v>50</v>
+      </c>
+      <c r="G61" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="55">
+        <v>44</v>
+      </c>
+      <c r="J61" s="55">
+        <v>5.4516999999999998</v>
+      </c>
+      <c r="K61" s="56">
+        <v>3.7627000000000002</v>
+      </c>
+      <c r="L61" s="57">
+        <v>3.4901000000000001E-2</v>
+      </c>
+      <c r="M61" s="57">
+        <v>57.009099999999997</v>
+      </c>
+      <c r="N61" s="57">
+        <v>3.1515000000000001E-2</v>
+      </c>
+      <c r="O61" s="57">
+        <v>1.6348600000000001E-2</v>
+      </c>
+      <c r="P61" s="55"/>
+    </row>
+    <row r="62" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="54">
+        <v>4227</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="54">
+        <v>100</v>
+      </c>
+      <c r="F62" s="55">
+        <v>100</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="55">
+        <v>42</v>
+      </c>
+      <c r="J62" s="55">
+        <v>5.4119000000000002</v>
+      </c>
+      <c r="K62" s="56">
+        <v>3.4432</v>
+      </c>
+      <c r="L62" s="57">
+        <v>3.3230000000000003E-2</v>
+      </c>
+      <c r="M62" s="57">
+        <v>44.466742855213496</v>
+      </c>
+      <c r="N62" s="57">
+        <v>2.8675699999999998E-2</v>
+      </c>
+      <c r="O62" s="57">
+        <v>1.43138E-2</v>
+      </c>
+      <c r="P62" s="55"/>
+    </row>
+    <row r="63" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="54">
+        <v>4227</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="54">
+        <v>100</v>
+      </c>
+      <c r="F63" s="55">
+        <v>100</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="55">
+        <v>43</v>
+      </c>
+      <c r="J63" s="55">
+        <v>5.3997000000000002</v>
+      </c>
+      <c r="K63" s="56">
+        <v>3.5510999999999999</v>
+      </c>
+      <c r="L63" s="57">
+        <v>3.3779999999999998E-2</v>
+      </c>
+      <c r="M63" s="57">
+        <v>42.423400000000001</v>
+      </c>
+      <c r="N63" s="57">
+        <v>2.84336E-2</v>
+      </c>
+      <c r="O63" s="57">
+        <v>0.13858000000000001</v>
+      </c>
+      <c r="P63" s="55"/>
+    </row>
+    <row r="64" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="54">
+        <v>4227</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="E64" s="54">
+        <v>100</v>
+      </c>
+      <c r="F64" s="55">
+        <v>100</v>
+      </c>
+      <c r="G64" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="55">
+        <v>44</v>
+      </c>
+      <c r="J64" s="55">
+        <v>5.3997999999999999</v>
+      </c>
+      <c r="K64" s="56">
+        <v>3.6132961283458198</v>
+      </c>
+      <c r="L64" s="57">
+        <v>3.40602294154084E-2</v>
+      </c>
+      <c r="M64" s="57">
+        <v>42.991917761875698</v>
+      </c>
+      <c r="N64" s="57">
+        <v>2.9851293000000001E-2</v>
+      </c>
+      <c r="O64" s="57">
+        <v>1.3512874797E-2</v>
+      </c>
+      <c r="P64" s="55"/>
+    </row>
+    <row r="65" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="54">
+        <v>4227</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="55"/>
+      <c r="E65" s="54">
+        <v>100</v>
+      </c>
+      <c r="F65" s="55">
         <v>150</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="18">
-        <v>3.4948489288649101</v>
-      </c>
-      <c r="L61" s="19">
-        <v>3.3644492587488403E-2</v>
-      </c>
-      <c r="M61" s="19">
-        <v>39.458377616161002</v>
-      </c>
-      <c r="N61" s="19">
-        <v>3.00505847160191E-2</v>
-      </c>
-      <c r="O61" s="19">
-        <v>1.43563269479154E-2</v>
-      </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="4">
+      <c r="G65" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="55">
+        <v>42</v>
+      </c>
+      <c r="J65" s="55">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="K65" s="56">
+        <v>3.4301591109624199</v>
+      </c>
+      <c r="L65" s="57">
+        <v>3.2132932507393602E-2</v>
+      </c>
+      <c r="M65" s="57">
+        <v>44.733049000000001</v>
+      </c>
+      <c r="N65" s="57">
+        <v>2.8753426169999999E-2</v>
+      </c>
+      <c r="O65" s="57">
+        <v>1.39623572084751E-2</v>
+      </c>
+      <c r="P65" s="55"/>
+    </row>
+    <row r="66" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="54">
         <v>4227</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4">
-        <v>25</v>
-      </c>
-      <c r="F62" s="5">
-        <v>50</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5">
-        <v>42</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="22">
-        <v>3.7265029427634002</v>
-      </c>
-      <c r="L62" s="22">
-        <v>3.43615135073616E-2</v>
-      </c>
-      <c r="M62" s="23">
-        <v>45.614512805679603</v>
-      </c>
-      <c r="N62" s="22">
-        <v>3.1547316617100397E-2</v>
-      </c>
-      <c r="O62" s="22">
-        <v>1.5534556490396E-2</v>
-      </c>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="4">
+      <c r="C66" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="55"/>
+      <c r="E66" s="54">
+        <v>100</v>
+      </c>
+      <c r="F66" s="55">
+        <v>150</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="55">
+        <v>43</v>
+      </c>
+      <c r="J66" s="55">
+        <v>5.3738999999999999</v>
+      </c>
+      <c r="K66" s="56">
+        <v>3.4098999999999999</v>
+      </c>
+      <c r="L66" s="57">
+        <v>3.26955353402422E-2</v>
+      </c>
+      <c r="M66" s="57">
+        <v>40.6162672186896</v>
+      </c>
+      <c r="N66" s="57">
+        <v>2.9034644450000001E-2</v>
+      </c>
+      <c r="O66" s="57">
+        <v>1.3589085000000001E-2</v>
+      </c>
+      <c r="P66" s="55"/>
+    </row>
+    <row r="67" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="54">
         <v>4227</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="4">
-        <v>25</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="6">
+      <c r="C67" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="55"/>
+      <c r="E67" s="54">
+        <v>100</v>
+      </c>
+      <c r="F67" s="55">
+        <v>150</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="55">
+        <v>44</v>
+      </c>
+      <c r="J67" s="55">
+        <v>5.3731999999999998</v>
+      </c>
+      <c r="K67" s="56">
+        <v>4.0764711262509703</v>
+      </c>
+      <c r="L67" s="57">
+        <v>3.8317999999999998E-2</v>
+      </c>
+      <c r="M67" s="57">
+        <v>53.140005000000002</v>
+      </c>
+      <c r="N67" s="57">
+        <v>3.4648360299304001E-2</v>
+      </c>
+      <c r="O67" s="57">
+        <v>1.7697500000000001E-2</v>
+      </c>
+      <c r="P67" s="55"/>
+    </row>
+    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2">
         <v>4227</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="6">
-        <v>100</v>
-      </c>
-      <c r="F64" s="7">
-        <v>50</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7">
-        <v>42</v>
-      </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="24">
-        <v>39.8111117321926</v>
-      </c>
-      <c r="L64" s="25">
-        <v>0.295085285407581</v>
-      </c>
-      <c r="M64" s="25">
-        <v>1532.6129417120101</v>
-      </c>
-      <c r="N64" s="25">
-        <v>0.305712224216657</v>
-      </c>
-      <c r="O64" s="25">
-        <v>0.28655775903000102</v>
-      </c>
-      <c r="P64" s="7"/>
-    </row>
-    <row r="65" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="6">
-        <v>4227</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6">
-        <v>100</v>
-      </c>
-      <c r="F65" s="7">
-        <v>100</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7">
-        <v>42</v>
-      </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="24">
-        <v>24.7464336651162</v>
-      </c>
-      <c r="L65" s="24">
-        <v>0.19131980000000001</v>
-      </c>
-      <c r="M65" s="25">
-        <v>881.43752107056503</v>
-      </c>
-      <c r="N65" s="24">
-        <v>0.19190260000000001</v>
-      </c>
-      <c r="O65" s="25"/>
-      <c r="P65" s="7"/>
-    </row>
-    <row r="66" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="29">
-        <v>4227</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="29">
-        <v>100</v>
-      </c>
-      <c r="F66" s="30">
-        <v>200</v>
-      </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30">
-        <v>42</v>
-      </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P66" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-    </row>
-    <row r="68" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2">
+        <v>100</v>
+      </c>
+      <c r="F68" s="3">
+        <v>100</v>
+      </c>
+      <c r="G68" s="3">
+        <v>14</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="3">
+        <v>42</v>
+      </c>
+      <c r="J68" s="3">
+        <v>5.3731</v>
+      </c>
+      <c r="K68" s="18">
+        <v>4.6888277983732802</v>
+      </c>
+      <c r="L68" s="19">
+        <v>4.2354736963695502E-2</v>
+      </c>
+      <c r="M68" s="19">
+        <v>58.546133147207897</v>
+      </c>
+      <c r="N68" s="19">
+        <v>3.81307362333883E-2</v>
+      </c>
+      <c r="O68" s="19">
+        <v>1.94263506138064E-2</v>
+      </c>
+      <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="3">
-        <v>13463</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="2">
         <v>100</v>
       </c>
       <c r="F69" s="3">
-        <v>50</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G69" s="3">
+        <v>14</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I69" s="3">
-        <v>42</v>
-      </c>
-      <c r="J69" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="J69" s="3">
+        <v>5.3796999999999997</v>
+      </c>
       <c r="K69" s="18">
-        <v>1.2680859933141799</v>
+        <v>3.76198040986064</v>
       </c>
       <c r="L69" s="19">
-        <v>0.14616421362543899</v>
+        <v>3.5131886546129497E-2</v>
       </c>
       <c r="M69" s="19">
-        <v>28.511903687299199</v>
+        <v>42.1346287254948</v>
       </c>
       <c r="N69" s="19">
-        <v>0.13301715525572499</v>
-      </c>
-      <c r="O69" s="19"/>
+        <v>3.1839711844375E-2</v>
+      </c>
+      <c r="O69" s="19">
+        <v>1.50434441822506E-2</v>
+      </c>
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B70" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="3">
-        <v>13463</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="2">
         <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>100</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="G70" s="3">
+        <v>14</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I70" s="3">
-        <v>42</v>
-      </c>
-      <c r="J70" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="J70" s="3">
+        <v>5.3815999999999997</v>
+      </c>
       <c r="K70" s="18">
-        <v>1.12318553010888</v>
+        <v>3.7490946166483901</v>
       </c>
       <c r="L70" s="19">
-        <v>0.14024808260219801</v>
+        <v>3.4733060718235398E-2</v>
       </c>
       <c r="M70" s="19">
-        <v>21.9494725945708</v>
+        <v>44.046071467776798</v>
       </c>
       <c r="N70" s="19">
-        <v>0.12659003502329899</v>
+        <v>3.1557588852523799E-2</v>
       </c>
       <c r="O70" s="19">
-        <v>8.7821689185904397E-2</v>
+        <v>1.4121308543102401E-2</v>
       </c>
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="2">
-        <v>48000</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="3">
-        <v>13463</v>
-      </c>
-      <c r="E71" s="2">
-        <v>100</v>
-      </c>
-      <c r="F71" s="3">
-        <v>200</v>
-      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
-        <v>42</v>
-      </c>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="18">
-        <v>0.99719524449035302</v>
-      </c>
-      <c r="L71" s="19">
-        <v>0.135560354927377</v>
-      </c>
-      <c r="M71" s="19">
-        <v>20.7128063902958</v>
-      </c>
-      <c r="N71" s="19">
-        <v>0.121544301356057</v>
-      </c>
-      <c r="O71" s="19">
-        <v>9.2526590339239004E-2</v>
-      </c>
+      <c r="K71" s="18"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="2">
-        <v>48000</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="3">
-        <v>13463</v>
-      </c>
-      <c r="E72" s="2">
-        <v>100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>400</v>
-      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>42</v>
-      </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="18">
-        <v>1.0867464112812699</v>
-      </c>
-      <c r="L72" s="19">
-        <v>0.13983351264476401</v>
-      </c>
-      <c r="M72" s="19">
-        <v>18.979743834511499</v>
-      </c>
-      <c r="N72" s="19">
-        <v>0.124734426884066</v>
-      </c>
-      <c r="O72" s="19">
-        <v>8.4780461418146394E-2</v>
-      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B73" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="3">
-        <v>13463</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F73" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3">
-        <v>42</v>
-      </c>
+      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="18">
-        <v>1.05958695110418</v>
+        <v>3.4822369638914501</v>
       </c>
       <c r="L73" s="19">
-        <v>0.137825652728641</v>
+        <v>3.3039162166202E-2</v>
       </c>
       <c r="M73" s="19">
-        <v>20.122850769566899</v>
-      </c>
-      <c r="N73" s="19">
-        <v>0.123928959665505</v>
-      </c>
-      <c r="O73" s="19">
-        <v>8.7829006351591493E-2</v>
-      </c>
+        <v>38.929181310867698</v>
+      </c>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="3">
-        <v>13463</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F74" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3">
-        <v>42</v>
-      </c>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="18">
-        <v>1.02581849327672</v>
+        <v>3.4948489288649101</v>
       </c>
       <c r="L74" s="19">
-        <v>0.13621914771003299</v>
+        <v>3.3644492587488403E-2</v>
       </c>
       <c r="M74" s="19">
-        <v>20.7500287533347</v>
+        <v>39.458377616161002</v>
       </c>
       <c r="N74" s="19">
-        <v>0.12232933356511901</v>
+        <v>3.00505847160191E-2</v>
       </c>
       <c r="O74" s="19">
-        <v>9.2456969482916096E-2</v>
+        <v>1.43563269479154E-2</v>
       </c>
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B75" s="2">
-        <v>48000</v>
+        <v>4227</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="3">
-        <v>13463</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F75" s="3">
         <v>200</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="G75" s="3">
+        <v>14</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I75" s="3">
         <v>42</v>
       </c>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3">
+        <v>5.3231000000000002</v>
+      </c>
       <c r="K75" s="18">
-        <v>1.0142830748179701</v>
+        <v>5.40633569574379</v>
       </c>
       <c r="L75" s="19">
-        <v>0.136906633769529</v>
+        <v>4.7543834963823403E-2</v>
       </c>
       <c r="M75" s="19">
-        <v>16.218035257216101</v>
+        <v>77.864039181710595</v>
       </c>
       <c r="N75" s="19">
-        <v>0.122288426862787</v>
+        <v>4.598874E-2</v>
       </c>
       <c r="O75" s="19">
-        <v>8.1100927705568704E-2</v>
+        <v>2.6339886999999999E-2</v>
       </c>
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B76" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>14</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I76" s="3">
+        <v>43</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5.3291000000000004</v>
+      </c>
+      <c r="K76" s="18">
+        <v>4.3779429482645398</v>
+      </c>
+      <c r="L76" s="19">
+        <v>3.9220900000000003E-2</v>
+      </c>
+      <c r="M76" s="19">
+        <v>53.407499999999999</v>
+      </c>
+      <c r="N76" s="19">
+        <v>3.7683399999999999E-2</v>
+      </c>
+      <c r="O76" s="19">
+        <v>1.7714669999999998E-2</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2">
+        <v>100</v>
+      </c>
+      <c r="F77" s="3">
+        <v>200</v>
+      </c>
+      <c r="G77" s="3">
+        <v>14</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" s="3">
+        <v>44</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5.3293999999999997</v>
+      </c>
+      <c r="K77" s="18">
+        <v>3.6071879999999998</v>
+      </c>
+      <c r="L77" s="19">
+        <v>3.3841510612267103E-2</v>
+      </c>
+      <c r="M77" s="19">
+        <v>43.212336000000001</v>
+      </c>
+      <c r="N77" s="19">
+        <v>3.0669129E-2</v>
+      </c>
+      <c r="O77" s="19">
+        <v>1.4138269E-2</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4227</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4">
+        <v>25</v>
+      </c>
+      <c r="F78" s="5">
+        <v>50</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5">
+        <v>42</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="22">
+        <v>3.7265029427634002</v>
+      </c>
+      <c r="L78" s="22">
+        <v>3.43615135073616E-2</v>
+      </c>
+      <c r="M78" s="23">
+        <v>45.614512805679603</v>
+      </c>
+      <c r="N78" s="22">
+        <v>3.1547316617100397E-2</v>
+      </c>
+      <c r="O78" s="22">
+        <v>1.5534556490396E-2</v>
+      </c>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4227</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
+        <v>25</v>
+      </c>
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="6">
+        <v>4227</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6">
+        <v>100</v>
+      </c>
+      <c r="F80" s="7">
+        <v>50</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7">
+        <v>42</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="24">
+        <v>39.8111117321926</v>
+      </c>
+      <c r="L80" s="25">
+        <v>0.295085285407581</v>
+      </c>
+      <c r="M80" s="25">
+        <v>1532.6129417120101</v>
+      </c>
+      <c r="N80" s="25">
+        <v>0.305712224216657</v>
+      </c>
+      <c r="O80" s="25">
+        <v>0.28655775903000102</v>
+      </c>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="6">
+        <v>4227</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6">
+        <v>100</v>
+      </c>
+      <c r="F81" s="7">
+        <v>100</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7">
+        <v>42</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="24">
+        <v>24.7464336651162</v>
+      </c>
+      <c r="L81" s="24">
+        <v>0.19131980000000001</v>
+      </c>
+      <c r="M81" s="25">
+        <v>881.43752107056503</v>
+      </c>
+      <c r="N81" s="24">
+        <v>0.19190260000000001</v>
+      </c>
+      <c r="O81" s="25"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="29">
+        <v>4227</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="29">
+        <v>100</v>
+      </c>
+      <c r="F82" s="30">
+        <v>200</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30">
+        <v>42</v>
+      </c>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+    </row>
+    <row r="84" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+    </row>
+    <row r="85" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="2">
         <v>48000</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="3">
         <v>13463</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E85" s="2">
+        <v>100</v>
+      </c>
+      <c r="F85" s="3">
+        <v>50</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3">
+        <v>42</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="18">
+        <v>1.2680859933141799</v>
+      </c>
+      <c r="L85" s="19">
+        <v>0.14616421362543899</v>
+      </c>
+      <c r="M85" s="19">
+        <v>28.511903687299199</v>
+      </c>
+      <c r="N85" s="19">
+        <v>0.13301715525572499</v>
+      </c>
+      <c r="O85" s="19"/>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E86" s="2">
+        <v>100</v>
+      </c>
+      <c r="F86" s="3">
+        <v>100</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3">
+        <v>42</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="18">
+        <v>1.12318553010888</v>
+      </c>
+      <c r="L86" s="19">
+        <v>0.14024808260219801</v>
+      </c>
+      <c r="M86" s="19">
+        <v>21.9494725945708</v>
+      </c>
+      <c r="N86" s="19">
+        <v>0.12659003502329899</v>
+      </c>
+      <c r="O86" s="19">
+        <v>8.7821689185904397E-2</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E87" s="2">
+        <v>100</v>
+      </c>
+      <c r="F87" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3">
+        <v>42</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="18">
+        <v>0.99719524449035302</v>
+      </c>
+      <c r="L87" s="19">
+        <v>0.135560354927377</v>
+      </c>
+      <c r="M87" s="19">
+        <v>20.7128063902958</v>
+      </c>
+      <c r="N87" s="19">
+        <v>0.121544301356057</v>
+      </c>
+      <c r="O87" s="19">
+        <v>9.2526590339239004E-2</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E88" s="2">
+        <v>100</v>
+      </c>
+      <c r="F88" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3">
-        <v>42</v>
-      </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P76" s="3" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3">
+        <v>42</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="18">
+        <v>1.0867464112812699</v>
+      </c>
+      <c r="L88" s="19">
+        <v>0.13983351264476401</v>
+      </c>
+      <c r="M88" s="19">
+        <v>18.979743834511499</v>
+      </c>
+      <c r="N88" s="19">
+        <v>0.124734426884066</v>
+      </c>
+      <c r="O88" s="19">
+        <v>8.4780461418146394E-2</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E89" s="2">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>50</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3">
+        <v>42</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="18">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="L89" s="19">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="M89" s="19">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="N89" s="19">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="O89" s="19">
+        <v>8.7829006351591493E-2</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E90" s="2">
+        <v>200</v>
+      </c>
+      <c r="F90" s="3">
+        <v>100</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3">
+        <v>42</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="18">
+        <v>1.02581849327672</v>
+      </c>
+      <c r="L90" s="19">
+        <v>0.13621914771003299</v>
+      </c>
+      <c r="M90" s="19">
+        <v>20.7500287533347</v>
+      </c>
+      <c r="N90" s="19">
+        <v>0.12232933356511901</v>
+      </c>
+      <c r="O90" s="19">
+        <v>9.2456969482916096E-2</v>
+      </c>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E91" s="2">
+        <v>200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>200</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3">
+        <v>42</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="18">
+        <v>1.0142830748179701</v>
+      </c>
+      <c r="L91" s="19">
+        <v>0.136906633769529</v>
+      </c>
+      <c r="M91" s="19">
+        <v>16.218035257216101</v>
+      </c>
+      <c r="N91" s="19">
+        <v>0.122288426862787</v>
+      </c>
+      <c r="O91" s="19">
+        <v>8.1100927705568704E-2</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3">
+        <v>13463</v>
+      </c>
+      <c r="E92" s="2">
+        <v>200</v>
+      </c>
+      <c r="F92" s="3">
+        <v>400</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3">
+        <v>42</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="6">
+        <v>48000</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="7">
+        <v>491056</v>
+      </c>
+      <c r="E93" s="6">
+        <v>100</v>
+      </c>
+      <c r="F93" s="7">
+        <v>50</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7">
+        <v>42</v>
+      </c>
+      <c r="J93" s="7"/>
+      <c r="K93" s="24">
+        <v>119.488322681421</v>
+      </c>
+      <c r="L93" s="24">
+        <v>1.4252456851917701</v>
+      </c>
+      <c r="M93" s="25">
+        <v>4772.3886078023397</v>
+      </c>
+      <c r="N93" s="25">
+        <v>11.2135887871412</v>
+      </c>
+      <c r="O93" s="24">
+        <v>3.0093397413643199</v>
+      </c>
+      <c r="P93" s="7"/>
+    </row>
+    <row r="94" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="6">
+        <v>48000</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7">
+        <v>491056</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100</v>
+      </c>
+      <c r="F94" s="7">
+        <v>100</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7">
+        <v>42</v>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" s="24">
+        <v>106.22708353048699</v>
+      </c>
+      <c r="L94" s="25">
+        <v>1.47356738153907</v>
+      </c>
+      <c r="M94" s="25">
+        <v>4241.8667773541902</v>
+      </c>
+      <c r="N94" s="25">
+        <v>9.4582211159614697</v>
+      </c>
+      <c r="O94" s="25">
+        <v>2.7352949638966999</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="47">
+        <v>48000</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="48">
+        <v>491056</v>
+      </c>
+      <c r="E95" s="47">
+        <v>100</v>
+      </c>
+      <c r="F95" s="48">
+        <v>150</v>
+      </c>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="P95" s="48"/>
+    </row>
+    <row r="98" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="41" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="6">
-        <v>48000</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="7">
-        <v>491056</v>
-      </c>
-      <c r="E77" s="6">
-        <v>100</v>
-      </c>
-      <c r="F77" s="7">
-        <v>50</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7">
-        <v>42</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="24">
-        <v>119.488322681421</v>
-      </c>
-      <c r="L77" s="24">
-        <v>1.4252456851917701</v>
-      </c>
-      <c r="M77" s="25">
-        <v>4772.3886078023397</v>
-      </c>
-      <c r="N77" s="25">
-        <v>11.2135887871412</v>
-      </c>
-      <c r="O77" s="24">
-        <v>3.0093397413643199</v>
-      </c>
-      <c r="P77" s="7"/>
-    </row>
-    <row r="78" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="6">
-        <v>48000</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="7">
-        <v>491056</v>
-      </c>
-      <c r="E78" s="6">
-        <v>100</v>
-      </c>
-      <c r="F78" s="7">
-        <v>100</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7">
-        <v>42</v>
-      </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="24">
-        <v>106.22708353048699</v>
-      </c>
-      <c r="L78" s="25">
-        <v>1.47356738153907</v>
-      </c>
-      <c r="M78" s="25">
-        <v>4241.8667773541902</v>
-      </c>
-      <c r="N78" s="25">
-        <v>9.4582211159614697</v>
-      </c>
-      <c r="O78" s="25">
-        <v>2.7352949638966999</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6">
-        <v>48000</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="7">
-        <v>491056</v>
-      </c>
-      <c r="E79" s="6">
-        <v>100</v>
-      </c>
-      <c r="F79" s="7">
-        <v>150</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="P79" s="7"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82">
+      <c r="B98" s="41">
         <v>23000</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C98" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="42">
         <v>13463</v>
       </c>
-      <c r="E82">
-        <v>100</v>
-      </c>
-      <c r="F82" s="1">
-        <v>50</v>
-      </c>
-      <c r="I82" s="1">
-        <v>42</v>
-      </c>
+      <c r="E98" s="41">
+        <v>100</v>
+      </c>
+      <c r="F98" s="42">
+        <v>50</v>
+      </c>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42">
+        <v>42</v>
+      </c>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="P98" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3553,11 +4195,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81841C01-14F2-4752-BEFF-0E0B223C739F}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3572,81 +4214,76 @@
     <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>862</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>30683</v>
@@ -3667,41 +4304,38 @@
         <v>7</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="28">
         <v>0.88936537788412395</v>
       </c>
       <c r="N2" s="28">
-        <v>1.1915171103155701E-3</v>
+        <v>12.056193496287101</v>
       </c>
       <c r="O2" s="28">
-        <v>12.056193496287101</v>
+        <v>0.14220320148680099</v>
       </c>
       <c r="P2" s="28">
-        <v>0.14220320148680099</v>
+        <v>0.17131659113794201</v>
       </c>
       <c r="Q2" s="28">
-        <v>0.17131659113794201</v>
-      </c>
-      <c r="R2" s="28">
         <v>0.112617250917697</v>
       </c>
-      <c r="S2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>862</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>30683</v>
@@ -3722,41 +4356,38 @@
         <v>7</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="28">
         <v>0.84946299059517005</v>
       </c>
       <c r="N3" s="28">
-        <v>1.14340579512654E-3</v>
+        <v>10.565301611994199</v>
       </c>
       <c r="O3" s="28">
-        <v>10.565301611994199</v>
+        <v>0.13616913458261001</v>
       </c>
       <c r="P3" s="28">
-        <v>0.13616913458261001</v>
+        <v>0.16382832301348299</v>
       </c>
       <c r="Q3" s="28">
-        <v>0.16382832301348299</v>
-      </c>
-      <c r="R3" s="28">
         <v>0.10248962363684699</v>
       </c>
-      <c r="S3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>862</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>30683</v>
@@ -3777,41 +4408,38 @@
         <v>7</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="28">
         <v>0.85708568487041603</v>
       </c>
       <c r="N4" s="28">
-        <v>1.14684422943973E-3</v>
+        <v>11.1921050644247</v>
       </c>
       <c r="O4" s="28">
-        <v>11.1921050644247</v>
+        <v>0.13754877448949901</v>
       </c>
       <c r="P4" s="28">
-        <v>0.13754877448949901</v>
+        <v>0.16517953001998201</v>
       </c>
       <c r="Q4" s="28">
-        <v>0.16517953001998201</v>
-      </c>
-      <c r="R4" s="28">
         <v>0.106157875853182</v>
       </c>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>862</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>30683</v>
@@ -3832,42 +4460,39 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="M5" s="14">
         <v>0.85984988290767905</v>
       </c>
       <c r="N5" s="14">
-        <v>1.0618560627400899E-3</v>
+        <v>11.467363191577901</v>
       </c>
       <c r="O5" s="14">
-        <v>11.467363191577901</v>
+        <v>0.13708799650329101</v>
       </c>
       <c r="P5" s="14">
-        <v>0.13708799650329101</v>
+        <v>0.164240320870712</v>
       </c>
       <c r="Q5" s="14">
-        <v>0.164240320870712</v>
-      </c>
-      <c r="R5" s="14">
         <v>0.106211508502489</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>862</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>30683</v>
@@ -3888,39 +4513,36 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="M6" s="14">
         <v>0.83043391632280406</v>
       </c>
       <c r="N6" s="15">
-        <v>1.05065214088194E-3</v>
+        <v>11.234771610285099</v>
       </c>
       <c r="O6" s="15">
-        <v>11.234771610285099</v>
+        <v>0.13292169433456799</v>
       </c>
       <c r="P6" s="15">
-        <v>0.13292169433456799</v>
+        <v>0.15975893594083501</v>
       </c>
       <c r="Q6" s="15">
-        <v>0.15975893594083501</v>
-      </c>
-      <c r="R6" s="15">
         <v>0.104422274001578</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>862</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>30683</v>
@@ -3941,39 +4563,36 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="M7" s="14">
         <v>0.84857504449934995</v>
       </c>
       <c r="N7" s="15">
-        <v>1.0470352314698201E-3</v>
+        <v>11.0099023024096</v>
       </c>
       <c r="O7" s="15">
-        <v>11.0099023024096</v>
+        <v>0.13595650523487801</v>
       </c>
       <c r="P7" s="15">
-        <v>0.13595650523487801</v>
+        <v>0.16285584334123099</v>
       </c>
       <c r="Q7" s="15">
-        <v>0.16285584334123099</v>
-      </c>
-      <c r="R7" s="15">
         <v>0.10522540363196101</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>862</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>30683</v>
@@ -3994,41 +4613,38 @@
         <v>7</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="28">
         <v>0.79779778652111399</v>
       </c>
       <c r="N8" s="28">
-        <v>9.0141148838762404E-4</v>
+        <v>10.121165065568199</v>
       </c>
       <c r="O8" s="28">
-        <v>10.121165065568199</v>
+        <v>0.12880160080986</v>
       </c>
       <c r="P8" s="28">
-        <v>0.12880160080986</v>
+        <v>0.15221145828087801</v>
       </c>
       <c r="Q8" s="28">
-        <v>0.15221145828087801</v>
-      </c>
-      <c r="R8" s="28">
         <v>9.8355971601415598E-2</v>
       </c>
-      <c r="S8" s="27"/>
-    </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>862</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>30683</v>
@@ -4049,41 +4665,38 @@
         <v>7</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="28">
         <v>0.78304190721217704</v>
       </c>
       <c r="N9" s="28">
-        <v>8.91834781503537E-4</v>
+        <v>10.199148544691299</v>
       </c>
       <c r="O9" s="28">
-        <v>10.199148544691299</v>
+        <v>0.12715382721795501</v>
       </c>
       <c r="P9" s="28">
-        <v>0.12715382721795501</v>
+        <v>0.149434735285779</v>
       </c>
       <c r="Q9" s="28">
-        <v>0.149434735285779</v>
-      </c>
-      <c r="R9" s="28">
         <v>9.6812827239189297E-2</v>
       </c>
-      <c r="S9" s="27"/>
-    </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>862</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>30683</v>
@@ -4104,240 +4717,206 @@
         <v>7</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="28">
         <v>0.81619549648116096</v>
       </c>
       <c r="N10" s="28">
-        <v>9.3053650441124295E-4</v>
+        <v>9.9900870315553494</v>
       </c>
       <c r="O10" s="28">
-        <v>9.9900870315553494</v>
+        <v>0.131852177942516</v>
       </c>
       <c r="P10" s="28">
-        <v>0.131852177942516</v>
+        <v>0.15607441185311999</v>
       </c>
       <c r="Q10" s="28">
-        <v>0.15607441185311999</v>
-      </c>
-      <c r="R10" s="28">
         <v>9.83588221841422E-2</v>
       </c>
-      <c r="S10" s="27"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="41">
+        <v>862</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41">
+        <v>42</v>
+      </c>
+      <c r="F11" s="41">
+        <v>25</v>
+      </c>
+      <c r="G11" s="42">
+        <v>50</v>
+      </c>
+      <c r="H11" s="42">
+        <v>28</v>
+      </c>
+      <c r="I11" s="42">
+        <v>7</v>
+      </c>
+      <c r="J11" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="K11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="41">
+        <v>862</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41">
+        <v>43</v>
+      </c>
+      <c r="F12" s="41">
+        <v>25</v>
+      </c>
+      <c r="G12" s="42">
+        <v>50</v>
+      </c>
+      <c r="H12" s="42">
+        <v>28</v>
+      </c>
+      <c r="I12" s="42">
+        <v>7</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="41">
+        <v>862</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41">
+        <v>44</v>
+      </c>
+      <c r="F13" s="41">
+        <v>25</v>
+      </c>
+      <c r="G13" s="42">
+        <v>50</v>
+      </c>
+      <c r="H13" s="42">
+        <v>28</v>
+      </c>
+      <c r="I13" s="42">
+        <v>7</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
         <v>14</v>
-      </c>
-      <c r="I12" s="1">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="15">
-        <v>1.0590886802985799</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1814414.5071892301</v>
-      </c>
-      <c r="O12" s="15">
-        <v>10.0969587297497</v>
-      </c>
-      <c r="P12" s="15">
-        <v>0.120414979100898</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>6.4194485050520694E-2</v>
-      </c>
-      <c r="R12" s="15">
-        <v>3.0946498315951601E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0.86948210155400896</v>
-      </c>
-      <c r="N13" s="15">
-        <v>9663469.7237499598</v>
-      </c>
-      <c r="O13" s="15">
-        <v>11.163399067550399</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0.110295287418847</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>8.96291850634863E-2</v>
-      </c>
-      <c r="R13" s="15">
-        <v>7.3593731918057001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>44</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="15">
-        <v>0.86787689438003301</v>
-      </c>
-      <c r="N14" s="15">
-        <v>8363340.7832876099</v>
-      </c>
-      <c r="O14" s="15">
-        <v>9.9042727025184707</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0.109970935237075</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>8.7013987099651899E-2</v>
-      </c>
-      <c r="R14" s="15">
-        <v>5.9227821472959699E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>19863</v>
-      </c>
-      <c r="E15">
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1">
-        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M15" s="15">
-        <v>0.83419075870286896</v>
+        <v>1.0590886802985799</v>
       </c>
       <c r="N15" s="15">
-        <v>4846164.1244089697</v>
+        <v>10.0969587297497</v>
       </c>
       <c r="O15" s="15">
-        <v>10.815703975</v>
+        <v>0.120414979100898</v>
       </c>
       <c r="P15" s="15">
-        <v>0.10752592026314001</v>
+        <v>6.4194485050520694E-2</v>
       </c>
       <c r="Q15" s="15">
-        <v>7.1300177838820505E-2</v>
-      </c>
-      <c r="R15" s="15">
-        <v>5.2852437024343002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3.0946498315951601E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>19863</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>43</v>
@@ -4349,45 +4928,39 @@
         <v>50</v>
       </c>
       <c r="H16" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1">
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M16" s="15">
-        <v>0.84726409264259295</v>
+        <v>0.86948210155400896</v>
       </c>
       <c r="N16" s="15">
-        <v>4347845.5348242298</v>
+        <v>11.163399067550399</v>
       </c>
       <c r="O16" s="15">
-        <v>10.7053474559947</v>
+        <v>0.110295287418847</v>
       </c>
       <c r="P16" s="15">
-        <v>0.108184258861334</v>
+        <v>8.96291850634863E-2</v>
       </c>
       <c r="Q16" s="15">
-        <v>6.9157370996333206E-2</v>
-      </c>
-      <c r="R16" s="15">
-        <v>5.1092277275688699E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+        <v>7.3593731918057001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>19863</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>44</v>
@@ -4399,42 +4972,39 @@
         <v>50</v>
       </c>
       <c r="H17" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1">
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M17" s="15">
-        <v>0.79669440831159299</v>
+        <v>0.86787689438003301</v>
       </c>
       <c r="N17" s="15">
-        <v>3694232.2760175699</v>
+        <v>9.9042727025184707</v>
       </c>
       <c r="O17" s="15">
-        <v>9.2174688751987599</v>
+        <v>0.109970935237075</v>
       </c>
       <c r="P17" s="15">
-        <v>0.105572916965178</v>
+        <v>8.7013987099651899E-2</v>
       </c>
       <c r="Q17" s="15">
-        <v>6.5199569276809505E-2</v>
-      </c>
-      <c r="R17" s="15">
-        <v>4.2390620979312101E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+        <v>5.9227821472959699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>19863</v>
@@ -4449,42 +5019,39 @@
         <v>50</v>
       </c>
       <c r="H18" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1">
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0.80038244191712404</v>
+        <v>42</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.83419075870286896</v>
       </c>
       <c r="N18" s="15">
-        <v>3454372.2208646899</v>
+        <v>10.815703975</v>
       </c>
       <c r="O18" s="15">
-        <v>10.0155090829626</v>
+        <v>0.10752592026314001</v>
       </c>
       <c r="P18" s="15">
-        <v>0.105287008045341</v>
+        <v>7.1300177838820505E-2</v>
       </c>
       <c r="Q18" s="15">
-        <v>6.3141385710627995E-2</v>
-      </c>
-      <c r="R18" s="15">
-        <v>4.2979536414488401E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+        <v>5.2852437024343002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>19863</v>
@@ -4499,42 +5066,39 @@
         <v>50</v>
       </c>
       <c r="H19" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M19" s="15">
-        <v>0.79325627525355602</v>
+        <v>0.84726409264259295</v>
       </c>
       <c r="N19" s="15">
-        <v>2740475.9727795599</v>
+        <v>10.7053474559947</v>
       </c>
       <c r="O19" s="15">
-        <v>9.7206576334251906</v>
+        <v>0.108184258861334</v>
       </c>
       <c r="P19" s="15">
-        <v>0.10496133224816399</v>
+        <v>6.9157370996333206E-2</v>
       </c>
       <c r="Q19" s="15">
-        <v>5.9014914421637803E-2</v>
-      </c>
-      <c r="R19" s="15">
-        <v>3.7856747294974499E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>5.1092277275688699E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>19863</v>
@@ -4549,192 +5113,177 @@
         <v>50</v>
       </c>
       <c r="H20" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1">
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M20" s="15">
-        <v>0.77547197875461105</v>
+        <v>0.79669440831159299</v>
       </c>
       <c r="N20" s="15">
-        <v>3047465.59604799</v>
+        <v>9.2174688751987599</v>
       </c>
       <c r="O20" s="15">
-        <v>9.1052597460046396</v>
+        <v>0.105572916965178</v>
       </c>
       <c r="P20" s="15">
-        <v>0.10529276768529</v>
+        <v>6.5199569276809505E-2</v>
       </c>
       <c r="Q20" s="15">
-        <v>6.04159170370498E-2</v>
-      </c>
-      <c r="R20" s="15">
-        <v>3.6945452498413398E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>4.2390620979312101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E21">
         <v>42</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
       </c>
       <c r="H21" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="15">
-        <v>1.2391331745657099</v>
+        <v>42</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.80038244191712404</v>
       </c>
       <c r="N21" s="15">
-        <v>5941670.4397198502</v>
+        <v>10.0155090829626</v>
       </c>
       <c r="O21" s="15">
-        <v>41.668678537912498</v>
+        <v>0.105287008045341</v>
       </c>
       <c r="P21" s="15">
-        <v>0.14474497013057999</v>
+        <v>6.3141385710627995E-2</v>
       </c>
       <c r="Q21" s="15">
-        <v>9.0956822491833803E-2</v>
-      </c>
-      <c r="R21" s="15">
-        <v>0.1171239662947</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4.2979536414488401E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E22">
         <v>43</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1">
         <v>50</v>
       </c>
       <c r="H22" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M22" s="15">
-        <v>1.2246919468774999</v>
+        <v>0.79325627525355602</v>
       </c>
       <c r="N22" s="15">
-        <v>6759301.05423305</v>
+        <v>9.7206576334251906</v>
       </c>
       <c r="O22" s="15">
-        <v>43.073853096103001</v>
+        <v>0.10496133224816399</v>
       </c>
       <c r="P22" s="15">
-        <v>0.14196743652895</v>
+        <v>5.9014914421637803E-2</v>
       </c>
       <c r="Q22" s="15">
-        <v>9.3606632272868806E-2</v>
-      </c>
-      <c r="R22" s="15">
-        <v>0.12581174207687601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3.7856747294974499E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>47437</v>
+        <v>19863</v>
       </c>
       <c r="E23">
         <v>44</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1">
         <v>50</v>
       </c>
       <c r="H23" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I23" s="1">
         <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M23" s="15">
-        <v>1.16173745558769</v>
+        <v>0.77547197875461105</v>
       </c>
       <c r="N23" s="15">
-        <v>4443096.5456963899</v>
+        <v>9.1052597460046396</v>
       </c>
       <c r="O23" s="15">
-        <v>41.034461174662397</v>
+        <v>0.10529276768529</v>
       </c>
       <c r="P23" s="15">
-        <v>0.137714178756523</v>
+        <v>6.04159170370498E-2</v>
       </c>
       <c r="Q23" s="15">
-        <v>8.0312013826844095E-2</v>
-      </c>
-      <c r="R23" s="15">
-        <v>0.10819235412599899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3.6945452498413398E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4746,7 +5295,7 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1">
         <v>50</v>
@@ -4758,36 +5307,33 @@
         <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M24" s="15">
-        <v>1.3085522501854301</v>
+        <v>1.2391331745657099</v>
       </c>
       <c r="N24" s="15">
-        <v>12001825.646652199</v>
+        <v>41.668678537912498</v>
       </c>
       <c r="O24" s="15">
-        <v>47.718695448793497</v>
+        <v>0.14474497013057999</v>
       </c>
       <c r="P24" s="15">
-        <v>0.15102608315721699</v>
+        <v>9.0956822491833803E-2</v>
       </c>
       <c r="Q24" s="15">
-        <v>0.117946725215059</v>
-      </c>
-      <c r="R24" s="15">
-        <v>0.18360709935220401</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.1171239662947</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -4799,7 +5345,7 @@
         <v>43</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1">
         <v>50</v>
@@ -4811,33 +5357,30 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M25" s="15">
-        <v>1.2551502602223901</v>
+        <v>1.2246919468774999</v>
       </c>
       <c r="N25" s="15">
-        <v>7707741.0081467601</v>
+        <v>43.073853096103001</v>
       </c>
       <c r="O25" s="15">
-        <v>45.571063660721798</v>
+        <v>0.14196743652895</v>
       </c>
       <c r="P25" s="15">
-        <v>0.14377983684127099</v>
+        <v>9.3606632272868806E-2</v>
       </c>
       <c r="Q25" s="15">
-        <v>9.7574029332455098E-2</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0.13344068611103899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.12581174207687601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -4849,7 +5392,7 @@
         <v>44</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
         <v>50</v>
@@ -4861,33 +5404,30 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M26" s="15">
-        <v>1.1591628075831999</v>
+        <v>1.16173745558769</v>
       </c>
       <c r="N26" s="15">
-        <v>6087412.8583007203</v>
+        <v>41.034461174662397</v>
       </c>
       <c r="O26" s="15">
-        <v>42.002414810494599</v>
+        <v>0.137714178756523</v>
       </c>
       <c r="P26" s="15">
-        <v>0.13609740201189199</v>
+        <v>8.0312013826844095E-2</v>
       </c>
       <c r="Q26" s="15">
-        <v>8.7433503561880593E-2</v>
-      </c>
-      <c r="R26" s="15">
-        <v>0.12803950174179701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.10819235412599899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -4899,48 +5439,45 @@
         <v>42</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1">
         <v>50</v>
       </c>
       <c r="H27" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1">
         <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M27" s="15">
-        <v>1.43294443802534</v>
+        <v>1.3085522501854301</v>
       </c>
       <c r="N27" s="15">
-        <v>4038383.28077331</v>
+        <v>47.718695448793497</v>
       </c>
       <c r="O27" s="15">
-        <v>47.522759114160898</v>
+        <v>0.15102608315721699</v>
       </c>
       <c r="P27" s="15">
-        <v>0.15617359108928799</v>
+        <v>0.117946725215059</v>
       </c>
       <c r="Q27" s="15">
-        <v>8.8084355134814094E-2</v>
-      </c>
-      <c r="R27" s="15">
-        <v>8.99238508912166E-2</v>
-      </c>
-      <c r="S27" s="1" t="s">
+        <v>0.18360709935220401</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -4952,48 +5489,42 @@
         <v>43</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1">
         <v>50</v>
       </c>
       <c r="H28" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1">
         <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M28" s="15">
-        <v>1.37068403441141</v>
+        <v>1.2551502602223901</v>
       </c>
       <c r="N28" s="15">
-        <v>7544336.6732820198</v>
+        <v>45.571063660721798</v>
       </c>
       <c r="O28" s="15">
-        <v>45.147097422076897</v>
+        <v>0.14377983684127099</v>
       </c>
       <c r="P28" s="15">
-        <v>0.152123549623223</v>
+        <v>9.7574029332455098E-2</v>
       </c>
       <c r="Q28" s="15">
-        <v>0.103107159205456</v>
-      </c>
-      <c r="R28" s="15">
-        <v>0.12852060856410399</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.13344068611103899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -5005,48 +5536,42 @@
         <v>44</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1">
         <v>50</v>
       </c>
       <c r="H29" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1">
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M29" s="15">
-        <v>1.8370979795408799</v>
+        <v>1.1591628075831999</v>
       </c>
       <c r="N29" s="15">
-        <v>22614602.2125591</v>
+        <v>42.002414810494599</v>
       </c>
       <c r="O29" s="15">
-        <v>65.551152728490706</v>
+        <v>0.13609740201189199</v>
       </c>
       <c r="P29" s="15">
-        <v>0.18916757498450501</v>
+        <v>8.7433503561880593E-2</v>
       </c>
       <c r="Q29" s="15">
-        <v>0.159005665913556</v>
-      </c>
-      <c r="R29" s="15">
-        <v>0.21209374706150499</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+        <v>0.12803950174179701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -5064,42 +5589,39 @@
         <v>50</v>
       </c>
       <c r="H30" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I30" s="1">
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M30" s="15">
-        <v>1.40424513545234</v>
+        <v>1.43294443802534</v>
       </c>
       <c r="N30" s="15">
-        <v>5391838.2350399401</v>
+        <v>47.522759114160898</v>
       </c>
       <c r="O30" s="15">
-        <v>45.0325841433311</v>
+        <v>0.15617359108928799</v>
       </c>
       <c r="P30" s="15">
-        <v>0.15594551324453501</v>
+        <v>8.8084355134814094E-2</v>
       </c>
       <c r="Q30" s="15">
-        <v>9.2863293125452495E-2</v>
-      </c>
-      <c r="R30" s="15">
-        <v>0.10541861298763899</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+        <v>8.99238508912166E-2</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -5108,7 +5630,7 @@
         <v>47437</v>
       </c>
       <c r="E31">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -5117,42 +5639,39 @@
         <v>50</v>
       </c>
       <c r="H31" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I31" s="1">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M31" s="15">
-        <v>1.3968240245629</v>
+        <v>1.37068403441141</v>
       </c>
       <c r="N31" s="15">
-        <v>8772428.2898527198</v>
+        <v>45.147097422076897</v>
       </c>
       <c r="O31" s="15">
-        <v>44.343473044672201</v>
+        <v>0.152123549623223</v>
       </c>
       <c r="P31" s="15">
-        <v>0.15266464800548901</v>
+        <v>0.103107159205456</v>
       </c>
       <c r="Q31" s="15">
-        <v>0.10873459120011</v>
-      </c>
-      <c r="R31" s="15">
-        <v>0.14106791904426899</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.12852060856410399</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -5161,7 +5680,7 @@
         <v>47437</v>
       </c>
       <c r="E32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -5170,42 +5689,39 @@
         <v>50</v>
       </c>
       <c r="H32" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M32" s="15">
-        <v>1.53068941620192</v>
+        <v>1.8370979795408799</v>
       </c>
       <c r="N32" s="15">
-        <v>10884091.4645351</v>
+        <v>65.551152728490706</v>
       </c>
       <c r="O32" s="15">
-        <v>45.653923319839699</v>
+        <v>0.18916757498450501</v>
       </c>
       <c r="P32" s="15">
-        <v>0.17440079334261699</v>
+        <v>0.159005665913556</v>
       </c>
       <c r="Q32" s="15">
-        <v>0.118815261375925</v>
-      </c>
-      <c r="R32" s="15">
-        <v>0.148819322628121</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.21209374706150499</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -5222,43 +5738,40 @@
       <c r="G33" s="1">
         <v>50</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>24</v>
+      <c r="H33" s="1">
+        <v>28</v>
       </c>
       <c r="I33" s="1">
         <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M33" s="15">
-        <v>0.96366146465587199</v>
+        <v>1.40424513545234</v>
       </c>
       <c r="N33" s="15">
-        <v>4559304.3229776397</v>
+        <v>45.0325841433311</v>
       </c>
       <c r="O33" s="15">
-        <v>11.7982207671586</v>
+        <v>0.15594551324453501</v>
       </c>
       <c r="P33" s="15">
-        <v>0.13122598570348901</v>
+        <v>9.2863293125452495E-2</v>
       </c>
       <c r="Q33" s="15">
-        <v>7.3568422773155506E-2</v>
-      </c>
-      <c r="R33" s="15">
-        <v>4.9285672437264498E-2</v>
-      </c>
-      <c r="S33" s="1" t="s">
+        <v>0.10541861298763899</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -5267,7 +5780,7 @@
         <v>47437</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34">
         <v>25</v>
@@ -5275,43 +5788,40 @@
       <c r="G34" s="1">
         <v>50</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>24</v>
+      <c r="H34" s="1">
+        <v>28</v>
       </c>
       <c r="I34" s="1">
         <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="1">
-        <v>-1.2010000000000001</v>
+        <v>42</v>
       </c>
       <c r="M34" s="15">
-        <v>0.93256063121999999</v>
+        <v>1.3968240245629</v>
       </c>
       <c r="N34" s="15">
-        <v>4727503.6513</v>
+        <v>44.343473044672201</v>
       </c>
       <c r="O34" s="15">
-        <v>12.4512</v>
+        <v>0.15266464800548901</v>
       </c>
       <c r="P34" s="15">
-        <v>0.1295</v>
+        <v>0.10873459120011</v>
       </c>
       <c r="Q34" s="15">
-        <v>7.0601778500000004E-2</v>
-      </c>
-      <c r="R34" s="15">
-        <v>4.9718166899999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.14106791904426899</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -5320,7 +5830,7 @@
         <v>47437</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35">
         <v>25</v>
@@ -5328,322 +5838,772 @@
       <c r="G35" s="1">
         <v>50</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>24</v>
+      <c r="H35" s="1">
+        <v>28</v>
       </c>
       <c r="I35" s="1">
         <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="M35" s="15">
+        <v>1.53068941620192</v>
+      </c>
+      <c r="N35" s="15">
+        <v>45.653923319839699</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0.17440079334261699</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0.118815261375925</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0.148819322628121</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>47437</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0.96366146465587199</v>
+      </c>
+      <c r="N36" s="15">
+        <v>11.7982207671586</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0.13122598570348901</v>
+      </c>
+      <c r="P36" s="15">
+        <v>7.3568422773155506E-2</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>4.9285672437264498E-2</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37">
+        <v>47437</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-1.2010000000000001</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0.93256063121999999</v>
+      </c>
+      <c r="N37" s="15">
+        <v>12.4512</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0.1295</v>
+      </c>
+      <c r="P37" s="15">
+        <v>7.0601778500000004E-2</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>4.9718166899999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="51">
+        <v>47437</v>
+      </c>
+      <c r="E38" s="51">
+        <v>44</v>
+      </c>
+      <c r="F38" s="51">
+        <v>25</v>
+      </c>
+      <c r="G38" s="52">
+        <v>50</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="52">
+        <v>7</v>
+      </c>
+      <c r="J38" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="52">
+        <v>-1.19</v>
+      </c>
+      <c r="M38" s="53">
+        <v>0.95004999999999995</v>
+      </c>
+      <c r="N38" s="53">
+        <v>12.21768</v>
+      </c>
+      <c r="O38" s="53">
+        <v>0.12685070000000001</v>
+      </c>
+      <c r="P38" s="53">
+        <v>7.3889999999999997E-2</v>
+      </c>
+      <c r="Q38" s="53">
+        <v>5.5218999999999997E-2</v>
+      </c>
+      <c r="R38" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
         <v>21723</v>
       </c>
-      <c r="E37">
-        <v>42</v>
-      </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-      <c r="G37" s="1">
-        <v>50</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="E40">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
         <v>48</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I40" s="1">
         <v>48</v>
       </c>
-      <c r="J37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" s="15">
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="15">
         <v>1.33949444468741</v>
       </c>
-      <c r="N37" s="15">
-        <v>4183684.9223651001</v>
-      </c>
-      <c r="O37" s="15">
+      <c r="N40" s="15">
         <v>21.7360339597105</v>
       </c>
-      <c r="P37" s="15">
+      <c r="O40" s="15">
         <v>0.113995292100149</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="P40" s="15">
         <v>4.8259866736034197E-2</v>
       </c>
-      <c r="R37" s="15">
+      <c r="Q40" s="15">
         <v>3.1924357692853303E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
         <v>21723</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>43</v>
       </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38" s="1">
-        <v>50</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1">
         <v>48</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I41" s="1">
         <v>48</v>
       </c>
-      <c r="J38" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" s="15">
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="15">
         <v>1.4937566648694101</v>
       </c>
-      <c r="N38" s="15">
-        <v>7387000.3364083497</v>
-      </c>
-      <c r="O38" s="15">
+      <c r="N41" s="15">
         <v>27.8690670554127</v>
       </c>
-      <c r="P38" s="15">
+      <c r="O41" s="15">
         <v>0.125760159131317</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="P41" s="15">
         <v>6.4116617488500199E-2</v>
       </c>
-      <c r="R38" s="15">
+      <c r="Q41" s="15">
         <v>1.0240031268083201</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
         <v>21723</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>44</v>
       </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39" s="1">
-        <v>50</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1">
         <v>48</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I42" s="1">
         <v>48</v>
       </c>
-      <c r="J39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" s="15">
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="15">
         <v>2.1626611472158301</v>
       </c>
-      <c r="N39" s="15">
-        <v>51197135.181636602</v>
-      </c>
-      <c r="O39" s="15">
+      <c r="N42" s="15">
         <v>47.482280539307197</v>
       </c>
-      <c r="P39" s="15">
+      <c r="O42" s="15">
         <v>0.142073465022688</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="P42" s="15">
         <v>0.13483371537754801</v>
       </c>
-      <c r="R39" s="15">
+      <c r="Q42" s="15">
         <v>0.18224809686688601</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>42</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41" s="1">
-        <v>50</v>
-      </c>
-      <c r="H41" s="1">
+    <row r="43" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="51">
+        <v>42</v>
+      </c>
+      <c r="F43" s="51">
+        <v>25</v>
+      </c>
+      <c r="G43" s="52">
+        <v>50</v>
+      </c>
+      <c r="H43" s="52">
+        <v>48</v>
+      </c>
+      <c r="I43" s="52">
+        <v>48</v>
+      </c>
+      <c r="J43" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="52">
+        <v>-2.1391</v>
+      </c>
+      <c r="M43" s="53">
+        <v>5.2859148600000001</v>
+      </c>
+      <c r="N43" s="53">
+        <v>106.6797</v>
+      </c>
+      <c r="O43" s="53">
+        <v>0.20337326098</v>
+      </c>
+      <c r="P43" s="53">
+        <v>6.7535999999999999E-2</v>
+      </c>
+      <c r="Q43" s="53">
+        <v>8.7957999999999995E-2</v>
+      </c>
+      <c r="R43" s="52"/>
+    </row>
+    <row r="44" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="51">
+        <v>43</v>
+      </c>
+      <c r="F44" s="51">
+        <v>25</v>
+      </c>
+      <c r="G44" s="52">
+        <v>50</v>
+      </c>
+      <c r="H44" s="52">
+        <v>48</v>
+      </c>
+      <c r="I44" s="52">
+        <v>48</v>
+      </c>
+      <c r="J44" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="52">
+        <v>-2.1585000000000001</v>
+      </c>
+      <c r="M44" s="53">
+        <v>27.793348000000002</v>
+      </c>
+      <c r="N44" s="53">
+        <v>248.154777525995</v>
+      </c>
+      <c r="O44" s="53">
+        <v>0.48663820000000002</v>
+      </c>
+      <c r="P44" s="53">
+        <v>9.5855075562849501E-2</v>
+      </c>
+      <c r="Q44" s="53">
+        <v>7.9367781726232295E-2</v>
+      </c>
+      <c r="R44" s="52"/>
+    </row>
+    <row r="45" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="51">
+        <v>44</v>
+      </c>
+      <c r="F45" s="51">
+        <v>25</v>
+      </c>
+      <c r="G45" s="52">
+        <v>50</v>
+      </c>
+      <c r="H45" s="52">
+        <v>48</v>
+      </c>
+      <c r="I45" s="52">
+        <v>48</v>
+      </c>
+      <c r="J45" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="52">
+        <v>-2.1217999999999999</v>
+      </c>
+      <c r="M45" s="53">
+        <v>13.364979999999999</v>
+      </c>
+      <c r="N45" s="53">
+        <v>102.98322875229999</v>
+      </c>
+      <c r="O45" s="53">
+        <v>0.35098499999999999</v>
+      </c>
+      <c r="P45" s="53">
+        <v>0.183749</v>
+      </c>
+      <c r="Q45" s="53">
+        <v>7.4605900000000003E-2</v>
+      </c>
+      <c r="R45" s="52"/>
+    </row>
+    <row r="46" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="52"/>
+    </row>
+    <row r="47" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="52"/>
+    </row>
+    <row r="48" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="52"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1">
+        <v>50</v>
+      </c>
+      <c r="H50" s="1">
         <v>13</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I50" s="1">
         <v>13</v>
       </c>
-      <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="14">
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="14">
         <v>2.6304692301581398</v>
       </c>
-      <c r="N41" s="14">
-        <v>463435.92852001399</v>
-      </c>
-      <c r="O41" s="14">
+      <c r="N50" s="14">
         <v>25.399000777691601</v>
       </c>
-      <c r="P41" s="14">
+      <c r="O50" s="14">
         <v>9.5237163592344506E-2</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="P50" s="14">
         <v>6.6834473706314595E-2</v>
       </c>
-      <c r="R41" s="14">
+      <c r="Q50" s="14">
         <v>3.1033780551203899E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
         <v>43</v>
       </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42" s="1">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1">
+        <v>50</v>
+      </c>
+      <c r="H51" s="1">
         <v>13</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I51" s="1">
         <v>13</v>
       </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="14">
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="14">
         <v>2.57307024566451</v>
       </c>
-      <c r="N42" s="14">
-        <v>444685.53919288702</v>
-      </c>
-      <c r="O42" s="14">
+      <c r="N51" s="14">
         <v>26.296752463540301</v>
       </c>
-      <c r="P42" s="14">
+      <c r="O51" s="14">
         <v>8.9079988231562601E-2</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="P51" s="14">
         <v>6.4319145588598498E-2</v>
       </c>
-      <c r="R42" s="14">
+      <c r="Q51" s="14">
         <v>2.8232938278205E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52">
         <v>44</v>
       </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" s="1">
-        <v>50</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" s="1">
+        <v>50</v>
+      </c>
+      <c r="H52" s="1">
         <v>13</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I52" s="1">
         <v>13</v>
       </c>
-      <c r="J43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43" s="14">
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="14">
         <v>2.5439506552498101</v>
       </c>
-      <c r="N43" s="14">
-        <v>430494.41801636602</v>
-      </c>
-      <c r="O43" s="14">
+      <c r="N52" s="14">
         <v>25.791707013299</v>
       </c>
-      <c r="P43" s="14">
+      <c r="O52" s="14">
         <v>8.94737436635588E-2</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="P52" s="14">
         <v>6.3396904019689698E-2</v>
       </c>
-      <c r="R43" s="14">
+      <c r="Q52" s="14">
         <v>2.98783065273443E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="41">
+        <v>42</v>
+      </c>
+      <c r="F53" s="41">
+        <v>25</v>
+      </c>
+      <c r="G53" s="42">
+        <v>50</v>
+      </c>
+      <c r="H53" s="42">
+        <v>13</v>
+      </c>
+      <c r="I53" s="42">
+        <v>13</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="42"/>
+      <c r="R53" s="42"/>
+    </row>
+    <row r="54" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="41">
+        <v>43</v>
+      </c>
+      <c r="F54" s="41">
+        <v>25</v>
+      </c>
+      <c r="G54" s="42">
+        <v>50</v>
+      </c>
+      <c r="H54" s="42">
+        <v>13</v>
+      </c>
+      <c r="I54" s="42">
+        <v>13</v>
+      </c>
+      <c r="J54" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="42"/>
+      <c r="R54" s="42"/>
+    </row>
+    <row r="55" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="41">
+        <v>44</v>
+      </c>
+      <c r="F55" s="41">
+        <v>25</v>
+      </c>
+      <c r="G55" s="42">
+        <v>50</v>
+      </c>
+      <c r="H55" s="42">
+        <v>13</v>
+      </c>
+      <c r="I55" s="42">
+        <v>13</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="42"/>
+      <c r="R55" s="42"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41">
+        <v>44</v>
+      </c>
+      <c r="F56" s="41">
+        <v>25</v>
+      </c>
+      <c r="G56" s="42">
+        <v>50</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42">
+        <v>13</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233ED495-0ED4-4FD8-B1B3-07C7D5F057B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B5669C-57F6-418B-A177-01EAFD19715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="173">
   <si>
     <t>Algorithm</t>
   </si>
@@ -429,6 +429,126 @@
   </si>
   <si>
     <t>2.1920 (299)</t>
+  </si>
+  <si>
+    <t>2.2826 (366)</t>
+  </si>
+  <si>
+    <t>2.1495 (283)</t>
+  </si>
+  <si>
+    <t>batches</t>
+  </si>
+  <si>
+    <t>training/ prediction range</t>
+  </si>
+  <si>
+    <t>use feat static</t>
+  </si>
+  <si>
+    <t>Final training loss</t>
+  </si>
+  <si>
+    <t>w50QLoss</t>
+  </si>
+  <si>
+    <t>w90QLoss</t>
+  </si>
+  <si>
+    <t>44254.4273 (94)</t>
+  </si>
+  <si>
+    <t>11242.94591 (99)</t>
+  </si>
+  <si>
+    <t>18048.4417292 (98)</t>
+  </si>
+  <si>
+    <t>26468.6471 (144)</t>
+  </si>
+  <si>
+    <t>3002.1730 (137)</t>
+  </si>
+  <si>
+    <t>2009.2822 (139)</t>
+  </si>
+  <si>
+    <t>22578.8508 (199)</t>
+  </si>
+  <si>
+    <t>2256.8113 (199)</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>860.3205 (199)</t>
+  </si>
+  <si>
+    <t>31min</t>
+  </si>
+  <si>
+    <t>20338.1984 (248)</t>
+  </si>
+  <si>
+    <t>38min</t>
+  </si>
+  <si>
+    <t>1824.8130 (248)</t>
+  </si>
+  <si>
+    <t>39min</t>
+  </si>
+  <si>
+    <t>688.4422 (248)</t>
+  </si>
+  <si>
+    <t>1700.186831563 (497)</t>
+  </si>
+  <si>
+    <t>1h16min</t>
+  </si>
+  <si>
+    <t>616.2295 (496)</t>
+  </si>
+  <si>
+    <t>1h17min</t>
+  </si>
+  <si>
+    <t>342.5092 (497)</t>
+  </si>
+  <si>
+    <t>1h14min</t>
+  </si>
+  <si>
+    <t>68324.1068 (88)</t>
+  </si>
+  <si>
+    <t>layers=(2,2)</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>27min</t>
+  </si>
+  <si>
+    <t>32959.7792 (136)</t>
+  </si>
+  <si>
+    <t>41min</t>
+  </si>
+  <si>
+    <t>42528.9749 (199)</t>
+  </si>
+  <si>
+    <t>56min</t>
+  </si>
+  <si>
+    <t>27726.3964 (248)</t>
+  </si>
+  <si>
+    <t>4131.0536 (288)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,6 +772,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -932,21 +1060,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1F683-F06B-4E20-80D1-BE6D024EC21F}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -972,31 +1105,34 @@
         <v>40</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1017,20 +1153,21 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="14">
+      <c r="K2" s="3"/>
+      <c r="L2" s="14">
         <v>2.2608650663714398</v>
       </c>
-      <c r="L2" s="15">
+      <c r="M2" s="15">
         <v>28.196347731740801</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="15">
         <v>0.14185608409783801</v>
       </c>
-      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="F3" s="3"/>
@@ -1038,14 +1175,15 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="F4" s="3"/>
@@ -1053,14 +1191,15 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -1068,14 +1207,15 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
@@ -1096,20 +1236,21 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="35">
+      <c r="K6" s="34"/>
+      <c r="L6" s="35">
         <v>1.44666660175531</v>
       </c>
-      <c r="L6" s="36">
+      <c r="M6" s="36">
         <v>16.642986874988399</v>
       </c>
-      <c r="M6" s="36">
+      <c r="N6" s="36">
         <v>0.1298174584541</v>
       </c>
-      <c r="N6" s="36"/>
       <c r="O6" s="36"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1128,24 +1269,25 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>42</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="14">
+      <c r="K7" s="3"/>
+      <c r="L7" s="14">
         <v>1.7621786881972099</v>
       </c>
-      <c r="L7" s="15">
+      <c r="M7" s="15">
         <v>24.567364629029498</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
         <v>0.136582885212886</v>
       </c>
-      <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1166,20 +1308,21 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="14">
+      <c r="K8" s="3"/>
+      <c r="L8" s="14">
         <v>2.1688713732443401</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <v>30.985507904866601</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="15">
         <v>0.13595743149248801</v>
       </c>
-      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1200,28 +1343,29 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="14">
+      <c r="K9" s="3"/>
+      <c r="L9" s="14">
         <v>1.3722961783182199</v>
       </c>
-      <c r="L9" s="15">
+      <c r="M9" s="15">
         <v>24.437912268592498</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>0.114591133679717</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="15">
         <v>6.6035595238716396E-2</v>
       </c>
-      <c r="O9" s="15">
+      <c r="P9" s="15">
         <v>2.7685366126353701E-2</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1242,30 +1386,31 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>42</v>
       </c>
-      <c r="I10" s="3">
-        <v>42</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="14">
+      <c r="K10" s="3"/>
+      <c r="L10" s="14">
         <v>1.33949444468741</v>
       </c>
-      <c r="L10" s="15">
+      <c r="M10" s="15">
         <v>21.7360339597105</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="15">
         <v>0.113995292100149</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <v>4.8259866736034197E-2</v>
       </c>
-      <c r="O10" s="15">
+      <c r="P10" s="15">
         <v>3.1924357692853303E-2</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1286,30 +1431,31 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>43</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="14">
+      <c r="K11" s="3"/>
+      <c r="L11" s="14">
         <v>1.4937566658690999</v>
       </c>
-      <c r="L11" s="15">
+      <c r="M11" s="15">
         <v>27.8690670554127</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="15">
         <v>0.12576014591313101</v>
       </c>
-      <c r="N11" s="14">
+      <c r="O11" s="14">
         <v>6.4116617488500201E-3</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="14">
         <v>2.4003126083275102E-2</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1330,30 +1476,31 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>44</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="14">
+      <c r="K12" s="3"/>
+      <c r="L12" s="14">
         <v>2.1626611472158301</v>
       </c>
-      <c r="L12" s="15">
+      <c r="M12" s="15">
         <v>47.482280539307197</v>
       </c>
-      <c r="M12" s="15">
+      <c r="N12" s="15">
         <v>0.142073465022688</v>
       </c>
-      <c r="N12" s="15">
+      <c r="O12" s="15">
         <v>0.13483371537754801</v>
       </c>
-      <c r="O12" s="15">
+      <c r="P12" s="15">
         <v>0.18224809686688601</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58" t="s">
         <v>16</v>
       </c>
@@ -1376,30 +1523,31 @@
       <c r="H13" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59">
         <v>42</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="K13" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="60">
+      <c r="L13" s="60">
         <v>1.49276655</v>
       </c>
-      <c r="L13" s="61">
+      <c r="M13" s="61">
         <v>30.277210289999999</v>
       </c>
-      <c r="M13" s="61">
+      <c r="N13" s="61">
         <v>0.11322310612</v>
       </c>
-      <c r="N13" s="61">
+      <c r="O13" s="61">
         <v>4.9931821835000001E-2</v>
       </c>
-      <c r="O13" s="61">
+      <c r="P13" s="61">
         <v>3.0418351361999999E-2</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="59"/>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
         <v>16</v>
       </c>
@@ -1422,30 +1570,31 @@
       <c r="H14" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="59"/>
+      <c r="J14" s="59">
         <v>43</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="K14" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="60">
+      <c r="L14" s="60">
         <v>1.5034351163749999</v>
       </c>
-      <c r="L14" s="61">
+      <c r="M14" s="61">
         <v>28.908985919999999</v>
       </c>
-      <c r="M14" s="61">
+      <c r="N14" s="61">
         <v>0.12596107578900001</v>
       </c>
-      <c r="N14" s="61">
+      <c r="O14" s="61">
         <v>6.09939158E-2</v>
       </c>
-      <c r="O14" s="61">
+      <c r="P14" s="61">
         <v>2.36980818E-2</v>
       </c>
-      <c r="P14" s="59"/>
-    </row>
-    <row r="15" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="59"/>
+    </row>
+    <row r="15" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58" t="s">
         <v>16</v>
       </c>
@@ -1468,30 +1617,31 @@
       <c r="H15" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59">
         <v>44</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="K15" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="60">
+      <c r="L15" s="60">
         <v>1.5602193</v>
       </c>
-      <c r="L15" s="61">
+      <c r="M15" s="61">
         <v>34.269888151810001</v>
       </c>
-      <c r="M15" s="61">
+      <c r="N15" s="61">
         <v>0.13526352999999999</v>
       </c>
-      <c r="N15" s="61">
+      <c r="O15" s="61">
         <v>0.13921045300000001</v>
       </c>
-      <c r="O15" s="61">
+      <c r="P15" s="61">
         <v>0.19799692999999999</v>
       </c>
-      <c r="P15" s="59"/>
-    </row>
-    <row r="16" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="59"/>
+    </row>
+    <row r="16" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>16</v>
       </c>
@@ -1514,30 +1664,31 @@
       <c r="H16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="59"/>
+      <c r="J16" s="59">
         <v>42</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="K16" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="60">
+      <c r="L16" s="60">
         <v>1.3969220821999999</v>
       </c>
-      <c r="L16" s="61">
+      <c r="M16" s="61">
         <v>27.981724400000001</v>
       </c>
-      <c r="M16" s="61">
+      <c r="N16" s="61">
         <v>0.111900554927</v>
       </c>
-      <c r="N16" s="61">
+      <c r="O16" s="61">
         <v>5.0207332389999998E-2</v>
       </c>
-      <c r="O16" s="61">
+      <c r="P16" s="61">
         <v>3.0709150000000001E-2</v>
       </c>
-      <c r="P16" s="59"/>
-    </row>
-    <row r="17" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="59"/>
+    </row>
+    <row r="17" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58" t="s">
         <v>16</v>
       </c>
@@ -1560,30 +1711,31 @@
       <c r="H17" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="59"/>
+      <c r="J17" s="59">
         <v>43</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="K17" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="60">
+      <c r="L17" s="60">
         <v>1.4291122602699999</v>
       </c>
-      <c r="L17" s="61">
+      <c r="M17" s="61">
         <v>27.870253036779999</v>
       </c>
-      <c r="M17" s="61">
+      <c r="N17" s="61">
         <v>0.12589958700000001</v>
       </c>
-      <c r="N17" s="61">
+      <c r="O17" s="61">
         <v>7.6945933999999994E-2</v>
       </c>
-      <c r="O17" s="61">
+      <c r="P17" s="61">
         <v>2.5308649999999999E-2</v>
       </c>
-      <c r="P17" s="59"/>
-    </row>
-    <row r="18" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="59"/>
+    </row>
+    <row r="18" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
         <v>16</v>
       </c>
@@ -1606,30 +1758,31 @@
       <c r="H18" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="59"/>
+      <c r="J18" s="59">
         <v>44</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="K18" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="60">
+      <c r="L18" s="60">
         <v>1.5605943</v>
       </c>
-      <c r="L18" s="61">
+      <c r="M18" s="61">
         <v>35.226810027699997</v>
       </c>
-      <c r="M18" s="61">
+      <c r="N18" s="61">
         <v>0.13552497799999999</v>
       </c>
-      <c r="N18" s="61">
+      <c r="O18" s="61">
         <v>0.14334861600000001</v>
       </c>
-      <c r="O18" s="61">
+      <c r="P18" s="61">
         <v>0.20880326099999999</v>
       </c>
-      <c r="P18" s="59"/>
-    </row>
-    <row r="19" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="59"/>
+    </row>
+    <row r="19" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
         <v>16</v>
       </c>
@@ -1652,30 +1805,31 @@
       <c r="H19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="59"/>
+      <c r="J19" s="59">
         <v>42</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="K19" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="60">
+      <c r="L19" s="60">
         <v>1.3963500959999999</v>
       </c>
-      <c r="L19" s="61">
+      <c r="M19" s="61">
         <v>27.944284639999999</v>
       </c>
-      <c r="M19" s="61">
+      <c r="N19" s="61">
         <v>0.11220346755000001</v>
       </c>
-      <c r="N19" s="61">
+      <c r="O19" s="61">
         <v>5.0293409999999997E-2</v>
       </c>
-      <c r="O19" s="61">
+      <c r="P19" s="61">
         <v>3.07888542192464E-2</v>
       </c>
-      <c r="P19" s="59"/>
-    </row>
-    <row r="20" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="59"/>
+    </row>
+    <row r="20" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="58" t="s">
         <v>16</v>
       </c>
@@ -1698,30 +1852,31 @@
       <c r="H20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="59"/>
+      <c r="J20" s="59">
         <v>43</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="K20" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="60">
+      <c r="L20" s="60">
         <v>1.4277366968</v>
       </c>
-      <c r="L20" s="61">
+      <c r="M20" s="61">
         <v>27.732527999999999</v>
       </c>
-      <c r="M20" s="61">
+      <c r="N20" s="61">
         <v>0.12604470000000001</v>
       </c>
-      <c r="N20" s="61">
+      <c r="O20" s="61">
         <v>7.7052103699999999E-2</v>
       </c>
-      <c r="O20" s="61">
+      <c r="P20" s="61">
         <v>2.5300769588799999E-2</v>
       </c>
-      <c r="P20" s="59"/>
-    </row>
-    <row r="21" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="59"/>
+    </row>
+    <row r="21" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58" t="s">
         <v>16</v>
       </c>
@@ -1744,30 +1899,31 @@
       <c r="H21" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59">
         <v>44</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="K21" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="60">
+      <c r="L21" s="60">
         <v>1.56050280405</v>
       </c>
-      <c r="L21" s="61">
+      <c r="M21" s="61">
         <v>35.201096</v>
       </c>
-      <c r="M21" s="61">
+      <c r="N21" s="61">
         <v>0.13568655512800001</v>
       </c>
-      <c r="N21" s="61">
+      <c r="O21" s="61">
         <v>0.143266808</v>
       </c>
-      <c r="O21" s="61">
+      <c r="P21" s="61">
         <v>0.20868989099999999</v>
       </c>
-      <c r="P21" s="59"/>
-    </row>
-    <row r="22" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="59"/>
+    </row>
+    <row r="22" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58" t="s">
         <v>16</v>
       </c>
@@ -1790,30 +1946,31 @@
       <c r="H22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="59"/>
+      <c r="J22" s="59">
         <v>42</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="K22" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="60">
+      <c r="L22" s="60">
         <v>1.3396147432100001</v>
       </c>
-      <c r="L22" s="61">
+      <c r="M22" s="61">
         <v>26.626775760000001</v>
       </c>
-      <c r="M22" s="61">
+      <c r="N22" s="61">
         <v>0.109289781788</v>
       </c>
-      <c r="N22" s="61">
+      <c r="O22" s="61">
         <v>4.70859E-2</v>
       </c>
-      <c r="O22" s="61">
+      <c r="P22" s="61">
         <v>3.8158069000000003E-2</v>
       </c>
-      <c r="P22" s="59"/>
-    </row>
-    <row r="23" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="59"/>
+    </row>
+    <row r="23" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58" t="s">
         <v>16</v>
       </c>
@@ -1836,18 +1993,31 @@
       <c r="H23" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="59"/>
+      <c r="J23" s="59">
         <v>43</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="59"/>
-    </row>
-    <row r="24" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="60">
+        <v>1.49647760312</v>
+      </c>
+      <c r="M23" s="61">
+        <v>31.595236</v>
+      </c>
+      <c r="N23" s="61">
+        <v>0.123154059944571</v>
+      </c>
+      <c r="O23" s="61">
+        <v>7.3616584994262005E-2</v>
+      </c>
+      <c r="P23" s="61">
+        <v>2.53254359900911E-2</v>
+      </c>
+      <c r="Q23" s="59"/>
+    </row>
+    <row r="24" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58" t="s">
         <v>16</v>
       </c>
@@ -1870,18 +2040,31 @@
       <c r="H24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="59"/>
+      <c r="J24" s="59">
         <v>44</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="59"/>
-    </row>
-    <row r="25" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="60">
+        <v>1.5429747353900001</v>
+      </c>
+      <c r="M24" s="61">
+        <v>35.371482</v>
+      </c>
+      <c r="N24" s="61">
+        <v>0.13219809499999999</v>
+      </c>
+      <c r="O24" s="61">
+        <v>0.14453732799999999</v>
+      </c>
+      <c r="P24" s="61">
+        <v>0.20880617728</v>
+      </c>
+      <c r="Q24" s="59"/>
+    </row>
+    <row r="25" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="F25" s="59"/>
@@ -1889,65 +2072,99 @@
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
-      <c r="P25" s="59"/>
-    </row>
-    <row r="26" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="59"/>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="59"/>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B26" s="4">
         <v>414</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4">
+      <c r="D26" s="5"/>
+      <c r="E26" s="4">
         <v>25</v>
       </c>
-      <c r="F27" s="5">
-        <v>50</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="18">
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="18">
         <v>2.6633550241579802</v>
       </c>
-      <c r="L27" s="19">
+      <c r="M26" s="19">
         <v>44.230100888809901</v>
       </c>
-      <c r="M27" s="19">
+      <c r="N26" s="19">
         <v>0.181608907022653</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="5" t="s">
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="37">
+        <v>414</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37">
+        <v>25</v>
+      </c>
+      <c r="F27" s="38">
+        <v>50</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38">
+        <v>42</v>
+      </c>
+      <c r="K27" s="38">
+        <v>-2.1391</v>
+      </c>
+      <c r="L27" s="39">
+        <v>5.2859148600000001</v>
+      </c>
+      <c r="M27" s="40">
+        <v>106.6797</v>
+      </c>
+      <c r="N27" s="40">
+        <v>0.20337326098</v>
+      </c>
+      <c r="O27" s="40">
+        <v>6.7535999999999999E-2</v>
+      </c>
+      <c r="P27" s="40">
+        <v>8.7957999999999995E-2</v>
+      </c>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>16</v>
       </c>
@@ -1970,30 +2187,31 @@
       <c r="H28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="38">
-        <v>42</v>
-      </c>
+      <c r="I28" s="38"/>
       <c r="J28" s="38">
-        <v>-2.1391</v>
-      </c>
-      <c r="K28" s="39">
-        <v>5.2859148600000001</v>
-      </c>
-      <c r="L28" s="40">
-        <v>106.6797</v>
+        <v>43</v>
+      </c>
+      <c r="K28" s="38">
+        <v>-2.1585000000000001</v>
+      </c>
+      <c r="L28" s="39">
+        <v>27.793348000000002</v>
       </c>
       <c r="M28" s="40">
-        <v>0.20337326098</v>
+        <v>248.154777525995</v>
       </c>
       <c r="N28" s="40">
-        <v>6.7535999999999999E-2</v>
+        <v>0.48663820000000002</v>
       </c>
       <c r="O28" s="40">
-        <v>8.7957999999999995E-2</v>
-      </c>
-      <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+        <v>9.5855075562849501E-2</v>
+      </c>
+      <c r="P28" s="40">
+        <v>7.9367781726232295E-2</v>
+      </c>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
         <v>16</v>
       </c>
@@ -2016,30 +2234,31 @@
       <c r="H29" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="38">
-        <v>43</v>
-      </c>
+      <c r="I29" s="38"/>
       <c r="J29" s="38">
-        <v>-2.1585000000000001</v>
-      </c>
-      <c r="K29" s="39">
-        <v>27.793348000000002</v>
-      </c>
-      <c r="L29" s="40">
-        <v>248.154777525995</v>
+        <v>44</v>
+      </c>
+      <c r="K29" s="38">
+        <v>-2.1217999999999999</v>
+      </c>
+      <c r="L29" s="39">
+        <v>13.364979999999999</v>
       </c>
       <c r="M29" s="40">
-        <v>0.48663820000000002</v>
+        <v>102.98322875229999</v>
       </c>
       <c r="N29" s="40">
-        <v>9.5855075562849501E-2</v>
+        <v>0.35098499999999999</v>
       </c>
       <c r="O29" s="40">
-        <v>7.9367781726232295E-2</v>
-      </c>
-      <c r="P29" s="38"/>
-    </row>
-    <row r="30" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0.183749</v>
+      </c>
+      <c r="P29" s="40">
+        <v>7.4605900000000003E-2</v>
+      </c>
+      <c r="Q29" s="38"/>
+    </row>
+    <row r="30" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>16</v>
       </c>
@@ -2057,35 +2276,36 @@
         <v>50</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="38">
-        <v>44</v>
-      </c>
+      <c r="I30" s="38"/>
       <c r="J30" s="38">
-        <v>-2.1217999999999999</v>
-      </c>
-      <c r="K30" s="39">
-        <v>13.364979999999999</v>
-      </c>
-      <c r="L30" s="40">
-        <v>102.98322875229999</v>
+        <v>42</v>
+      </c>
+      <c r="K30" s="38">
+        <v>-2.0457999999999998</v>
+      </c>
+      <c r="L30" s="39">
+        <v>1.4336720999999999</v>
       </c>
       <c r="M30" s="40">
-        <v>0.35098499999999999</v>
+        <v>21.056016482362999</v>
       </c>
       <c r="N30" s="40">
-        <v>0.183749</v>
+        <v>0.14271562800000001</v>
       </c>
       <c r="O30" s="40">
-        <v>7.4605900000000003E-2</v>
-      </c>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5.4922392845000001E-2</v>
+      </c>
+      <c r="P30" s="40">
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="Q30" s="38"/>
+    </row>
+    <row r="31" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37" t="s">
         <v>16</v>
       </c>
@@ -2108,30 +2328,31 @@
       <c r="H31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="38">
-        <v>42</v>
-      </c>
+      <c r="I31" s="38"/>
       <c r="J31" s="38">
-        <v>-2.0457999999999998</v>
-      </c>
-      <c r="K31" s="39">
-        <v>1.4336720999999999</v>
-      </c>
-      <c r="L31" s="40">
-        <v>21.056016482362999</v>
+        <v>43</v>
+      </c>
+      <c r="K31" s="38">
+        <v>-2.0164</v>
+      </c>
+      <c r="L31" s="39">
+        <v>1.4966787960000001</v>
       </c>
       <c r="M31" s="40">
-        <v>0.14271562800000001</v>
+        <v>21.597083600000001</v>
       </c>
       <c r="N31" s="40">
-        <v>5.4922392845000001E-2</v>
+        <v>0.15133988396055101</v>
       </c>
       <c r="O31" s="40">
-        <v>2.1950000000000001E-2</v>
-      </c>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5.1074555000000001E-2</v>
+      </c>
+      <c r="P31" s="40">
+        <v>2.2300419577265401E-2</v>
+      </c>
+      <c r="Q31" s="38"/>
+    </row>
+    <row r="32" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
         <v>16</v>
       </c>
@@ -2154,76 +2375,47 @@
       <c r="H32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="38">
-        <v>43</v>
-      </c>
+      <c r="I32" s="38"/>
       <c r="J32" s="38">
-        <v>-2.0164</v>
-      </c>
-      <c r="K32" s="39">
-        <v>1.4966787960000001</v>
-      </c>
-      <c r="L32" s="40">
-        <v>21.597083600000001</v>
+        <v>44</v>
+      </c>
+      <c r="K32" s="38">
+        <v>-1.9988999999999999</v>
+      </c>
+      <c r="L32" s="39">
+        <v>1.469979618</v>
       </c>
       <c r="M32" s="40">
-        <v>0.15133988396055101</v>
+        <v>21.918610000000001</v>
       </c>
       <c r="N32" s="40">
-        <v>5.1074555000000001E-2</v>
+        <v>0.1521371966</v>
       </c>
       <c r="O32" s="40">
-        <v>2.2300419577265401E-2</v>
-      </c>
-      <c r="P32" s="38"/>
-    </row>
-    <row r="33" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="37">
-        <v>414</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>5</v>
-      </c>
+        <v>5.9614221382261703E-2</v>
+      </c>
+      <c r="P32" s="40">
+        <v>2.2553602133483699E-2</v>
+      </c>
+      <c r="Q32" s="38"/>
+    </row>
+    <row r="33" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="38"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="37">
-        <v>25</v>
-      </c>
-      <c r="F33" s="38">
-        <v>50</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="38">
-        <v>44</v>
-      </c>
-      <c r="J33" s="38">
-        <v>-1.9988999999999999</v>
-      </c>
-      <c r="K33" s="39">
-        <v>1.469979618</v>
-      </c>
-      <c r="L33" s="40">
-        <v>21.918610000000001</v>
-      </c>
-      <c r="M33" s="40">
-        <v>0.1521371966</v>
-      </c>
-      <c r="N33" s="40">
-        <v>5.9614221382261703E-2</v>
-      </c>
-      <c r="O33" s="40">
-        <v>2.2553602133483699E-2</v>
-      </c>
-      <c r="P33" s="38"/>
-    </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="38"/>
+    </row>
+    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="38"/>
@@ -2233,15 +2425,16 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="19"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2256,151 +2449,1008 @@
         <v>100</v>
       </c>
       <c r="F35" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7">
         <v>42</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="20">
-        <v>13.752988999999999</v>
-      </c>
-      <c r="L35" s="21">
-        <v>260.71834811000002</v>
+      <c r="K35" s="7"/>
+      <c r="L35" s="20">
+        <v>23.533678978716601</v>
       </c>
       <c r="M35" s="21">
-        <v>0.34606221715618302</v>
+        <v>545.75731609802597</v>
       </c>
       <c r="N35" s="21">
-        <v>0.100243507241533</v>
+        <v>0.42155993227215</v>
       </c>
       <c r="O35" s="21">
-        <v>0.118486994896638</v>
-      </c>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+        <v>0.33439627305276798</v>
+      </c>
+      <c r="P35" s="21">
+        <v>8.1370935121077501E-2</v>
+      </c>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="25">
         <v>414</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6">
-        <v>100</v>
-      </c>
-      <c r="F36" s="7">
-        <v>100</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7">
+      <c r="D36" s="26"/>
+      <c r="E36" s="25">
+        <v>100</v>
+      </c>
+      <c r="F36" s="26">
+        <v>200</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26">
         <v>42</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="20">
-        <v>23.533678978716601</v>
-      </c>
-      <c r="L36" s="21">
-        <v>545.75731609802597</v>
-      </c>
-      <c r="M36" s="21">
-        <v>0.42155993227215</v>
-      </c>
-      <c r="N36" s="21">
-        <v>0.33439627305276798</v>
-      </c>
-      <c r="O36" s="21">
-        <v>8.1370935121077501E-2</v>
-      </c>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25">
-        <v>414</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="26"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="25">
-        <v>100</v>
-      </c>
-      <c r="F37" s="26">
-        <v>200</v>
-      </c>
+      <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="26">
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+    </row>
+    <row r="38" spans="1:17" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="41">
+        <v>414</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="41">
+        <v>100</v>
+      </c>
+      <c r="F38" s="42">
+        <v>50</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42">
         <v>42</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="K38" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="68">
+        <v>13.752989064227201</v>
+      </c>
+      <c r="M38" s="69">
+        <v>260.71834811999997</v>
+      </c>
+      <c r="N38" s="69">
+        <v>0.34606221700000001</v>
+      </c>
+      <c r="O38" s="68">
+        <v>0.100243507241533</v>
+      </c>
+      <c r="P38" s="68">
+        <v>0.1184869948966</v>
+      </c>
+      <c r="Q38" s="66"/>
+    </row>
+    <row r="39" spans="1:17" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="41">
+        <v>414</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="41">
+        <v>100</v>
+      </c>
+      <c r="F39" s="42">
+        <v>50</v>
+      </c>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42">
+        <v>43</v>
+      </c>
+      <c r="K39" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="68">
+        <v>13.749186987</v>
+      </c>
+      <c r="M39" s="69">
+        <v>234.73750999999999</v>
+      </c>
+      <c r="N39" s="69">
+        <v>0.34225530786530001</v>
+      </c>
+      <c r="O39" s="68">
+        <v>9.7763042491408506E-2</v>
+      </c>
+      <c r="P39" s="68">
+        <v>0.10846537520000001</v>
+      </c>
+      <c r="Q39" s="66"/>
+    </row>
+    <row r="40" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="67">
+        <v>414</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67">
+        <v>100</v>
+      </c>
+      <c r="F40" s="66">
+        <v>50</v>
+      </c>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66">
+        <v>44</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="44">
+        <v>15.0871902949758</v>
+      </c>
+      <c r="M40" s="44">
+        <v>292.86451212999998</v>
+      </c>
+      <c r="N40" s="44">
+        <v>0.35499995299830001</v>
+      </c>
+      <c r="O40" s="44">
+        <v>0.12719792438081401</v>
+      </c>
+      <c r="P40" s="44">
+        <v>0.11211767573500001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="41">
+        <v>414</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="41">
+        <v>150</v>
+      </c>
+      <c r="F41" s="42">
+        <v>50</v>
+      </c>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42">
+        <v>42</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="L41" s="44">
+        <v>14.7165642423</v>
+      </c>
+      <c r="M41" s="44">
+        <v>293.48100548871997</v>
+      </c>
+      <c r="N41" s="44">
+        <v>0.34832704199999998</v>
+      </c>
+      <c r="O41" s="44">
+        <v>8.7628885399999995E-2</v>
+      </c>
+      <c r="P41" s="44">
+        <v>6.6904239000000004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="41">
+        <v>414</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="41">
+        <v>150</v>
+      </c>
+      <c r="F42" s="42">
+        <v>50</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42">
+        <v>43</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="44">
+        <v>13.969189800000001</v>
+      </c>
+      <c r="M42" s="44">
+        <v>242.00053260022599</v>
+      </c>
+      <c r="N42" s="44">
+        <v>0.34151055159425298</v>
+      </c>
+      <c r="O42" s="44">
+        <v>0.101280667689</v>
+      </c>
+      <c r="P42" s="44">
+        <v>8.6097344000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="67">
+        <v>414</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="41">
+        <v>150</v>
+      </c>
+      <c r="F43" s="66">
+        <v>50</v>
+      </c>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66">
+        <v>44</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43" s="44">
+        <v>15.0451286</v>
+      </c>
+      <c r="M43" s="44">
+        <v>301.010694</v>
+      </c>
+      <c r="N43" s="44">
+        <v>0.33589392000000001</v>
+      </c>
+      <c r="O43" s="44">
+        <v>8.3964380000000005E-2</v>
+      </c>
+      <c r="P43" s="44">
+        <v>8.55931446113503E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="41">
+        <v>414</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="41">
+        <v>200</v>
+      </c>
+      <c r="F44" s="42">
+        <v>50</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42">
+        <v>42</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" s="44">
+        <v>15.1654652676</v>
+      </c>
+      <c r="M44" s="44">
+        <v>305.80285329999998</v>
+      </c>
+      <c r="N44" s="44">
+        <v>0.35056138091400002</v>
+      </c>
+      <c r="O44" s="44">
+        <v>9.8102664315859997E-2</v>
+      </c>
+      <c r="P44" s="44">
+        <v>5.0823350000000003E-2</v>
+      </c>
+      <c r="Q44" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="41">
+        <v>414</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="41">
+        <v>200</v>
+      </c>
+      <c r="F45" s="42">
+        <v>50</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42">
+        <v>43</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="L45" s="44">
+        <v>13.959626846999999</v>
+      </c>
+      <c r="M45" s="44">
+        <v>246.59950749999999</v>
+      </c>
+      <c r="N45" s="44">
+        <v>0.33959842979260302</v>
+      </c>
+      <c r="O45" s="44">
+        <v>9.7938040000000004E-2</v>
+      </c>
+      <c r="P45" s="44">
+        <v>7.7259273000000003E-2</v>
+      </c>
+      <c r="Q45" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="67">
+        <v>414</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="41">
+        <v>200</v>
+      </c>
+      <c r="F46" s="66">
+        <v>50</v>
+      </c>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66">
+        <v>44</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="44">
+        <v>15.409713</v>
+      </c>
+      <c r="M46" s="44">
+        <v>315.272921333</v>
+      </c>
+      <c r="N46" s="44">
+        <v>0.34231472699999999</v>
+      </c>
+      <c r="O46" s="44">
+        <v>0.10821991</v>
+      </c>
+      <c r="P46" s="44">
+        <v>5.0431223184539999E-2</v>
+      </c>
+      <c r="Q46" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="41">
+        <v>414</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="41">
+        <v>250</v>
+      </c>
+      <c r="F47" s="42">
+        <v>50</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42">
+        <v>42</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="41">
+        <v>15.359679653000001</v>
+      </c>
+      <c r="M47" s="41">
+        <v>312.25125229999998</v>
+      </c>
+      <c r="N47" s="41">
+        <v>0.35152056599999998</v>
+      </c>
+      <c r="O47" s="41">
+        <v>9.2657845000000003E-2</v>
+      </c>
+      <c r="P47" s="41">
+        <v>5.2024486170000002E-2</v>
+      </c>
+      <c r="Q47" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="41">
+        <v>414</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="41">
+        <v>250</v>
+      </c>
+      <c r="F48" s="42">
+        <v>50</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42">
+        <v>43</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="L48" s="41">
+        <v>14.0866255</v>
+      </c>
+      <c r="M48" s="41">
+        <v>252.81450193000001</v>
+      </c>
+      <c r="N48" s="41">
+        <v>0.33862513189999999</v>
+      </c>
+      <c r="O48" s="41">
+        <v>0.1089630217</v>
+      </c>
+      <c r="P48" s="41">
+        <v>6.7984618234510005E-2</v>
+      </c>
+      <c r="Q48" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="67">
+        <v>414</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="41">
+        <v>250</v>
+      </c>
+      <c r="F49" s="66">
+        <v>50</v>
+      </c>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66">
+        <v>44</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="L49" s="41">
+        <v>15.4568707275</v>
+      </c>
+      <c r="M49" s="41">
+        <v>320.67832979999997</v>
+      </c>
+      <c r="N49" s="41">
+        <v>0.3434173807</v>
+      </c>
+      <c r="O49" s="41">
+        <v>0.109215592778</v>
+      </c>
+      <c r="P49" s="41">
+        <v>5.0618870476E-2</v>
+      </c>
+      <c r="Q49" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="41">
+        <v>414</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="41">
+        <v>500</v>
+      </c>
+      <c r="F50" s="42">
+        <v>50</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42">
+        <v>42</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="L50" s="41">
+        <v>16.5050431889875</v>
+      </c>
+      <c r="M50" s="41">
+        <v>352.23572202418899</v>
+      </c>
+      <c r="N50" s="41">
+        <v>0.36345001403593702</v>
+      </c>
+      <c r="O50" s="41">
+        <v>0.149904881236786</v>
+      </c>
+      <c r="P50" s="41">
+        <v>5.1993752166000003E-2</v>
+      </c>
+      <c r="Q50" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="41">
+        <v>414</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="41">
+        <v>500</v>
+      </c>
+      <c r="F51" s="42">
+        <v>50</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42">
+        <v>43</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="41">
+        <v>14.19996213502</v>
+      </c>
+      <c r="M51" s="41">
+        <v>280.41353046697998</v>
+      </c>
+      <c r="N51" s="41">
+        <v>0.33345712373000003</v>
+      </c>
+      <c r="O51" s="41">
+        <v>0.1077331925174</v>
+      </c>
+      <c r="P51" s="41">
+        <v>5.7041712299999998E-2</v>
+      </c>
+      <c r="Q51" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="67">
+        <v>414</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="66"/>
+      <c r="E52" s="41">
+        <v>500</v>
+      </c>
+      <c r="F52" s="66">
+        <v>50</v>
+      </c>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66">
+        <v>44</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="L52" s="41">
+        <v>16.1286886983</v>
+      </c>
+      <c r="M52" s="41">
+        <v>353.53304974000002</v>
+      </c>
+      <c r="N52" s="41">
+        <v>0.3554392636</v>
+      </c>
+      <c r="O52" s="41">
+        <v>0.14522530114000001</v>
+      </c>
+      <c r="P52" s="41">
+        <v>5.1319925129999999E-2</v>
+      </c>
+      <c r="Q52" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="41">
+        <v>414</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="42">
+        <v>37016</v>
+      </c>
+      <c r="E54" s="41">
+        <v>100</v>
+      </c>
+      <c r="F54" s="42">
+        <v>50</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="42">
+        <v>42</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="41">
+        <v>15.980332505</v>
+      </c>
+      <c r="M54" s="41">
+        <v>302.94736621959999</v>
+      </c>
+      <c r="N54" s="41">
+        <v>0.40205704435930001</v>
+      </c>
+      <c r="O54" s="41">
+        <v>0.31907052959999999</v>
+      </c>
+      <c r="P54" s="41">
+        <v>0.54858797000000004</v>
+      </c>
+      <c r="Q54" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="41">
+        <v>414</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="42">
+        <v>37016</v>
+      </c>
+      <c r="E55" s="41">
+        <v>150</v>
+      </c>
+      <c r="F55" s="42">
+        <v>50</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" s="42">
+        <v>42</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="L55" s="41">
+        <v>16.218306434750001</v>
+      </c>
+      <c r="M55" s="41">
+        <v>339.22807427999999</v>
+      </c>
+      <c r="N55" s="41">
+        <v>0.36811413275179999</v>
+      </c>
+      <c r="O55" s="41">
+        <v>0.202724971</v>
+      </c>
+      <c r="P55" s="41">
+        <v>9.3437584000000004E-2</v>
+      </c>
+      <c r="Q55" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="41">
+        <v>414</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="42">
+        <v>37016</v>
+      </c>
+      <c r="E56" s="41">
+        <v>200</v>
+      </c>
+      <c r="F56" s="42">
+        <v>50</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" s="42">
+        <v>42</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="L56" s="41">
+        <v>15.002265231786</v>
+      </c>
+      <c r="M56" s="41">
+        <v>308.29770306929998</v>
+      </c>
+      <c r="N56" s="41">
+        <v>0.36335503260000002</v>
+      </c>
+      <c r="O56" s="41">
+        <v>0.16385071234000001</v>
+      </c>
+      <c r="P56" s="41">
+        <v>0.21228941600000001</v>
+      </c>
+      <c r="Q56" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="41">
+        <v>414</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="42">
+        <v>37016</v>
+      </c>
+      <c r="E57" s="41">
+        <v>250</v>
+      </c>
+      <c r="F57" s="42">
+        <v>50</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J57" s="42">
+        <v>42</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" s="41">
+        <v>16.282205761189999</v>
+      </c>
+      <c r="M57" s="41">
+        <v>333.53385159999999</v>
+      </c>
+      <c r="N57" s="41">
+        <v>0.36693963899999998</v>
+      </c>
+      <c r="O57" s="41">
+        <v>0.21190996557</v>
+      </c>
+      <c r="P57" s="41">
+        <v>6.8634601500000003E-2</v>
+      </c>
+      <c r="Q57" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="41">
+        <v>414</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="42">
+        <v>37016</v>
+      </c>
+      <c r="E58" s="41">
+        <v>300</v>
+      </c>
+      <c r="F58" s="42">
+        <v>50</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" s="42">
+        <v>42</v>
+      </c>
+      <c r="K58" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="L58" s="41">
+        <v>18.886168000000001</v>
+      </c>
+      <c r="M58" s="41">
+        <v>419.92427500000002</v>
+      </c>
+      <c r="N58" s="41">
+        <v>0.39891390999999998</v>
+      </c>
+      <c r="O58" s="41">
+        <v>0.28305669</v>
+      </c>
+      <c r="P58" s="41">
+        <v>7.2857166599999995E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2410,47 +3460,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="1"/>
+    <col min="10" max="10" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2">
-        <v>50</v>
-      </c>
-      <c r="F1" s="3">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="14">
-        <v>5.3913402057172197</v>
-      </c>
-      <c r="L1" s="15">
-        <v>95.558690835703899</v>
-      </c>
-      <c r="M1" s="15">
-        <v>4.5453329399599597E-2</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="3"/>
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2467,20 +3536,20 @@
         <v>50</v>
       </c>
       <c r="F2" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="14">
-        <v>4.1829039523568197</v>
+        <v>5.3913402057172197</v>
       </c>
       <c r="L2" s="15">
-        <v>45.512803344470299</v>
+        <v>95.558690835703899</v>
       </c>
       <c r="M2" s="15">
-        <v>3.7512549576846597E-2</v>
+        <v>4.5453329399599597E-2</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -2498,25 +3567,23 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>42</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="14">
-        <v>3.53453446581329</v>
+        <v>4.1829039523568197</v>
       </c>
       <c r="L3" s="15">
-        <v>39.950803257038203</v>
+        <v>45.512803344470299</v>
       </c>
       <c r="M3" s="15">
-        <v>3.3774608183609799E-2</v>
+        <v>3.7512549576846597E-2</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -2541,16 +3608,18 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>42</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="14">
-        <v>4.3992172136277903</v>
+        <v>3.53453446581329</v>
       </c>
       <c r="L4" s="15">
-        <v>59.648501471104701</v>
+        <v>39.950803257038203</v>
       </c>
       <c r="M4" s="15">
-        <v>3.96223073497197E-2</v>
+        <v>3.3774608183609799E-2</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2573,31 +3642,21 @@
       <c r="F5" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3">
-        <v>42</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="14">
-        <v>4.9019094580076903</v>
+        <v>4.3992172136277903</v>
       </c>
       <c r="L5" s="15">
-        <v>69.704341403514405</v>
+        <v>59.648501471104701</v>
       </c>
       <c r="M5" s="15">
-        <v>4.4429586679793499E-2</v>
-      </c>
-      <c r="N5" s="15">
-        <v>4.0116878914842703E-2</v>
-      </c>
-      <c r="O5" s="15">
-        <v>2.2393254599391101E-2</v>
-      </c>
+        <v>3.96223073497197E-2</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2624,23 +3683,23 @@
         <v>41</v>
       </c>
       <c r="I6" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="14">
-        <v>4.0038073852598499</v>
+        <v>4.9019094580076903</v>
       </c>
       <c r="L6" s="15">
-        <v>53.093623329446302</v>
+        <v>69.704341403514405</v>
       </c>
       <c r="M6" s="15">
-        <v>3.6688789757854501E-2</v>
+        <v>4.4429586679793499E-2</v>
       </c>
       <c r="N6" s="15">
-        <v>3.0750500964385599E-2</v>
+        <v>4.0116878914842703E-2</v>
       </c>
       <c r="O6" s="15">
-        <v>1.4080862918083499E-2</v>
+        <v>2.2393254599391101E-2</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -2668,71 +3727,69 @@
         <v>41</v>
       </c>
       <c r="I7" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="14">
+        <v>4.0038073852598499</v>
+      </c>
+      <c r="L7" s="15">
+        <v>53.093623329446302</v>
+      </c>
+      <c r="M7" s="15">
+        <v>3.6688789757854501E-2</v>
+      </c>
+      <c r="N7" s="15">
+        <v>3.0750500964385599E-2</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1.4080862918083499E-2</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="14">
         <v>3.5157139455596198</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <v>49.999309540454</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M8" s="15">
         <v>3.34109955349556E-2</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <v>2.99456884654348E-2</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O8" s="15">
         <v>1.5938158334067899E-2</v>
       </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="48">
-        <v>4227</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48">
-        <v>100</v>
-      </c>
-      <c r="F8" s="49">
-        <v>50</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="49">
-        <v>42</v>
-      </c>
-      <c r="J8" s="49">
-        <v>5.4063999999999997</v>
-      </c>
-      <c r="K8" s="50">
-        <v>4.1674490000000004</v>
-      </c>
-      <c r="L8" s="51">
-        <v>59.873821397952298</v>
-      </c>
-      <c r="M8" s="51">
-        <v>3.8940099999999998E-2</v>
-      </c>
-      <c r="N8" s="51">
-        <v>3.6601000000000002E-2</v>
-      </c>
-      <c r="O8" s="51">
-        <v>2.0503E-2</v>
-      </c>
-      <c r="P8" s="49"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
@@ -2758,25 +3815,25 @@
         <v>41</v>
       </c>
       <c r="I9" s="49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="49">
-        <v>5.5023</v>
+        <v>5.4063999999999997</v>
       </c>
       <c r="K9" s="50">
-        <v>3.5784159999999998</v>
+        <v>4.1674490000000004</v>
       </c>
       <c r="L9" s="51">
-        <v>51.550781989999997</v>
+        <v>59.873821397952298</v>
       </c>
       <c r="M9" s="51">
-        <v>3.3480000000000003E-2</v>
+        <v>3.8940099999999998E-2</v>
       </c>
       <c r="N9" s="51">
-        <v>3.0080800000000001E-2</v>
+        <v>3.6601000000000002E-2</v>
       </c>
       <c r="O9" s="51">
-        <v>1.5723500000000001E-2</v>
+        <v>2.0503E-2</v>
       </c>
       <c r="P9" s="49"/>
     </row>
@@ -2804,25 +3861,25 @@
         <v>41</v>
       </c>
       <c r="I10" s="49">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="49">
-        <v>5.4516999999999998</v>
+        <v>5.5023</v>
       </c>
       <c r="K10" s="50">
-        <v>3.7627000000000002</v>
+        <v>3.5784159999999998</v>
       </c>
       <c r="L10" s="51">
-        <v>57.009099999999997</v>
+        <v>51.550781989999997</v>
       </c>
       <c r="M10" s="51">
-        <v>3.4901000000000001E-2</v>
+        <v>3.3480000000000003E-2</v>
       </c>
       <c r="N10" s="51">
-        <v>3.1515000000000001E-2</v>
+        <v>3.0080800000000001E-2</v>
       </c>
       <c r="O10" s="51">
-        <v>1.6348600000000001E-2</v>
+        <v>1.5723500000000001E-2</v>
       </c>
       <c r="P10" s="49"/>
     </row>
@@ -2841,7 +3898,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>57</v>
@@ -2850,25 +3907,25 @@
         <v>41</v>
       </c>
       <c r="I11" s="49">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" s="49">
-        <v>5.4119000000000002</v>
+        <v>5.4516999999999998</v>
       </c>
       <c r="K11" s="50">
-        <v>3.4432</v>
+        <v>3.7627000000000002</v>
       </c>
       <c r="L11" s="51">
-        <v>44.466742855213496</v>
+        <v>57.009099999999997</v>
       </c>
       <c r="M11" s="51">
-        <v>3.3230000000000003E-2</v>
+        <v>3.4901000000000001E-2</v>
       </c>
       <c r="N11" s="51">
-        <v>2.8675699999999998E-2</v>
+        <v>3.1515000000000001E-2</v>
       </c>
       <c r="O11" s="51">
-        <v>1.43138E-2</v>
+        <v>1.6348600000000001E-2</v>
       </c>
       <c r="P11" s="49"/>
     </row>
@@ -2896,25 +3953,25 @@
         <v>41</v>
       </c>
       <c r="I12" s="49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="49">
-        <v>5.3997000000000002</v>
+        <v>5.4119000000000002</v>
       </c>
       <c r="K12" s="50">
-        <v>3.5510999999999999</v>
+        <v>3.4432</v>
       </c>
       <c r="L12" s="51">
-        <v>42.423400000000001</v>
+        <v>44.466742855213496</v>
       </c>
       <c r="M12" s="51">
-        <v>3.3779999999999998E-2</v>
+        <v>3.3230000000000003E-2</v>
       </c>
       <c r="N12" s="51">
-        <v>2.84336E-2</v>
+        <v>2.8675699999999998E-2</v>
       </c>
       <c r="O12" s="51">
-        <v>0.13858000000000001</v>
+        <v>1.43138E-2</v>
       </c>
       <c r="P12" s="49"/>
     </row>
@@ -2942,25 +3999,25 @@
         <v>41</v>
       </c>
       <c r="I13" s="49">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="49">
-        <v>5.3997999999999999</v>
+        <v>5.3997000000000002</v>
       </c>
       <c r="K13" s="50">
-        <v>3.6132961283458198</v>
+        <v>3.5510999999999999</v>
       </c>
       <c r="L13" s="51">
-        <v>42.991917761875698</v>
+        <v>42.423400000000001</v>
       </c>
       <c r="M13" s="51">
-        <v>3.40602294154084E-2</v>
+        <v>3.3779999999999998E-2</v>
       </c>
       <c r="N13" s="51">
-        <v>2.9851293000000001E-2</v>
+        <v>2.84336E-2</v>
       </c>
       <c r="O13" s="51">
-        <v>1.3512874797E-2</v>
+        <v>0.13858000000000001</v>
       </c>
       <c r="P13" s="49"/>
     </row>
@@ -2979,7 +4036,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="49">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>57</v>
@@ -2988,25 +4045,25 @@
         <v>41</v>
       </c>
       <c r="I14" s="49">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" s="49">
-        <v>5.3769999999999998</v>
+        <v>5.3997999999999999</v>
       </c>
       <c r="K14" s="50">
-        <v>3.4301591109624199</v>
+        <v>3.6132961283458198</v>
       </c>
       <c r="L14" s="51">
-        <v>44.733049000000001</v>
+        <v>42.991917761875698</v>
       </c>
       <c r="M14" s="51">
-        <v>3.2132932507393602E-2</v>
+        <v>3.40602294154084E-2</v>
       </c>
       <c r="N14" s="51">
-        <v>2.8753426169999999E-2</v>
+        <v>2.9851293000000001E-2</v>
       </c>
       <c r="O14" s="51">
-        <v>1.39623572084751E-2</v>
+        <v>1.3512874797E-2</v>
       </c>
       <c r="P14" s="49"/>
     </row>
@@ -3034,25 +4091,25 @@
         <v>41</v>
       </c>
       <c r="I15" s="49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="49">
-        <v>5.3738999999999999</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="K15" s="50">
-        <v>3.4098999999999999</v>
+        <v>3.4301591109624199</v>
       </c>
       <c r="L15" s="51">
-        <v>40.6162672186896</v>
+        <v>44.733049000000001</v>
       </c>
       <c r="M15" s="51">
-        <v>3.26955353402422E-2</v>
+        <v>3.2132932507393602E-2</v>
       </c>
       <c r="N15" s="51">
-        <v>2.9034644450000001E-2</v>
+        <v>2.8753426169999999E-2</v>
       </c>
       <c r="O15" s="51">
-        <v>1.3589085000000001E-2</v>
+        <v>1.39623572084751E-2</v>
       </c>
       <c r="P15" s="49"/>
     </row>
@@ -3080,73 +4137,73 @@
         <v>41</v>
       </c>
       <c r="I16" s="49">
+        <v>43</v>
+      </c>
+      <c r="J16" s="49">
+        <v>5.3738999999999999</v>
+      </c>
+      <c r="K16" s="50">
+        <v>3.4098999999999999</v>
+      </c>
+      <c r="L16" s="51">
+        <v>40.6162672186896</v>
+      </c>
+      <c r="M16" s="51">
+        <v>3.26955353402422E-2</v>
+      </c>
+      <c r="N16" s="51">
+        <v>2.9034644450000001E-2</v>
+      </c>
+      <c r="O16" s="51">
+        <v>1.3589085000000001E-2</v>
+      </c>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="17" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="48">
+        <v>4227</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48">
+        <v>100</v>
+      </c>
+      <c r="F17" s="49">
+        <v>150</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="49">
         <v>44</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J17" s="49">
         <v>5.3731999999999998</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K17" s="50">
         <v>4.0764711262509703</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L17" s="51">
         <v>53.140005000000002</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M17" s="51">
         <v>3.8317999999999998E-2</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N17" s="51">
         <v>3.4648360299304001E-2</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O17" s="51">
         <v>1.7697500000000001E-2</v>
       </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3">
-        <v>42</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5.3731</v>
-      </c>
-      <c r="K17" s="14">
-        <v>4.6888277983732802</v>
-      </c>
-      <c r="L17" s="15">
-        <v>58.546133147207897</v>
-      </c>
-      <c r="M17" s="15">
-        <v>4.2354736963695502E-2</v>
-      </c>
-      <c r="N17" s="15">
-        <v>3.81307362333883E-2</v>
-      </c>
-      <c r="O17" s="15">
-        <v>1.94263506138064E-2</v>
-      </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -3172,25 +4229,25 @@
         <v>41</v>
       </c>
       <c r="I18" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="3">
-        <v>5.3796999999999997</v>
+        <v>5.3731</v>
       </c>
       <c r="K18" s="14">
-        <v>3.76198040986064</v>
+        <v>4.6888277983732802</v>
       </c>
       <c r="L18" s="15">
-        <v>42.1346287254948</v>
+        <v>58.546133147207897</v>
       </c>
       <c r="M18" s="15">
-        <v>3.5131886546129497E-2</v>
+        <v>4.2354736963695502E-2</v>
       </c>
       <c r="N18" s="15">
-        <v>3.1839711844375E-2</v>
+        <v>3.81307362333883E-2</v>
       </c>
       <c r="O18" s="15">
-        <v>1.50434441822506E-2</v>
+        <v>1.94263506138064E-2</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -3218,41 +4275,72 @@
         <v>41</v>
       </c>
       <c r="I19" s="3">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.3796999999999997</v>
+      </c>
+      <c r="K19" s="14">
+        <v>3.76198040986064</v>
+      </c>
+      <c r="L19" s="15">
+        <v>42.1346287254948</v>
+      </c>
+      <c r="M19" s="15">
+        <v>3.5131886546129497E-2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>3.1839711844375E-2</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1.50434441822506E-2</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="3">
         <v>44</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>5.3815999999999997</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>3.7490946166483901</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L20" s="15">
         <v>44.046071467776798</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M20" s="15">
         <v>3.4733060718235398E-2</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N20" s="15">
         <v>3.1557588852523799E-2</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O20" s="15">
         <v>1.4121308543102401E-2</v>
       </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3271,35 +4359,16 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4227</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="14">
-        <v>3.4822369638914501</v>
-      </c>
-      <c r="L22" s="15">
-        <v>38.929181310867698</v>
-      </c>
-      <c r="M22" s="15">
-        <v>3.3039162166202E-2</v>
-      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="3"/>
@@ -3319,27 +4388,23 @@
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="14">
-        <v>3.4948489288649101</v>
+        <v>3.4822369638914501</v>
       </c>
       <c r="L23" s="15">
-        <v>39.458377616161002</v>
+        <v>38.929181310867698</v>
       </c>
       <c r="M23" s="15">
-        <v>3.3644492587488403E-2</v>
-      </c>
-      <c r="N23" s="15">
-        <v>3.00505847160191E-2</v>
-      </c>
-      <c r="O23" s="15">
-        <v>1.43563269479154E-2</v>
-      </c>
+        <v>3.3039162166202E-2</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3357,34 +4422,26 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="3">
-        <v>42</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5.3231000000000002</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="14">
-        <v>5.40633569574379</v>
+        <v>3.4948489288649101</v>
       </c>
       <c r="L24" s="15">
-        <v>77.864039181710595</v>
+        <v>39.458377616161002</v>
       </c>
       <c r="M24" s="15">
-        <v>4.7543834963823403E-2</v>
+        <v>3.3644492587488403E-2</v>
       </c>
       <c r="N24" s="15">
-        <v>4.598874E-2</v>
+        <v>3.00505847160191E-2</v>
       </c>
       <c r="O24" s="15">
-        <v>2.6339886999999999E-2</v>
+        <v>1.43563269479154E-2</v>
       </c>
       <c r="P24" s="3"/>
     </row>
@@ -3398,7 +4455,9 @@
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>97983</v>
+      </c>
       <c r="E25" s="2">
         <v>100</v>
       </c>
@@ -3412,25 +4471,25 @@
         <v>41</v>
       </c>
       <c r="I25" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="3">
-        <v>5.3291000000000004</v>
+        <v>5.3231000000000002</v>
       </c>
       <c r="K25" s="14">
-        <v>4.3779429482645398</v>
+        <v>5.40633569574379</v>
       </c>
       <c r="L25" s="15">
-        <v>53.407499999999999</v>
+        <v>77.864039181710595</v>
       </c>
       <c r="M25" s="15">
-        <v>3.9220900000000003E-2</v>
+        <v>4.7543834963823403E-2</v>
       </c>
       <c r="N25" s="15">
-        <v>3.7683399999999999E-2</v>
+        <v>4.598874E-2</v>
       </c>
       <c r="O25" s="15">
-        <v>1.7714669999999998E-2</v>
+        <v>2.6339886999999999E-2</v>
       </c>
       <c r="P25" s="3"/>
     </row>
@@ -3444,7 +4503,9 @@
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>97983</v>
+      </c>
       <c r="E26" s="2">
         <v>100</v>
       </c>
@@ -3458,328 +4519,452 @@
         <v>41</v>
       </c>
       <c r="I26" s="3">
+        <v>43</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5.3291000000000004</v>
+      </c>
+      <c r="K26" s="14">
+        <v>4.3779429482645398</v>
+      </c>
+      <c r="L26" s="15">
+        <v>53.407499999999999</v>
+      </c>
+      <c r="M26" s="15">
+        <v>3.9220900000000003E-2</v>
+      </c>
+      <c r="N26" s="15">
+        <v>3.7683399999999999E-2</v>
+      </c>
+      <c r="O26" s="15">
+        <v>1.7714669999999998E-2</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>97983</v>
+      </c>
+      <c r="E27" s="2">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="3">
         <v>44</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="3">
         <v>5.3293999999999997</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>3.6071879999999998</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="15">
         <v>43.212336000000001</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M27" s="15">
         <v>3.3841510612267103E-2</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="15">
         <v>3.0669129E-2</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="15">
         <v>1.4138269E-2</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37" t="s">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B33" s="37">
         <v>4227</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37">
+      <c r="D33" s="38"/>
+      <c r="E33" s="37">
         <v>25</v>
       </c>
-      <c r="F27" s="38">
-        <v>50</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38">
+      <c r="F33" s="38">
+        <v>50</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38">
         <v>42</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39">
+      <c r="J33" s="38"/>
+      <c r="K33" s="39">
         <v>3.7265029427634002</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L33" s="40">
         <v>45.614512805679603</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M33" s="39">
         <v>3.43615135073616E-2</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N33" s="39">
         <v>3.1547316617100397E-2</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O33" s="39">
         <v>1.5534556490396E-2</v>
       </c>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37" t="s">
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B34" s="37">
         <v>4227</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C34" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D34" s="38">
         <v>240609</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E34" s="37">
         <v>25</v>
       </c>
-      <c r="F28" s="38">
-        <v>50</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38" t="s">
+      <c r="F34" s="38">
+        <v>50</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I34" s="38">
         <v>42</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J34" s="38">
         <v>-2.4544000000000001</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K34" s="39">
         <v>3.8999714860000001</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L34" s="40">
         <v>53.729131000000002</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M34" s="40">
         <v>3.6286051999999999E-2</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N34" s="40">
         <v>3.3511891500000002E-2</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O34" s="40">
         <v>1.95500176E-2</v>
       </c>
-      <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B35" s="37">
         <v>4227</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D35" s="38">
         <v>240609</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E35" s="37">
         <v>25</v>
       </c>
-      <c r="F29" s="38">
-        <v>50</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38" t="s">
+      <c r="F35" s="38">
+        <v>50</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I35" s="38">
         <v>43</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J35" s="38">
         <v>-2.4998999999999998</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K35" s="39">
         <v>3.9447550800000002</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L35" s="40">
         <v>68.021673059999998</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M35" s="40">
         <v>3.63133411E-2</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N35" s="40">
         <v>3.3797269999999997E-2</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O35" s="40">
         <v>2.2926808E-2</v>
       </c>
-      <c r="P29" s="38"/>
-    </row>
-    <row r="30" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37" t="s">
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B36" s="37">
         <v>4227</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D36" s="38">
         <v>240609</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E36" s="37">
         <v>25</v>
       </c>
-      <c r="F30" s="38">
-        <v>50</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38" t="s">
+      <c r="F36" s="38">
+        <v>50</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I36" s="38">
         <v>44</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J36" s="38">
         <v>-2.5280999999999998</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K36" s="39">
         <v>3.9255741059</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L36" s="40">
         <v>67.52120601</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M36" s="40">
         <v>3.6533299999999998E-2</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N36" s="40">
         <v>3.3730811200000002E-2</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O36" s="40">
         <v>2.29461405E-2</v>
       </c>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="P36" s="38"/>
+    </row>
+    <row r="37" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B37" s="6">
         <v>4227</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6">
-        <v>100</v>
-      </c>
-      <c r="F31" s="7">
-        <v>50</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7">
+      <c r="D37" s="7"/>
+      <c r="E37" s="6">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>50</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
         <v>42</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="20">
+      <c r="J37" s="7"/>
+      <c r="K37" s="20">
         <v>39.8111117321926</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L37" s="21">
         <v>1532.6129417120101</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M37" s="21">
         <v>0.295085285407581</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N37" s="21">
         <v>0.305712224216657</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O37" s="21">
         <v>0.28655775903000102</v>
       </c>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B38" s="6">
         <v>4227</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6">
-        <v>100</v>
-      </c>
-      <c r="F32" s="7">
-        <v>100</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7">
+      <c r="D38" s="7"/>
+      <c r="E38" s="6">
+        <v>100</v>
+      </c>
+      <c r="F38" s="7">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
         <v>42</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="20">
+      <c r="J38" s="7"/>
+      <c r="K38" s="20">
         <v>24.7464336651162</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L38" s="21">
         <v>881.43752107056503</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M38" s="20">
         <v>0.19131980000000001</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N38" s="20">
         <v>0.19190260000000001</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
+      <c r="O38" s="21"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B39" s="25">
         <v>4227</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C39" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25">
-        <v>100</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="D39" s="26"/>
+      <c r="E39" s="25">
+        <v>100</v>
+      </c>
+      <c r="F39" s="26">
         <v>200</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26">
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26">
         <v>42</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26" t="s">
+      <c r="J39" s="26"/>
+      <c r="K39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="26" t="s">
+      <c r="N39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="26" t="s">
+      <c r="P39" s="26" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B5669C-57F6-418B-A177-01EAFD19715F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9ECAE2-0D6C-4382-A820-B08C964E88F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="19200" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1F683-F06B-4E20-80D1-BE6D024EC21F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
@@ -3462,13 +3462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" style="1"/>
     <col min="10" max="10" width="10.90625" style="1"/>
@@ -4973,7 +4974,7 @@
   <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/results/results_v2.xlsb.xlsx
+++ b/results/results_v2.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9ECAE2-0D6C-4382-A820-B08C964E88F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37F152-F242-4AFF-AABD-B6192F39C675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="19200" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="187">
   <si>
     <t>Algorithm</t>
   </si>
@@ -549,6 +549,48 @@
   </si>
   <si>
     <t>4131.0536 (288)</t>
+  </si>
+  <si>
+    <t>1998.0717 (145)</t>
+  </si>
+  <si>
+    <t>1382.042 (145)</t>
+  </si>
+  <si>
+    <t>8min</t>
+  </si>
+  <si>
+    <t>967.3281 (190)</t>
+  </si>
+  <si>
+    <t>11min</t>
+  </si>
+  <si>
+    <t>2645.8181 (190)</t>
+  </si>
+  <si>
+    <t>19min</t>
+  </si>
+  <si>
+    <t>164.3203 (190)</t>
+  </si>
+  <si>
+    <t>18min</t>
+  </si>
+  <si>
+    <t>794.47595 (248)</t>
+  </si>
+  <si>
+    <t>21min</t>
+  </si>
+  <si>
+    <t>26min</t>
+  </si>
+  <si>
+    <t>24min</t>
+  </si>
+  <si>
+    <t>35min</t>
   </si>
 </sst>
 </file>
@@ -3460,11 +3502,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AF3A36-8329-4641-8F20-69FE4A8D253B}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3472,7 +3514,9 @@
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" style="1"/>
-    <col min="10" max="10" width="10.90625" style="1"/>
+    <col min="10" max="10" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4843,124 +4887,1164 @@
       </c>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="38"/>
+    </row>
+    <row r="39" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B44" s="6">
         <v>4227</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6">
-        <v>100</v>
-      </c>
-      <c r="F37" s="7">
-        <v>50</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7">
+      <c r="D44" s="7"/>
+      <c r="E44" s="6">
+        <v>100</v>
+      </c>
+      <c r="F44" s="7">
+        <v>50</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
         <v>42</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="20">
+      <c r="J44" s="7"/>
+      <c r="K44" s="20">
         <v>39.8111117321926</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L44" s="21">
         <v>1532.6129417120101</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M44" s="21">
         <v>0.295085285407581</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N44" s="21">
         <v>0.305712224216657</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O44" s="21">
         <v>0.28655775903000102</v>
       </c>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B45" s="6">
         <v>4227</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6">
-        <v>100</v>
-      </c>
-      <c r="F38" s="7">
-        <v>100</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7">
+      <c r="D45" s="7"/>
+      <c r="E45" s="6">
+        <v>100</v>
+      </c>
+      <c r="F45" s="7">
+        <v>100</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
         <v>42</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="20">
+      <c r="J45" s="7"/>
+      <c r="K45" s="20">
         <v>24.7464336651162</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L45" s="21">
         <v>881.43752107056503</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M45" s="20">
         <v>0.19131980000000001</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N45" s="20">
         <v>0.19190260000000001</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
+      <c r="O45" s="21"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B46" s="25">
         <v>4227</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C46" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="25">
-        <v>100</v>
-      </c>
-      <c r="F39" s="26">
+      <c r="D46" s="26"/>
+      <c r="E46" s="25">
+        <v>100</v>
+      </c>
+      <c r="F46" s="26">
         <v>200</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26">
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26">
         <v>42</v>
       </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26" t="s">
+      <c r="J46" s="26"/>
+      <c r="K46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="26" t="s">
+      <c r="N46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="26" t="s">
+      <c r="O46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P39" s="26" t="s">
+      <c r="P46" s="26" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="41">
+        <v>4227</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="41">
+        <v>100</v>
+      </c>
+      <c r="F48" s="42">
+        <v>50</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42">
+        <v>42</v>
+      </c>
+      <c r="J48" s="42">
+        <v>5987.5990000000002</v>
+      </c>
+      <c r="K48" s="42">
+        <v>39.811111173</v>
+      </c>
+      <c r="L48" s="44">
+        <v>1532.6129417120101</v>
+      </c>
+      <c r="M48" s="44">
+        <v>0.295085285407581</v>
+      </c>
+      <c r="N48" s="44">
+        <v>0.305712224216657</v>
+      </c>
+      <c r="O48" s="44">
+        <v>0.28655775903000102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="41">
+        <v>4227</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="41">
+        <v>100</v>
+      </c>
+      <c r="F49" s="42">
+        <v>50</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42">
+        <v>43</v>
+      </c>
+      <c r="J49" s="42">
+        <v>6010.8316999999997</v>
+      </c>
+      <c r="K49" s="42">
+        <v>56.815319080000002</v>
+      </c>
+      <c r="L49" s="44">
+        <v>2221.3669726200001</v>
+      </c>
+      <c r="M49" s="42">
+        <v>0.32490976999999999</v>
+      </c>
+      <c r="N49" s="42">
+        <v>0.49594254999999998</v>
+      </c>
+      <c r="O49" s="42">
+        <v>0.15688109</v>
+      </c>
+      <c r="P49" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67">
+        <v>100</v>
+      </c>
+      <c r="F50" s="42">
+        <v>50</v>
+      </c>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66">
+        <v>44</v>
+      </c>
+      <c r="J50" s="42">
+        <v>6580.2233999999999</v>
+      </c>
+      <c r="K50" s="42">
+        <v>63.977869939999998</v>
+      </c>
+      <c r="L50" s="44">
+        <v>2501.5459309900002</v>
+      </c>
+      <c r="M50" s="42">
+        <v>0.36858385999999999</v>
+      </c>
+      <c r="N50" s="42">
+        <v>0.53797130000000004</v>
+      </c>
+      <c r="O50" s="42">
+        <v>0.19995673799999999</v>
+      </c>
+      <c r="P50" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67">
+        <v>150</v>
+      </c>
+      <c r="F51" s="42">
+        <v>50</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42">
+        <v>42</v>
+      </c>
+      <c r="J51" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="42">
+        <v>33.2168268</v>
+      </c>
+      <c r="L51" s="44">
+        <v>1245.2308292600001</v>
+      </c>
+      <c r="M51" s="42">
+        <v>0.29413540999999999</v>
+      </c>
+      <c r="N51" s="42">
+        <v>0.25918701</v>
+      </c>
+      <c r="O51" s="42">
+        <v>0.41749721000000001</v>
+      </c>
+      <c r="P51" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67">
+        <v>150</v>
+      </c>
+      <c r="F52" s="42">
+        <v>50</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42">
+        <v>43</v>
+      </c>
+      <c r="J52" s="42">
+        <v>2886.2824999999998</v>
+      </c>
+      <c r="K52" s="41">
+        <v>29.89307805</v>
+      </c>
+      <c r="L52" s="41">
+        <v>1137.6778158100001</v>
+      </c>
+      <c r="M52" s="41">
+        <v>0.23886130999999999</v>
+      </c>
+      <c r="N52" s="41">
+        <v>0.23515806</v>
+      </c>
+      <c r="O52" s="41">
+        <v>0.27140829</v>
+      </c>
+      <c r="P52" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67">
+        <v>150</v>
+      </c>
+      <c r="F53" s="42">
+        <v>50</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="66">
+        <v>44</v>
+      </c>
+      <c r="J53" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="K53" s="41">
+        <v>51.053143290000001</v>
+      </c>
+      <c r="L53" s="41">
+        <v>1959.59859923</v>
+      </c>
+      <c r="M53" s="41">
+        <v>0.30559857000000001</v>
+      </c>
+      <c r="N53" s="41">
+        <v>0.40463465999999998</v>
+      </c>
+      <c r="O53" s="41">
+        <v>0.12930256000000001</v>
+      </c>
+      <c r="P53" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67">
+        <v>200</v>
+      </c>
+      <c r="F54" s="42">
+        <v>50</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42">
+        <v>42</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K54" s="41">
+        <v>16.054106149999999</v>
+      </c>
+      <c r="L54" s="41">
+        <v>552.52366905999997</v>
+      </c>
+      <c r="M54" s="41">
+        <v>0.12951341</v>
+      </c>
+      <c r="N54" s="41">
+        <v>0.12731044</v>
+      </c>
+      <c r="O54" s="41">
+        <v>0.12750280999999999</v>
+      </c>
+      <c r="P54" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67">
+        <v>200</v>
+      </c>
+      <c r="F55" s="42">
+        <v>50</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42">
+        <v>43</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" s="41">
+        <v>20.0279132</v>
+      </c>
+      <c r="L55" s="41">
+        <v>746.12020351000001</v>
+      </c>
+      <c r="M55" s="41">
+        <v>0.14278342999999999</v>
+      </c>
+      <c r="N55" s="41">
+        <v>0.17515089</v>
+      </c>
+      <c r="O55" s="41">
+        <v>7.6393329999999995E-2</v>
+      </c>
+      <c r="P55" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67">
+        <v>200</v>
+      </c>
+      <c r="F56" s="42">
+        <v>50</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="66">
+        <v>44</v>
+      </c>
+      <c r="J56" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K56" s="41">
+        <v>16.552922259999999</v>
+      </c>
+      <c r="L56" s="41">
+        <v>574.24439425000003</v>
+      </c>
+      <c r="M56" s="41">
+        <v>0.12937567</v>
+      </c>
+      <c r="N56" s="41">
+        <v>0.13081623000000001</v>
+      </c>
+      <c r="O56" s="41">
+        <v>0.12079728000000001</v>
+      </c>
+      <c r="P56" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67">
+        <v>250</v>
+      </c>
+      <c r="F57" s="42">
+        <v>50</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42">
+        <v>42</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="41">
+        <v>11.092611120000001</v>
+      </c>
+      <c r="L57" s="41">
+        <v>363.60744175999997</v>
+      </c>
+      <c r="M57" s="41">
+        <v>9.0542910000000004E-2</v>
+      </c>
+      <c r="N57" s="41">
+        <v>9.0585730000000003E-2</v>
+      </c>
+      <c r="O57" s="41">
+        <v>5.056335E-2</v>
+      </c>
+      <c r="P57" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67">
+        <v>250</v>
+      </c>
+      <c r="F58" s="42">
+        <v>50</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42">
+        <v>43</v>
+      </c>
+      <c r="J58" s="42">
+        <v>2127.03206</v>
+      </c>
+      <c r="K58" s="41">
+        <v>11.095081589999999</v>
+      </c>
+      <c r="L58" s="41">
+        <v>389.24279887</v>
+      </c>
+      <c r="M58" s="41">
+        <v>9.0895249999999997E-2</v>
+      </c>
+      <c r="N58" s="41">
+        <v>9.2491989999999996E-2</v>
+      </c>
+      <c r="O58" s="41">
+        <v>0.12978544</v>
+      </c>
+      <c r="P58" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67">
+        <v>250</v>
+      </c>
+      <c r="F59" s="42">
+        <v>50</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="66">
+        <v>44</v>
+      </c>
+      <c r="J59" s="42">
+        <v>17.9893</v>
+      </c>
+      <c r="K59" s="41">
+        <v>8.5080010099999992</v>
+      </c>
+      <c r="L59" s="41">
+        <v>263.82989985</v>
+      </c>
+      <c r="M59" s="41">
+        <v>7.1243500000000001E-2</v>
+      </c>
+      <c r="N59" s="41">
+        <v>7.0827890000000004E-2</v>
+      </c>
+      <c r="O59" s="41">
+        <v>4.4766830000000001E-2</v>
+      </c>
+      <c r="P59" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67">
+        <v>300</v>
+      </c>
+      <c r="F60" s="42">
+        <v>50</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42">
+        <v>42</v>
+      </c>
+      <c r="J60" s="42">
+        <v>761.44443999999999</v>
+      </c>
+      <c r="K60" s="41">
+        <v>10.86580343</v>
+      </c>
+      <c r="L60" s="41">
+        <v>351.00028567999999</v>
+      </c>
+      <c r="M60" s="41">
+        <v>8.8302350000000002E-2</v>
+      </c>
+      <c r="N60" s="41">
+        <v>9.2872479999999993E-2</v>
+      </c>
+      <c r="O60" s="41">
+        <v>3.4290349999999997E-2</v>
+      </c>
+      <c r="P60" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="66"/>
+      <c r="E61" s="67">
+        <v>300</v>
+      </c>
+      <c r="F61" s="42">
+        <v>50</v>
+      </c>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42">
+        <v>43</v>
+      </c>
+      <c r="J61" s="42">
+        <v>2032.7434000000001</v>
+      </c>
+      <c r="K61" s="41">
+        <v>10.887863100000001</v>
+      </c>
+      <c r="L61" s="41">
+        <v>379.82270992999997</v>
+      </c>
+      <c r="M61" s="41">
+        <v>8.8109960000000001E-2</v>
+      </c>
+      <c r="N61" s="41">
+        <v>8.5333240000000005E-2</v>
+      </c>
+      <c r="O61" s="41">
+        <v>8.4146769999999996E-2</v>
+      </c>
+      <c r="P61" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="66"/>
+      <c r="E62" s="67">
+        <v>300</v>
+      </c>
+      <c r="F62" s="42">
+        <v>50</v>
+      </c>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="66">
+        <v>44</v>
+      </c>
+      <c r="J62" s="42">
+        <v>13.1022</v>
+      </c>
+      <c r="K62" s="41">
+        <v>9.0291741699999992</v>
+      </c>
+      <c r="L62" s="41">
+        <v>286.6056074</v>
+      </c>
+      <c r="M62" s="41">
+        <v>7.4564649999999996E-2</v>
+      </c>
+      <c r="N62" s="41">
+        <v>7.7213509999999999E-2</v>
+      </c>
+      <c r="O62" s="41">
+        <v>3.5726870000000001E-2</v>
+      </c>
+      <c r="P62" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="66"/>
+      <c r="E63" s="67">
+        <v>350</v>
+      </c>
+      <c r="F63" s="42">
+        <v>50</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42">
+        <v>42</v>
+      </c>
+      <c r="J63" s="42">
+        <v>755.6558</v>
+      </c>
+      <c r="K63" s="41">
+        <v>12.085217139999999</v>
+      </c>
+      <c r="L63" s="41">
+        <v>397.19151485999998</v>
+      </c>
+      <c r="M63" s="41">
+        <v>9.5384200000000002E-2</v>
+      </c>
+      <c r="N63" s="41">
+        <v>0.10140046</v>
+      </c>
+      <c r="O63" s="41">
+        <v>3.4829119999999998E-2</v>
+      </c>
+      <c r="P63" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="67">
+        <v>350</v>
+      </c>
+      <c r="F64" s="42">
+        <v>50</v>
+      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42">
+        <v>43</v>
+      </c>
+      <c r="J64" s="42">
+        <v>1989.3108999999999</v>
+      </c>
+      <c r="K64" s="41">
+        <v>23.83834577</v>
+      </c>
+      <c r="L64" s="41">
+        <v>890.57416341999999</v>
+      </c>
+      <c r="M64" s="41">
+        <v>0.16666360999999999</v>
+      </c>
+      <c r="N64" s="41">
+        <v>0.19501345</v>
+      </c>
+      <c r="O64" s="41">
+        <v>4.6165150000000002E-2</v>
+      </c>
+      <c r="P64" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67">
+        <v>350</v>
+      </c>
+      <c r="F65" s="42">
+        <v>50</v>
+      </c>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="66">
+        <v>44</v>
+      </c>
+      <c r="J65" s="42">
+        <v>10.9015</v>
+      </c>
+      <c r="K65" s="41">
+        <v>7.6194811800000002</v>
+      </c>
+      <c r="L65" s="41">
+        <v>231.26520195000001</v>
+      </c>
+      <c r="M65" s="41">
+        <v>6.5453860000000003E-2</v>
+      </c>
+      <c r="N65" s="41">
+        <v>6.2881220000000002E-2</v>
+      </c>
+      <c r="O65" s="41">
+        <v>7.4823990000000007E-2</v>
+      </c>
+      <c r="P65" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="66"/>
+      <c r="E66" s="67">
+        <v>400</v>
+      </c>
+      <c r="F66" s="42">
+        <v>50</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42">
+        <v>42</v>
+      </c>
+      <c r="J66" s="42">
+        <v>699.42229999999995</v>
+      </c>
+      <c r="K66" s="41">
+        <v>7.8022089000000001</v>
+      </c>
+      <c r="L66" s="41">
+        <v>236.03649923</v>
+      </c>
+      <c r="M66" s="41">
+        <v>6.7061309999999999E-2</v>
+      </c>
+      <c r="N66" s="41">
+        <v>6.4466800000000005E-2</v>
+      </c>
+      <c r="O66" s="41">
+        <v>7.2232569999999996E-2</v>
+      </c>
+      <c r="P66" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="66"/>
+      <c r="E67" s="67">
+        <v>400</v>
+      </c>
+      <c r="F67" s="42">
+        <v>50</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42">
+        <v>43</v>
+      </c>
+      <c r="J67" s="42">
+        <v>1901.029</v>
+      </c>
+      <c r="K67" s="41">
+        <v>12.5952123</v>
+      </c>
+      <c r="L67" s="41">
+        <v>446.37053297</v>
+      </c>
+      <c r="M67" s="41">
+        <v>0.10335569</v>
+      </c>
+      <c r="N67" s="41">
+        <v>0.10536046</v>
+      </c>
+      <c r="O67" s="41">
+        <v>0.14697059000000001</v>
+      </c>
+      <c r="P67" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="67">
+        <v>4227</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67">
+        <v>400</v>
+      </c>
+      <c r="F68" s="42">
+        <v>50</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="66">
+        <v>44</v>
+      </c>
+      <c r="J68" s="42">
+        <v>9.5536999999999992</v>
+      </c>
+      <c r="K68" s="41">
+        <v>7.9462609400000002</v>
+      </c>
+      <c r="L68" s="41">
+        <v>242.28017265</v>
+      </c>
+      <c r="M68" s="41">
+        <v>6.7314230000000003E-2</v>
+      </c>
+      <c r="N68" s="41">
+        <v>6.5463549999999995E-2</v>
+      </c>
+      <c r="O68" s="41">
+        <v>8.196705E-2</v>
+      </c>
+      <c r="P68" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
